--- a/kvk_after_metrics.xlsx
+++ b/kvk_after_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{066B0DC7-A344-4B81-B299-F930513A2456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E428446-BC74-4800-9A68-34CE28CA358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0140A549-1D5D-424B-8F99-8895DB6868C5}"/>
   </bookViews>
@@ -1269,9 +1269,18 @@
   </sheetPr>
   <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1537,7 +1546,7 @@
         <v>10385013344</v>
       </c>
       <c r="E6" s="2">
-        <v>293237790</v>
+        <v>29323779</v>
       </c>
       <c r="F6" s="2">
         <v>142297463</v>

--- a/kvk_after_metrics.xlsx
+++ b/kvk_after_metrics.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E428446-BC74-4800-9A68-34CE28CA358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{699F58F8-F7AA-4C2C-BF88-5DA85847AE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0140A549-1D5D-424B-8F99-8895DB6868C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6EB56B6D-4D1F-40C5-9C29-1ECF5DA95FEE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-26" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-06-27" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
@@ -89,107 +89,110 @@
     <t>Tsú</t>
   </si>
   <si>
+    <t>MäD</t>
+  </si>
+  <si>
     <t>Aorus Main</t>
   </si>
   <si>
-    <t>MäD</t>
+    <t>Tom Bin</t>
+  </si>
+  <si>
+    <t>Pigge</t>
+  </si>
+  <si>
+    <t>K1ngk3v I</t>
+  </si>
+  <si>
+    <t>ElKappa</t>
+  </si>
+  <si>
+    <t>ManhAnMy88</t>
+  </si>
+  <si>
+    <t>ᴮᴮメBoZkurTメ</t>
+  </si>
+  <si>
+    <t>ﾒ l b0m0</t>
+  </si>
+  <si>
+    <t>十 ALUCARD 十</t>
+  </si>
+  <si>
+    <t>ᴾnoidᶜᵒʷ</t>
+  </si>
+  <si>
+    <t>ᴺᶻ Nemeziz</t>
+  </si>
+  <si>
+    <t>火Akaza乂</t>
+  </si>
+  <si>
+    <t>Onkel Donald</t>
+  </si>
+  <si>
+    <t>Ove HK</t>
+  </si>
+  <si>
+    <t>Money4joker</t>
+  </si>
+  <si>
+    <t>ᶜᵏKJM81</t>
+  </si>
+  <si>
+    <t>ᴸᴵᴷᴱ MD</t>
   </si>
   <si>
     <t xml:space="preserve">(WINs]WINs-UNITED WE WIN
 </t>
   </si>
   <si>
-    <t>Tom Bin</t>
-  </si>
-  <si>
-    <t>ElKappa</t>
-  </si>
-  <si>
-    <t>ᴮᴮメBoZkurTメ</t>
-  </si>
-  <si>
-    <t>K1ngk3v I</t>
-  </si>
-  <si>
-    <t>Pigge</t>
-  </si>
-  <si>
-    <t>ﾒ l b0m0</t>
-  </si>
-  <si>
-    <t>ManhAnMy88</t>
-  </si>
-  <si>
-    <t>ᴾnoidᶜᵒʷ</t>
-  </si>
-  <si>
-    <t>ᴺᶻ Nemeziz</t>
-  </si>
-  <si>
-    <t>火Akaza乂</t>
-  </si>
-  <si>
-    <t>Ove HK</t>
-  </si>
-  <si>
-    <t>十 ALUCARD 十</t>
-  </si>
-  <si>
-    <t>Onkel Donald</t>
-  </si>
-  <si>
-    <t>Money4joker</t>
-  </si>
-  <si>
-    <t>ᴸᴵᴷᴱ MD</t>
-  </si>
-  <si>
     <t>FreeByrd</t>
   </si>
   <si>
-    <t>ᶜᵏKJM81</t>
+    <t>乂TENNO乂</t>
+  </si>
+  <si>
+    <t>Ɓo乄</t>
+  </si>
+  <si>
+    <t>SNØW BÄll</t>
+  </si>
+  <si>
+    <t>ᴰᴹMightyACE</t>
   </si>
   <si>
     <t>Johan Swe</t>
   </si>
   <si>
-    <t>乂TENNO乂</t>
-  </si>
-  <si>
-    <t>SNØW BÄll</t>
-  </si>
-  <si>
-    <t>ᴰᴹMightyACE</t>
-  </si>
-  <si>
-    <t>Ɓo乄</t>
+    <t>Duboish</t>
+  </si>
+  <si>
+    <t>Wōđinaz</t>
+  </si>
+  <si>
+    <t>CrazyBeauty</t>
   </si>
   <si>
     <t>ᶜᵏSamuraii</t>
   </si>
   <si>
-    <t>Wōđinaz</t>
-  </si>
-  <si>
-    <t>CrazyBeauty</t>
+    <t>FONZY</t>
+  </si>
+  <si>
+    <t>YourFatHubby</t>
+  </si>
+  <si>
+    <t>Daìsy</t>
+  </si>
+  <si>
+    <t>Lvl9Sushi</t>
+  </si>
+  <si>
+    <t>Zeuspromax</t>
   </si>
   <si>
     <t>ﾒ l Mike</t>
-  </si>
-  <si>
-    <t>Duboish</t>
-  </si>
-  <si>
-    <t>FONZY</t>
-  </si>
-  <si>
-    <t>YourFatHubby</t>
-  </si>
-  <si>
-    <t>Daìsy</t>
-  </si>
-  <si>
-    <t>Lvl9Sushi</t>
   </si>
   <si>
     <t>ﾒ l Ritchie</t>
@@ -199,15 +202,15 @@
 </t>
   </si>
   <si>
-    <t>Zeuspromax</t>
-  </si>
-  <si>
     <t>FenjaOfSweden</t>
   </si>
   <si>
     <t>Mighty Tanjiro</t>
   </si>
   <si>
+    <t>ᶜᵏ Gannicus</t>
+  </si>
+  <si>
     <t>1L7N</t>
   </si>
   <si>
@@ -224,9 +227,6 @@
   </si>
   <si>
     <t>Orenji No Neko</t>
-  </si>
-  <si>
-    <t>ᶜᵏ Gannicus</t>
   </si>
   <si>
     <t>ᶜᵏCoLi FaRm</t>
@@ -291,10 +291,10 @@
     <t>TsuFarm7</t>
   </si>
   <si>
+    <t>Atlas mini2</t>
+  </si>
+  <si>
     <t>Money4joker2</t>
-  </si>
-  <si>
-    <t>Atlas mini2</t>
   </si>
   <si>
     <t>DreamzZy</t>
@@ -359,10 +359,10 @@
     <t>bozkurdfar</t>
   </si>
   <si>
+    <t>Zeuspro</t>
+  </si>
+  <si>
     <t>TsuFarm9</t>
-  </si>
-  <si>
-    <t>Zeuspro</t>
   </si>
   <si>
     <t>GDragon INDRA</t>
@@ -381,6 +381,10 @@
     <t>Bad DreamzZ</t>
   </si>
   <si>
+    <t xml:space="preserve">[DM#2]Mighty Farmer #2
+</t>
+  </si>
+  <si>
     <t>K乂M ﾐ Farm 3</t>
   </si>
   <si>
@@ -508,10 +512,6 @@
     <t>KD Bank62</t>
   </si>
   <si>
-    <t xml:space="preserve">[DM#2]Mighty Farmer #2
-</t>
-  </si>
-  <si>
     <t>Viserys消除2</t>
   </si>
   <si>
@@ -777,9 +777,6 @@
     <t>holasoyjuan22</t>
   </si>
   <si>
-    <t>Ɓo乄 F4 GO</t>
-  </si>
-  <si>
     <t>Kraieski</t>
   </si>
   <si>
@@ -787,6 +784,9 @@
 </t>
   </si>
   <si>
+    <t>Ɓo乄 F4 GO</t>
+  </si>
+  <si>
     <t>Danthemanzzzz</t>
   </si>
   <si>
@@ -840,13 +840,13 @@
     <t>Gobernador197983578</t>
   </si>
   <si>
+    <t>Governador100192170</t>
+  </si>
+  <si>
     <t>Gobernador164638687</t>
   </si>
   <si>
     <t>Gobernador197982730</t>
-  </si>
-  <si>
-    <t>Governador100192170</t>
   </si>
   <si>
     <t>ghostbr30</t>
@@ -1263,24 +1263,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E4B037-32D0-4D5D-A013-8FFCA4218D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999BBF18-8B04-4938-A882-13D85B0EE17E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1340,10 +1333,10 @@
         <v>45440625</v>
       </c>
       <c r="C2" s="2">
-        <v>104853701</v>
+        <v>107487539</v>
       </c>
       <c r="D2" s="2">
-        <v>9572068645</v>
+        <v>9588936115</v>
       </c>
       <c r="E2" s="2">
         <v>25819407</v>
@@ -1358,16 +1351,16 @@
         <v>1239402</v>
       </c>
       <c r="I2" s="2">
-        <v>171228690</v>
+        <v>171349005</v>
       </c>
       <c r="J2" s="2">
-        <v>392429960</v>
+        <v>393213176</v>
       </c>
       <c r="K2" s="2">
         <v>3351638617</v>
       </c>
       <c r="L2" s="2">
-        <v>29434</v>
+        <v>89477</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>17</v>
@@ -1390,34 +1383,34 @@
         <v>38708637</v>
       </c>
       <c r="C3" s="2">
-        <v>92249377</v>
+        <v>92844157</v>
       </c>
       <c r="D3" s="2">
-        <v>7481109099</v>
+        <v>7492015247</v>
       </c>
       <c r="E3" s="2">
-        <v>24808212</v>
+        <v>24877327</v>
       </c>
       <c r="F3" s="2">
         <v>93477329</v>
       </c>
       <c r="G3" s="2">
-        <v>2133505</v>
+        <v>2133829</v>
       </c>
       <c r="H3" s="2">
         <v>1879536</v>
       </c>
       <c r="I3" s="2">
-        <v>155380978</v>
+        <v>155494136</v>
       </c>
       <c r="J3" s="2">
-        <v>294840935</v>
+        <v>295329631</v>
       </c>
       <c r="K3" s="2">
         <v>13909675341</v>
       </c>
       <c r="L3" s="2">
-        <v>127655</v>
+        <v>127700</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
@@ -1440,7 +1433,7 @@
         <v>49041000</v>
       </c>
       <c r="C4" s="2">
-        <v>90807682</v>
+        <v>90855682</v>
       </c>
       <c r="D4" s="2">
         <v>4066626394</v>
@@ -1467,7 +1460,7 @@
         <v>40867505926</v>
       </c>
       <c r="L4" s="2">
-        <v>75563</v>
+        <v>75569</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>17</v>
@@ -1490,16 +1483,16 @@
         <v>59658597</v>
       </c>
       <c r="C5" s="2">
-        <v>88996501</v>
+        <v>90228021</v>
       </c>
       <c r="D5" s="2">
-        <v>5611525543</v>
+        <v>5616715523</v>
       </c>
       <c r="E5" s="2">
-        <v>27781721</v>
+        <v>27810053</v>
       </c>
       <c r="F5" s="2">
-        <v>47461097</v>
+        <v>47461098</v>
       </c>
       <c r="G5" s="2">
         <v>2622618</v>
@@ -1508,16 +1501,16 @@
         <v>2517422</v>
       </c>
       <c r="I5" s="2">
-        <v>129674858</v>
+        <v>129768220</v>
       </c>
       <c r="J5" s="2">
-        <v>214498491</v>
+        <v>214711309</v>
       </c>
       <c r="K5" s="2">
         <v>1671072258</v>
       </c>
       <c r="L5" s="2">
-        <v>199093</v>
+        <v>199199</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>17</v>
@@ -1540,7 +1533,7 @@
         <v>2036382</v>
       </c>
       <c r="C6" s="2">
-        <v>87162513</v>
+        <v>87264359</v>
       </c>
       <c r="D6" s="2">
         <v>10385013344</v>
@@ -1567,7 +1560,7 @@
         <v>27051348859</v>
       </c>
       <c r="L6" s="2">
-        <v>187951</v>
+        <v>188043</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>17</v>
@@ -1581,49 +1574,49 @@
         <v>22</v>
       </c>
       <c r="B7" s="2">
-        <v>73021280</v>
+        <v>70446861</v>
       </c>
       <c r="C7" s="2">
-        <v>85846835</v>
+        <v>87426930</v>
       </c>
       <c r="D7" s="2">
-        <v>3926168586</v>
+        <v>1971071967</v>
       </c>
       <c r="E7" s="2">
-        <v>17152297</v>
+        <v>20219806</v>
       </c>
       <c r="F7" s="2">
-        <v>90781962</v>
+        <v>94125825</v>
       </c>
       <c r="G7" s="2">
-        <v>5202348</v>
+        <v>492306</v>
       </c>
       <c r="H7" s="2">
-        <v>8127112</v>
+        <v>649020</v>
       </c>
       <c r="I7" s="2">
-        <v>143163061</v>
+        <v>55647639</v>
       </c>
       <c r="J7" s="2">
-        <v>121673422</v>
+        <v>69609486</v>
       </c>
       <c r="K7" s="2">
-        <v>60115533754</v>
+        <v>7881462478</v>
       </c>
       <c r="L7" s="2">
-        <v>140029</v>
+        <v>128949</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="2">
-        <v>31217233</v>
+        <v>15230974</v>
       </c>
       <c r="O7" s="2">
-        <v>1494998</v>
+        <v>2388637</v>
       </c>
       <c r="P7" s="2">
-        <v>14472563</v>
+        <v>13258921</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1631,63 +1624,63 @@
         <v>23</v>
       </c>
       <c r="B8" s="2">
-        <v>70446861</v>
+        <v>73021280</v>
       </c>
       <c r="C8" s="2">
-        <v>85266371</v>
+        <v>85846835</v>
       </c>
       <c r="D8" s="2">
-        <v>1966015677</v>
+        <v>3926168586</v>
       </c>
       <c r="E8" s="2">
-        <v>20104709</v>
+        <v>17152297</v>
       </c>
       <c r="F8" s="2">
-        <v>94125825</v>
+        <v>90781962</v>
       </c>
       <c r="G8" s="2">
-        <v>492306</v>
+        <v>5202348</v>
       </c>
       <c r="H8" s="2">
-        <v>649020</v>
+        <v>8127112</v>
       </c>
       <c r="I8" s="2">
-        <v>55590882</v>
+        <v>143163061</v>
       </c>
       <c r="J8" s="2">
-        <v>69385050</v>
+        <v>121673422</v>
       </c>
       <c r="K8" s="2">
-        <v>7881462478</v>
+        <v>60115533754</v>
       </c>
       <c r="L8" s="2">
-        <v>128794</v>
+        <v>140035</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N8" s="2">
-        <v>15230974</v>
+        <v>31217233</v>
       </c>
       <c r="O8" s="2">
-        <v>2388637</v>
+        <v>1494998</v>
       </c>
       <c r="P8" s="2">
-        <v>13258921</v>
+        <v>14472563</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>89003413</v>
       </c>
       <c r="C9" s="2">
-        <v>84097737</v>
+        <v>85565985</v>
       </c>
       <c r="D9" s="2">
-        <v>4484016972</v>
+        <v>4484017912</v>
       </c>
       <c r="E9" s="2">
         <v>23645149</v>
@@ -1705,13 +1698,13 @@
         <v>102224295</v>
       </c>
       <c r="J9" s="2">
-        <v>169479875</v>
+        <v>169479922</v>
       </c>
       <c r="K9" s="2">
-        <v>269375392735</v>
+        <v>271875392735</v>
       </c>
       <c r="L9" s="2">
-        <v>125911</v>
+        <v>125953</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>17</v>
@@ -1728,608 +1721,608 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>38767756</v>
+        <v>63832228</v>
       </c>
       <c r="C10" s="2">
-        <v>82753925</v>
+        <v>83476866</v>
       </c>
       <c r="D10" s="2">
-        <v>1927210304</v>
+        <v>8850750774</v>
       </c>
       <c r="E10" s="2">
-        <v>21140305</v>
+        <v>31047518</v>
       </c>
       <c r="F10" s="2">
-        <v>4209204</v>
+        <v>10737181</v>
       </c>
       <c r="G10" s="2">
-        <v>2127656</v>
+        <v>10033355</v>
       </c>
       <c r="H10" s="2">
-        <v>1727688</v>
+        <v>5108657</v>
       </c>
       <c r="I10" s="2">
-        <v>57810838</v>
+        <v>176121368</v>
       </c>
       <c r="J10" s="2">
-        <v>66854701</v>
+        <v>352344416</v>
       </c>
       <c r="K10" s="2">
-        <v>6500271507</v>
+        <v>21697064921</v>
       </c>
       <c r="L10" s="2">
-        <v>82403</v>
+        <v>350125</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="2">
-        <v>16773357</v>
+        <v>45310625</v>
       </c>
       <c r="O10" s="2">
-        <v>2219335</v>
+        <v>2980306</v>
       </c>
       <c r="P10" s="2">
-        <v>26153929</v>
+        <v>45327028</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
-        <v>142978261</v>
+        <v>57823214</v>
       </c>
       <c r="C11" s="2">
-        <v>82064257</v>
+        <v>82694572</v>
       </c>
       <c r="D11" s="2">
-        <v>940657165</v>
+        <v>8176461696</v>
       </c>
       <c r="E11" s="2">
-        <v>5616277</v>
+        <v>28702907</v>
       </c>
       <c r="F11" s="2">
-        <v>102253388</v>
+        <v>20016274</v>
       </c>
       <c r="G11" s="2">
-        <v>1551843</v>
+        <v>4095513</v>
       </c>
       <c r="H11" s="2">
-        <v>1011088</v>
+        <v>3810389</v>
       </c>
       <c r="I11" s="2">
-        <v>25247753</v>
+        <v>197148888</v>
       </c>
       <c r="J11" s="2">
-        <v>33029046</v>
+        <v>308876849</v>
       </c>
       <c r="K11" s="2">
-        <v>9890545066</v>
+        <v>14020389111</v>
       </c>
       <c r="L11" s="2">
-        <v>72712</v>
+        <v>306546</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="2">
-        <v>30962940</v>
+        <v>65763657</v>
       </c>
       <c r="O11" s="2">
-        <v>1205704</v>
+        <v>3612684</v>
       </c>
       <c r="P11" s="2">
-        <v>49731683</v>
+        <v>44907797</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>57823214</v>
+        <v>38767756</v>
       </c>
       <c r="C12" s="2">
-        <v>80987486</v>
+        <v>82393652</v>
       </c>
       <c r="D12" s="2">
-        <v>8163624246</v>
+        <v>1932720674</v>
       </c>
       <c r="E12" s="2">
-        <v>28702907</v>
+        <v>21140589</v>
       </c>
       <c r="F12" s="2">
-        <v>20016274</v>
+        <v>4209204</v>
       </c>
       <c r="G12" s="2">
-        <v>4095513</v>
+        <v>2127656</v>
       </c>
       <c r="H12" s="2">
-        <v>3810389</v>
+        <v>1727688</v>
       </c>
       <c r="I12" s="2">
-        <v>197084135</v>
+        <v>57820455</v>
       </c>
       <c r="J12" s="2">
-        <v>308267353</v>
+        <v>67125411</v>
       </c>
       <c r="K12" s="2">
-        <v>14020389111</v>
+        <v>6500271507</v>
       </c>
       <c r="L12" s="2">
-        <v>306383</v>
+        <v>92425</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="2">
-        <v>65763657</v>
+        <v>16773357</v>
       </c>
       <c r="O12" s="2">
-        <v>3612684</v>
+        <v>2219335</v>
       </c>
       <c r="P12" s="2">
-        <v>44907797</v>
+        <v>26153929</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>63832228</v>
+        <v>46268923</v>
       </c>
       <c r="C13" s="2">
-        <v>82983426</v>
+        <v>81128658</v>
       </c>
       <c r="D13" s="2">
-        <v>8830083689</v>
+        <v>4760832398</v>
       </c>
       <c r="E13" s="2">
-        <v>31047518</v>
+        <v>32821102</v>
       </c>
       <c r="F13" s="2">
-        <v>10737159</v>
+        <v>80084830</v>
       </c>
       <c r="G13" s="2">
-        <v>10033355</v>
+        <v>10991351</v>
       </c>
       <c r="H13" s="2">
-        <v>5108657</v>
+        <v>12601610</v>
       </c>
       <c r="I13" s="2">
-        <v>176121366</v>
+        <v>197889907</v>
       </c>
       <c r="J13" s="2">
-        <v>351311063</v>
+        <v>134676361</v>
       </c>
       <c r="K13" s="2">
-        <v>21697064921</v>
+        <v>87484800822</v>
       </c>
       <c r="L13" s="2">
-        <v>3249947</v>
+        <v>81959</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="2">
-        <v>45310625</v>
-      </c>
-      <c r="O13" s="2">
-        <v>2980306</v>
-      </c>
-      <c r="P13" s="2">
-        <v>45327028</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>45472524</v>
+        <v>142978261</v>
       </c>
       <c r="C14" s="2">
-        <v>79425842</v>
+        <v>81553827</v>
       </c>
       <c r="D14" s="2">
-        <v>1241843937</v>
+        <v>942870735</v>
       </c>
       <c r="E14" s="2">
-        <v>15331368</v>
+        <v>5616277</v>
       </c>
       <c r="F14" s="2">
-        <v>62693456</v>
+        <v>102253388</v>
       </c>
       <c r="G14" s="2">
-        <v>1038544</v>
+        <v>1551843</v>
       </c>
       <c r="H14" s="2">
-        <v>2555382</v>
+        <v>1011088</v>
       </c>
       <c r="I14" s="2">
-        <v>36364037</v>
+        <v>25248630</v>
       </c>
       <c r="J14" s="2">
-        <v>42668313</v>
+        <v>33139286</v>
       </c>
       <c r="K14" s="2">
-        <v>448732759</v>
+        <v>9890545066</v>
       </c>
       <c r="L14" s="2">
-        <v>82120</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>72764</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N14" s="2">
-        <v>12953560</v>
+        <v>30962940</v>
       </c>
       <c r="O14" s="2">
-        <v>1412007</v>
+        <v>1205704</v>
       </c>
       <c r="P14" s="2">
-        <v>18086947</v>
+        <v>49731683</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>46268923</v>
+        <v>45472524</v>
       </c>
       <c r="C15" s="2">
-        <v>78997405</v>
+        <v>79425842</v>
       </c>
       <c r="D15" s="2">
-        <v>4759142958</v>
+        <v>1241843937</v>
       </c>
       <c r="E15" s="2">
-        <v>32821102</v>
+        <v>15331368</v>
       </c>
       <c r="F15" s="2">
-        <v>80084830</v>
+        <v>62693456</v>
       </c>
       <c r="G15" s="2">
-        <v>10991351</v>
+        <v>1038544</v>
       </c>
       <c r="H15" s="2">
-        <v>12601610</v>
+        <v>2555382</v>
       </c>
       <c r="I15" s="2">
-        <v>197889907</v>
+        <v>36364037</v>
       </c>
       <c r="J15" s="2">
-        <v>134591889</v>
+        <v>42668313</v>
       </c>
       <c r="K15" s="2">
-        <v>87484800822</v>
+        <v>448732759</v>
       </c>
       <c r="L15" s="2">
-        <v>81931</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+        <v>82120</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
+        <v>12953560</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1412007</v>
+      </c>
+      <c r="P15" s="2">
+        <v>18086947</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
-        <v>93584462</v>
+        <v>111154401</v>
       </c>
       <c r="C16" s="2">
-        <v>78819572</v>
+        <v>78032151</v>
       </c>
       <c r="D16" s="2">
-        <v>5250002118</v>
+        <v>1957621245</v>
       </c>
       <c r="E16" s="2">
-        <v>26611981</v>
+        <v>13119967</v>
       </c>
       <c r="F16" s="2">
-        <v>10468300</v>
+        <v>75267455</v>
       </c>
       <c r="G16" s="2">
-        <v>4039431</v>
+        <v>2969993</v>
       </c>
       <c r="H16" s="2">
-        <v>4319884</v>
+        <v>2927172</v>
       </c>
       <c r="I16" s="2">
-        <v>119497132</v>
+        <v>43195122</v>
       </c>
       <c r="J16" s="2">
-        <v>201378937</v>
+        <v>74648393</v>
       </c>
       <c r="K16" s="2">
-        <v>21512409630</v>
+        <v>9793498330</v>
       </c>
       <c r="L16" s="2">
-        <v>139185</v>
+        <v>102922</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="2">
-        <v>76454903</v>
+        <v>30617796</v>
       </c>
       <c r="O16" s="2">
-        <v>2350601</v>
+        <v>2391604</v>
       </c>
       <c r="P16" s="2">
-        <v>29543418</v>
+        <v>27679566</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
-        <v>9393436</v>
+        <v>93584462</v>
       </c>
       <c r="C17" s="2">
-        <v>77753023</v>
+        <v>82327956</v>
       </c>
       <c r="D17" s="2">
-        <v>2130240528</v>
+        <v>5315747278</v>
       </c>
       <c r="E17" s="2">
-        <v>16636383</v>
+        <v>26611981</v>
       </c>
       <c r="F17" s="2">
-        <v>38763014</v>
+        <v>10468300</v>
       </c>
       <c r="G17" s="2">
-        <v>11157504</v>
+        <v>4039431</v>
       </c>
       <c r="H17" s="2">
-        <v>14904237</v>
+        <v>4319884</v>
       </c>
       <c r="I17" s="2">
-        <v>142446467</v>
+        <v>119967846</v>
       </c>
       <c r="J17" s="2">
-        <v>30804565</v>
+        <v>204430838</v>
       </c>
       <c r="K17" s="2">
-        <v>18362832703</v>
+        <v>21512409630</v>
       </c>
       <c r="L17" s="2">
-        <v>51510</v>
+        <v>139267</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>76454903</v>
       </c>
       <c r="O17" s="2">
-        <v>8381</v>
+        <v>2350601</v>
       </c>
       <c r="P17" s="2">
-        <v>23365</v>
+        <v>29543418</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
-        <v>59146982</v>
+        <v>9393436</v>
       </c>
       <c r="C18" s="2">
-        <v>77336871</v>
+        <v>77753023</v>
       </c>
       <c r="D18" s="2">
-        <v>2974104655</v>
+        <v>2130240528</v>
       </c>
       <c r="E18" s="2">
-        <v>27024413</v>
+        <v>16636383</v>
       </c>
       <c r="F18" s="2">
-        <v>2157316</v>
+        <v>38763014</v>
       </c>
       <c r="G18" s="2">
-        <v>2166667</v>
+        <v>11157504</v>
       </c>
       <c r="H18" s="2">
-        <v>1105802</v>
+        <v>14904237</v>
       </c>
       <c r="I18" s="2">
-        <v>83397401</v>
+        <v>142446467</v>
       </c>
       <c r="J18" s="2">
-        <v>106547132</v>
+        <v>30804565</v>
       </c>
       <c r="K18" s="2">
-        <v>6189271378</v>
+        <v>18362832703</v>
       </c>
       <c r="L18" s="2">
-        <v>164721</v>
+        <v>51510</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="2">
-        <v>16909393</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>2791505</v>
+        <v>8381</v>
       </c>
       <c r="P18" s="2">
-        <v>19333482</v>
+        <v>23365</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
-        <v>19760642</v>
+        <v>59146982</v>
       </c>
       <c r="C19" s="2">
-        <v>76981263</v>
+        <v>77442639</v>
       </c>
       <c r="D19" s="2">
-        <v>5132416797</v>
+        <v>2991277095</v>
       </c>
       <c r="E19" s="2">
-        <v>29025076</v>
+        <v>27024413</v>
       </c>
       <c r="F19" s="2">
-        <v>5831119</v>
+        <v>2157317</v>
       </c>
       <c r="G19" s="2">
-        <v>590301</v>
+        <v>2166667</v>
       </c>
       <c r="H19" s="2">
-        <v>807713</v>
+        <v>1105802</v>
       </c>
       <c r="I19" s="2">
-        <v>97992204</v>
+        <v>83554219</v>
       </c>
       <c r="J19" s="2">
-        <v>207345854</v>
+        <v>107327345</v>
       </c>
       <c r="K19" s="2">
-        <v>23146403429</v>
+        <v>6189271378</v>
       </c>
       <c r="L19" s="2">
-        <v>118290</v>
+        <v>164802</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N19" s="2">
-        <v>61739020</v>
+        <v>16909393</v>
       </c>
       <c r="O19" s="2">
-        <v>3763157</v>
+        <v>2791505</v>
       </c>
       <c r="P19" s="2">
-        <v>50286348</v>
+        <v>19333482</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
-        <v>111154401</v>
+        <v>136635217</v>
       </c>
       <c r="C20" s="2">
-        <v>78214721</v>
+        <v>77112332</v>
       </c>
       <c r="D20" s="2">
-        <v>1955960845</v>
+        <v>2124523230</v>
       </c>
       <c r="E20" s="2">
-        <v>13119967</v>
+        <v>14595104</v>
       </c>
       <c r="F20" s="2">
-        <v>75267455</v>
+        <v>15948223</v>
       </c>
       <c r="G20" s="2">
-        <v>2969993</v>
+        <v>1780888</v>
       </c>
       <c r="H20" s="2">
-        <v>2927172</v>
+        <v>2058410</v>
       </c>
       <c r="I20" s="2">
-        <v>43191704</v>
+        <v>78277271</v>
       </c>
       <c r="J20" s="2">
-        <v>74567082</v>
+        <v>66338273</v>
       </c>
       <c r="K20" s="2">
-        <v>9683498330</v>
+        <v>11495215342</v>
       </c>
       <c r="L20" s="2">
-        <v>102822</v>
+        <v>54926</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N20" s="2">
-        <v>30617796</v>
+        <v>25896964</v>
       </c>
       <c r="O20" s="2">
-        <v>2391604</v>
+        <v>3527755</v>
       </c>
       <c r="P20" s="2">
-        <v>27679566</v>
+        <v>13422791</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
-        <v>136635217</v>
+        <v>19760642</v>
       </c>
       <c r="C21" s="2">
-        <v>76500584</v>
+        <v>76981263</v>
       </c>
       <c r="D21" s="2">
-        <v>2124523230</v>
+        <v>5132416797</v>
       </c>
       <c r="E21" s="2">
-        <v>14595104</v>
+        <v>29025076</v>
       </c>
       <c r="F21" s="2">
-        <v>15948223</v>
+        <v>5831119</v>
       </c>
       <c r="G21" s="2">
-        <v>1780888</v>
+        <v>590301</v>
       </c>
       <c r="H21" s="2">
-        <v>2058410</v>
+        <v>807713</v>
       </c>
       <c r="I21" s="2">
-        <v>78277271</v>
+        <v>97992204</v>
       </c>
       <c r="J21" s="2">
-        <v>66338273</v>
+        <v>207345854</v>
       </c>
       <c r="K21" s="2">
-        <v>11495215342</v>
+        <v>23146403429</v>
       </c>
       <c r="L21" s="2">
-        <v>54914</v>
+        <v>118290</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N21" s="2">
-        <v>25896964</v>
+        <v>61739020</v>
       </c>
       <c r="O21" s="2">
-        <v>3527755</v>
+        <v>3763157</v>
       </c>
       <c r="P21" s="2">
-        <v>13422791</v>
+        <v>50286348</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>74815491</v>
       </c>
       <c r="C22" s="2">
-        <v>76311637</v>
+        <v>76915827</v>
       </c>
       <c r="D22" s="2">
-        <v>1592746944</v>
+        <v>1606269564</v>
       </c>
       <c r="E22" s="2">
         <v>22031819</v>
@@ -2344,16 +2337,16 @@
         <v>747521</v>
       </c>
       <c r="I22" s="2">
-        <v>50055269</v>
+        <v>50258073</v>
       </c>
       <c r="J22" s="2">
-        <v>54107952</v>
+        <v>54682681</v>
       </c>
       <c r="K22" s="2">
         <v>1101235351</v>
       </c>
       <c r="L22" s="2">
-        <v>35124</v>
+        <v>35150</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>17</v>
@@ -2370,102 +2363,102 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
-        <v>58744662</v>
+        <v>64570107</v>
       </c>
       <c r="C23" s="2">
-        <v>75709675</v>
+        <v>75723856</v>
       </c>
       <c r="D23" s="2">
-        <v>3872653558</v>
+        <v>1844244100</v>
       </c>
       <c r="E23" s="2">
-        <v>19140512</v>
+        <v>17646703</v>
       </c>
       <c r="F23" s="2">
-        <v>1325324</v>
+        <v>5410354</v>
       </c>
       <c r="G23" s="2">
-        <v>1342985</v>
+        <v>1111711</v>
       </c>
       <c r="H23" s="2">
-        <v>338891</v>
+        <v>2393062</v>
       </c>
       <c r="I23" s="2">
-        <v>52140746</v>
+        <v>47548940</v>
       </c>
       <c r="J23" s="2">
-        <v>167346975</v>
+        <v>67793848</v>
       </c>
       <c r="K23" s="2">
-        <v>7062689203</v>
+        <v>822779549</v>
       </c>
       <c r="L23" s="2">
-        <v>110436</v>
+        <v>67753</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N23" s="2">
-        <v>32158439</v>
+        <v>12255945</v>
       </c>
       <c r="O23" s="2">
-        <v>3064508</v>
+        <v>2503190</v>
       </c>
       <c r="P23" s="2">
-        <v>30338281</v>
+        <v>14310617</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>58744662</v>
+      </c>
+      <c r="C24" s="2">
+        <v>75603753</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3881041258</v>
+      </c>
+      <c r="E24" s="2">
+        <v>19140512</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1325324</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1342985</v>
+      </c>
+      <c r="H24" s="2">
+        <v>338891</v>
+      </c>
+      <c r="I24" s="2">
+        <v>52412726</v>
+      </c>
+      <c r="J24" s="2">
+        <v>167630370</v>
+      </c>
+      <c r="K24" s="2">
+        <v>7062689203</v>
+      </c>
+      <c r="L24" s="2">
+        <v>110536</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2">
-        <v>28063072</v>
-      </c>
-      <c r="C24" s="2">
-        <v>76003451</v>
-      </c>
-      <c r="D24" s="2">
-        <v>7620197825</v>
-      </c>
-      <c r="E24" s="2">
-        <v>23477441</v>
-      </c>
-      <c r="F24" s="2">
-        <v>13179189</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3615745</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5346637</v>
-      </c>
-      <c r="I24" s="2">
-        <v>238977407</v>
-      </c>
-      <c r="J24" s="2">
-        <v>259958494</v>
-      </c>
-      <c r="K24" s="2">
-        <v>34370586864</v>
-      </c>
-      <c r="L24" s="2">
-        <v>179610</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="N24" s="2">
-        <v>38681661</v>
+        <v>32158439</v>
       </c>
       <c r="O24" s="2">
-        <v>1126072</v>
+        <v>3064508</v>
       </c>
       <c r="P24" s="2">
-        <v>26810359</v>
+        <v>30338281</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2473,49 +2466,49 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>64570107</v>
+        <v>28063072</v>
       </c>
       <c r="C25" s="2">
-        <v>75661236</v>
+        <v>75236383</v>
       </c>
       <c r="D25" s="2">
-        <v>1844244100</v>
+        <v>7636377805</v>
       </c>
       <c r="E25" s="2">
-        <v>17646703</v>
+        <v>23477441</v>
       </c>
       <c r="F25" s="2">
-        <v>5410354</v>
+        <v>13179189</v>
       </c>
       <c r="G25" s="2">
-        <v>1111711</v>
+        <v>3615745</v>
       </c>
       <c r="H25" s="2">
-        <v>2393062</v>
+        <v>5346637</v>
       </c>
       <c r="I25" s="2">
-        <v>47548940</v>
+        <v>239024605</v>
       </c>
       <c r="J25" s="2">
-        <v>67793848</v>
+        <v>260743894</v>
       </c>
       <c r="K25" s="2">
-        <v>822779549</v>
+        <v>34370586864</v>
       </c>
       <c r="L25" s="2">
-        <v>67740</v>
+        <v>179701</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N25" s="2">
-        <v>12255945</v>
+        <v>38681661</v>
       </c>
       <c r="O25" s="2">
-        <v>2503190</v>
+        <v>1126072</v>
       </c>
       <c r="P25" s="2">
-        <v>14310617</v>
+        <v>26810359</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -2523,49 +2516,49 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>113277991</v>
+        <v>59061395</v>
       </c>
       <c r="C26" s="2">
-        <v>74426995</v>
+        <v>74263709</v>
       </c>
       <c r="D26" s="2">
-        <v>3629579392</v>
+        <v>2664575122</v>
       </c>
       <c r="E26" s="2">
-        <v>20620034</v>
+        <v>32653518</v>
       </c>
       <c r="F26" s="2">
-        <v>54506352</v>
+        <v>49374273</v>
       </c>
       <c r="G26" s="2">
-        <v>8757574</v>
+        <v>2322460</v>
       </c>
       <c r="H26" s="2">
-        <v>13262701</v>
+        <v>3632912</v>
       </c>
       <c r="I26" s="2">
-        <v>141973207</v>
+        <v>101289902</v>
       </c>
       <c r="J26" s="2">
-        <v>106419005</v>
+        <v>81131234</v>
       </c>
       <c r="K26" s="2">
-        <v>27255644105</v>
+        <v>5649861440</v>
       </c>
       <c r="L26" s="2">
-        <v>65569</v>
+        <v>341967</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N26" s="2">
-        <v>36810608</v>
+        <v>30641042</v>
       </c>
       <c r="O26" s="2">
-        <v>4115167</v>
+        <v>3535425</v>
       </c>
       <c r="P26" s="2">
-        <v>38427739</v>
+        <v>30296391</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -2573,49 +2566,49 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>59061395</v>
+        <v>38161087</v>
       </c>
       <c r="C27" s="2">
-        <v>74004113</v>
+        <v>73154749</v>
       </c>
       <c r="D27" s="2">
-        <v>2664575122</v>
+        <v>2493218054</v>
       </c>
       <c r="E27" s="2">
-        <v>32653518</v>
+        <v>20223277</v>
       </c>
       <c r="F27" s="2">
-        <v>49374273</v>
+        <v>134558403</v>
       </c>
       <c r="G27" s="2">
-        <v>2322460</v>
+        <v>5919590</v>
       </c>
       <c r="H27" s="2">
-        <v>3632912</v>
+        <v>7412246</v>
       </c>
       <c r="I27" s="2">
-        <v>101289902</v>
+        <v>81331777</v>
       </c>
       <c r="J27" s="2">
-        <v>81131234</v>
+        <v>80575022</v>
       </c>
       <c r="K27" s="2">
-        <v>5649861440</v>
+        <v>3685420386</v>
       </c>
       <c r="L27" s="2">
-        <v>341939</v>
+        <v>76723</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N27" s="2">
-        <v>30641042</v>
+        <v>20040689</v>
       </c>
       <c r="O27" s="2">
-        <v>3535425</v>
+        <v>1531501</v>
       </c>
       <c r="P27" s="2">
-        <v>30296391</v>
+        <v>36433788</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -2721,49 +2714,49 @@
         <v>46</v>
       </c>
       <c r="B30" s="2">
-        <v>38161087</v>
+        <v>113277991</v>
       </c>
       <c r="C30" s="2">
-        <v>72640043</v>
+        <v>71909334</v>
       </c>
       <c r="D30" s="2">
-        <v>2493218054</v>
+        <v>3631945912</v>
       </c>
       <c r="E30" s="2">
-        <v>20223277</v>
+        <v>20620034</v>
       </c>
       <c r="F30" s="2">
-        <v>134558403</v>
+        <v>54506352</v>
       </c>
       <c r="G30" s="2">
-        <v>5919590</v>
+        <v>8757574</v>
       </c>
       <c r="H30" s="2">
-        <v>7412246</v>
+        <v>13262701</v>
       </c>
       <c r="I30" s="2">
-        <v>81331777</v>
+        <v>141999039</v>
       </c>
       <c r="J30" s="2">
-        <v>80575022</v>
+        <v>106524415</v>
       </c>
       <c r="K30" s="2">
-        <v>3685420386</v>
+        <v>27255644105</v>
       </c>
       <c r="L30" s="2">
-        <v>76665</v>
+        <v>65625</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N30" s="2">
-        <v>20040689</v>
+        <v>36810608</v>
       </c>
       <c r="O30" s="2">
-        <v>1531501</v>
+        <v>4115167</v>
       </c>
       <c r="P30" s="2">
-        <v>36433788</v>
+        <v>38427739</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2771,49 +2764,49 @@
         <v>47</v>
       </c>
       <c r="B31" s="2">
-        <v>116198736</v>
+        <v>48975732</v>
       </c>
       <c r="C31" s="2">
-        <v>72423735</v>
+        <v>72401849</v>
       </c>
       <c r="D31" s="2">
-        <v>923921569</v>
+        <v>3831714577</v>
       </c>
       <c r="E31" s="2">
-        <v>6688181</v>
+        <v>22183248</v>
       </c>
       <c r="F31" s="2">
-        <v>1004885</v>
+        <v>64965815</v>
       </c>
       <c r="G31" s="2">
-        <v>398152</v>
+        <v>2903440</v>
       </c>
       <c r="H31" s="2">
-        <v>216422</v>
+        <v>4711301</v>
       </c>
       <c r="I31" s="2">
-        <v>16379364</v>
+        <v>114507041</v>
       </c>
       <c r="J31" s="2">
-        <v>37913248</v>
+        <v>132449946</v>
       </c>
       <c r="K31" s="2">
-        <v>713061031</v>
+        <v>2489405077</v>
       </c>
       <c r="L31" s="2">
-        <v>39730</v>
+        <v>88047</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N31" s="2">
-        <v>11522849</v>
+        <v>34121669</v>
       </c>
       <c r="O31" s="2">
-        <v>2992936</v>
+        <v>3565415</v>
       </c>
       <c r="P31" s="2">
-        <v>13494013</v>
+        <v>17976825</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2824,7 +2817,7 @@
         <v>74359287</v>
       </c>
       <c r="C32" s="2">
-        <v>71400258</v>
+        <v>71720180</v>
       </c>
       <c r="D32" s="2">
         <v>1769384978</v>
@@ -2851,7 +2844,7 @@
         <v>14894886314</v>
       </c>
       <c r="L32" s="2">
-        <v>103281</v>
+        <v>103290</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>17</v>
@@ -2868,10 +2861,10 @@
         <v>58349304</v>
       </c>
       <c r="C33" s="2">
-        <v>70934688</v>
+        <v>71098300</v>
       </c>
       <c r="D33" s="2">
-        <v>5969024306</v>
+        <v>5970913496</v>
       </c>
       <c r="E33" s="2">
         <v>29482240</v>
@@ -2886,16 +2879,16 @@
         <v>11619543</v>
       </c>
       <c r="I33" s="2">
-        <v>211529057</v>
+        <v>211550112</v>
       </c>
       <c r="J33" s="2">
-        <v>188971811</v>
+        <v>189055743</v>
       </c>
       <c r="K33" s="2">
         <v>49778117419</v>
       </c>
       <c r="L33" s="2">
-        <v>122537</v>
+        <v>122603</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>17</v>
@@ -2909,49 +2902,49 @@
         <v>50</v>
       </c>
       <c r="B34" s="2">
-        <v>49499709</v>
+        <v>116198736</v>
       </c>
       <c r="C34" s="2">
-        <v>69989994</v>
+        <v>72441925</v>
       </c>
       <c r="D34" s="2">
-        <v>6458937366</v>
+        <v>925540289</v>
       </c>
       <c r="E34" s="2">
-        <v>40031258</v>
+        <v>6688181</v>
       </c>
       <c r="F34" s="2">
-        <v>15439184</v>
+        <v>1004885</v>
       </c>
       <c r="G34" s="2">
-        <v>7436330</v>
+        <v>398152</v>
       </c>
       <c r="H34" s="2">
-        <v>8275990</v>
+        <v>216422</v>
       </c>
       <c r="I34" s="2">
-        <v>168042317</v>
+        <v>16383486</v>
       </c>
       <c r="J34" s="2">
-        <v>236372487</v>
+        <v>37992123</v>
       </c>
       <c r="K34" s="2">
-        <v>15497203589</v>
+        <v>713061031</v>
       </c>
       <c r="L34" s="2">
-        <v>319705</v>
+        <v>39738</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N34" s="2">
-        <v>38206755</v>
+        <v>11522849</v>
       </c>
       <c r="O34" s="2">
-        <v>3107101</v>
+        <v>2992936</v>
       </c>
       <c r="P34" s="2">
-        <v>35766017</v>
+        <v>13494013</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2959,49 +2952,49 @@
         <v>51</v>
       </c>
       <c r="B35" s="2">
-        <v>48975732</v>
+        <v>76274504</v>
       </c>
       <c r="C35" s="2">
-        <v>70512648</v>
+        <v>69280255</v>
       </c>
       <c r="D35" s="2">
-        <v>3816228287</v>
+        <v>972664491</v>
       </c>
       <c r="E35" s="2">
-        <v>22183248</v>
+        <v>22065875</v>
       </c>
       <c r="F35" s="2">
-        <v>64965815</v>
+        <v>28742795</v>
       </c>
       <c r="G35" s="2">
-        <v>2903440</v>
+        <v>176033</v>
       </c>
       <c r="H35" s="2">
-        <v>4711301</v>
+        <v>210559</v>
       </c>
       <c r="I35" s="2">
-        <v>114031576</v>
+        <v>23302809</v>
       </c>
       <c r="J35" s="2">
-        <v>131913364</v>
+        <v>36634677</v>
       </c>
       <c r="K35" s="2">
-        <v>2489405077</v>
+        <v>8754952590</v>
       </c>
       <c r="L35" s="2">
-        <v>87982</v>
+        <v>30127</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N35" s="2">
-        <v>34121669</v>
+        <v>30228075</v>
       </c>
       <c r="O35" s="2">
-        <v>3565415</v>
+        <v>3893440</v>
       </c>
       <c r="P35" s="2">
-        <v>17976825</v>
+        <v>30875936</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -3009,87 +3002,81 @@
         <v>52</v>
       </c>
       <c r="B36" s="2">
-        <v>76274504</v>
+        <v>18103697</v>
       </c>
       <c r="C36" s="2">
-        <v>70166938</v>
+        <v>69185537</v>
       </c>
       <c r="D36" s="2">
-        <v>965448501</v>
+        <v>866834765</v>
       </c>
       <c r="E36" s="2">
-        <v>22065875</v>
+        <v>20667788</v>
       </c>
       <c r="F36" s="2">
-        <v>28742795</v>
+        <v>451466</v>
       </c>
       <c r="G36" s="2">
-        <v>176033</v>
+        <v>180942</v>
       </c>
       <c r="H36" s="2">
-        <v>210559</v>
+        <v>138942</v>
       </c>
       <c r="I36" s="2">
-        <v>23201696</v>
+        <v>19198934</v>
       </c>
       <c r="J36" s="2">
-        <v>36324434</v>
+        <v>33691874</v>
       </c>
       <c r="K36" s="2">
-        <v>8754952590</v>
+        <v>3008483403</v>
       </c>
       <c r="L36" s="2">
-        <v>30095</v>
+        <v>79770</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="2">
-        <v>30228075</v>
-      </c>
-      <c r="O36" s="2">
-        <v>3893440</v>
-      </c>
-      <c r="P36" s="2">
-        <v>30875936</v>
-      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="2">
-        <v>18103697</v>
+        <v>16365096</v>
       </c>
       <c r="C37" s="2">
-        <v>69249806</v>
+        <v>67749333</v>
       </c>
       <c r="D37" s="2">
-        <v>866834445</v>
+        <v>1628686379</v>
       </c>
       <c r="E37" s="2">
-        <v>20667788</v>
+        <v>16673355</v>
       </c>
       <c r="F37" s="2">
-        <v>451466</v>
+        <v>13529997</v>
       </c>
       <c r="G37" s="2">
-        <v>180942</v>
+        <v>2572039</v>
       </c>
       <c r="H37" s="2">
-        <v>138942</v>
+        <v>1188728</v>
       </c>
       <c r="I37" s="2">
-        <v>19198934</v>
+        <v>52061015</v>
       </c>
       <c r="J37" s="2">
-        <v>33691858</v>
+        <v>54773562</v>
       </c>
       <c r="K37" s="2">
-        <v>3008483403</v>
+        <v>8630657761</v>
       </c>
       <c r="L37" s="2">
-        <v>79751</v>
+        <v>186881</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>17</v>
@@ -3103,37 +3090,37 @@
         <v>54</v>
       </c>
       <c r="B38" s="2">
-        <v>16365096</v>
+        <v>49407662</v>
       </c>
       <c r="C38" s="2">
-        <v>67993877</v>
+        <v>67251319</v>
       </c>
       <c r="D38" s="2">
-        <v>1626190809</v>
+        <v>2385941954</v>
       </c>
       <c r="E38" s="2">
-        <v>16650459</v>
+        <v>19627452</v>
       </c>
       <c r="F38" s="2">
-        <v>13529997</v>
+        <v>29191380</v>
       </c>
       <c r="G38" s="2">
-        <v>2572039</v>
+        <v>3519496</v>
       </c>
       <c r="H38" s="2">
-        <v>1188728</v>
+        <v>2875749</v>
       </c>
       <c r="I38" s="2">
-        <v>52027964</v>
+        <v>69974029</v>
       </c>
       <c r="J38" s="2">
-        <v>54665309</v>
+        <v>83091070</v>
       </c>
       <c r="K38" s="2">
-        <v>8630657761</v>
+        <v>3816178662</v>
       </c>
       <c r="L38" s="2">
-        <v>186842</v>
+        <v>104024</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>17</v>
@@ -3147,138 +3134,144 @@
         <v>55</v>
       </c>
       <c r="B39" s="2">
-        <v>49407662</v>
+        <v>123185482</v>
       </c>
       <c r="C39" s="2">
-        <v>66087394</v>
+        <v>66822364</v>
       </c>
       <c r="D39" s="2">
-        <v>2385026494</v>
+        <v>1197344440</v>
       </c>
       <c r="E39" s="2">
-        <v>19627452</v>
+        <v>15945250</v>
       </c>
       <c r="F39" s="2">
-        <v>29191380</v>
+        <v>62324093</v>
       </c>
       <c r="G39" s="2">
-        <v>3519496</v>
+        <v>9616364</v>
       </c>
       <c r="H39" s="2">
-        <v>2875749</v>
+        <v>21172006</v>
       </c>
       <c r="I39" s="2">
-        <v>69972175</v>
+        <v>56250251</v>
       </c>
       <c r="J39" s="2">
-        <v>83046224</v>
+        <v>25922818</v>
       </c>
       <c r="K39" s="2">
-        <v>3816178662</v>
+        <v>6901378937</v>
       </c>
       <c r="L39" s="2">
-        <v>103971</v>
+        <v>92226</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
+      <c r="N39" s="2">
+        <v>30089060</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1837223</v>
+      </c>
+      <c r="P39" s="2">
+        <v>25900072</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="2">
-        <v>46393719</v>
+        <v>49499709</v>
       </c>
       <c r="C40" s="2">
-        <v>66008218</v>
+        <v>66317624</v>
       </c>
       <c r="D40" s="2">
-        <v>280732163</v>
+        <v>6488180350</v>
       </c>
       <c r="E40" s="2">
-        <v>7569919</v>
+        <v>4004314</v>
       </c>
       <c r="F40" s="2">
-        <v>10461538</v>
+        <v>15480853</v>
       </c>
       <c r="G40" s="2">
-        <v>10677990</v>
+        <v>7436330</v>
       </c>
       <c r="H40" s="2">
-        <v>9055734</v>
+        <v>8275990</v>
       </c>
       <c r="I40" s="2">
-        <v>16752596</v>
+        <v>168320160</v>
       </c>
       <c r="J40" s="2">
-        <v>2676749</v>
+        <v>237695298</v>
       </c>
       <c r="K40" s="2">
-        <v>558870458</v>
+        <v>15497203589</v>
       </c>
       <c r="L40" s="2">
-        <v>97599</v>
+        <v>3219820</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="N40" s="2">
+        <v>38206755</v>
+      </c>
+      <c r="O40" s="2">
+        <v>3107101</v>
+      </c>
+      <c r="P40" s="2">
+        <v>35766017</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2">
+        <v>46393719</v>
+      </c>
+      <c r="C41" s="2">
+        <v>66153008</v>
+      </c>
+      <c r="D41" s="2">
+        <v>280732163</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7569919</v>
+      </c>
+      <c r="F41" s="2">
+        <v>10461538</v>
+      </c>
+      <c r="G41" s="2">
+        <v>10677990</v>
+      </c>
+      <c r="H41" s="2">
+        <v>9055734</v>
+      </c>
+      <c r="I41" s="2">
+        <v>16752596</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2676749</v>
+      </c>
+      <c r="K41" s="2">
+        <v>558870458</v>
+      </c>
+      <c r="L41" s="2">
+        <v>37600</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="2">
-        <v>123185482</v>
-      </c>
-      <c r="C41" s="2">
-        <v>66315080</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1197343360</v>
-      </c>
-      <c r="E41" s="2">
-        <v>15945250</v>
-      </c>
-      <c r="F41" s="2">
-        <v>62324093</v>
-      </c>
-      <c r="G41" s="2">
-        <v>9616364</v>
-      </c>
-      <c r="H41" s="2">
-        <v>21172006</v>
-      </c>
-      <c r="I41" s="2">
-        <v>56250251</v>
-      </c>
-      <c r="J41" s="2">
-        <v>25922764</v>
-      </c>
-      <c r="K41" s="2">
-        <v>6901378937</v>
-      </c>
-      <c r="L41" s="2">
-        <v>92101</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N41" s="2">
-        <v>30089060</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1837223</v>
-      </c>
-      <c r="P41" s="2">
-        <v>25900072</v>
-      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -3288,10 +3281,10 @@
         <v>9660755</v>
       </c>
       <c r="C42" s="2">
-        <v>65237105</v>
+        <v>64374283</v>
       </c>
       <c r="D42" s="2">
-        <v>1343822850</v>
+        <v>1344100110</v>
       </c>
       <c r="E42" s="2">
         <v>23356884</v>
@@ -3309,13 +3302,13 @@
         <v>36140935</v>
       </c>
       <c r="J42" s="2">
-        <v>48939647</v>
+        <v>48953510</v>
       </c>
       <c r="K42" s="2">
         <v>25506725027</v>
       </c>
       <c r="L42" s="2">
-        <v>128623</v>
+        <v>128651</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>17</v>
@@ -3338,10 +3331,10 @@
         <v>3732705</v>
       </c>
       <c r="C43" s="2">
-        <v>61188539</v>
+        <v>62381283</v>
       </c>
       <c r="D43" s="2">
-        <v>1180509896</v>
+        <v>1180517796</v>
       </c>
       <c r="E43" s="2">
         <v>15659274</v>
@@ -3359,13 +3352,13 @@
         <v>25204213</v>
       </c>
       <c r="J43" s="2">
-        <v>46038710</v>
+        <v>46039105</v>
       </c>
       <c r="K43" s="2">
         <v>10176842826</v>
       </c>
       <c r="L43" s="2">
-        <v>69477</v>
+        <v>69490</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>17</v>
@@ -3385,47 +3378,49 @@
         <v>61</v>
       </c>
       <c r="B44" s="2">
-        <v>38173573</v>
+        <v>116006542</v>
       </c>
       <c r="C44" s="2">
-        <v>58367053</v>
+        <v>58625301</v>
       </c>
       <c r="D44" s="2">
-        <v>1145200888</v>
+        <v>230992975</v>
       </c>
       <c r="E44" s="2">
-        <v>17449343</v>
+        <v>934691</v>
       </c>
       <c r="F44" s="2">
-        <v>48453162</v>
+        <v>135516</v>
       </c>
       <c r="G44" s="2">
-        <v>712808</v>
+        <v>156779</v>
       </c>
       <c r="H44" s="2">
-        <v>640815</v>
+        <v>39951</v>
       </c>
       <c r="I44" s="2">
-        <v>33271110</v>
+        <v>7650883</v>
       </c>
       <c r="J44" s="2">
-        <v>39940514</v>
+        <v>7699184</v>
       </c>
       <c r="K44" s="2">
-        <v>3063476849</v>
+        <v>119685088</v>
       </c>
       <c r="L44" s="2">
-        <v>19680</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>34270</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N44" s="2">
-        <v>5766765</v>
+        <v>2593809</v>
       </c>
       <c r="O44" s="2">
-        <v>1472946</v>
+        <v>1664987</v>
       </c>
       <c r="P44" s="2">
-        <v>5447741</v>
+        <v>8422654</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -3433,47 +3428,47 @@
         <v>62</v>
       </c>
       <c r="B45" s="2">
-        <v>146589818</v>
+        <v>38173573</v>
       </c>
       <c r="C45" s="2">
-        <v>57038851</v>
+        <v>58367053</v>
       </c>
       <c r="D45" s="2">
-        <v>231516397</v>
+        <v>1145200888</v>
       </c>
       <c r="E45" s="2">
-        <v>6140063</v>
+        <v>17449343</v>
       </c>
       <c r="F45" s="2">
-        <v>11591707</v>
+        <v>48453162</v>
       </c>
       <c r="G45" s="2">
-        <v>785544</v>
+        <v>712808</v>
       </c>
       <c r="H45" s="2">
-        <v>1087962</v>
+        <v>640815</v>
       </c>
       <c r="I45" s="2">
-        <v>7863546</v>
+        <v>33271110</v>
       </c>
       <c r="J45" s="2">
-        <v>7231983</v>
+        <v>39940514</v>
       </c>
       <c r="K45" s="2">
-        <v>326802055</v>
+        <v>3063476849</v>
       </c>
       <c r="L45" s="2">
-        <v>30123</v>
+        <v>19680</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2">
-        <v>10793410</v>
+        <v>5766765</v>
       </c>
       <c r="O45" s="2">
-        <v>1765801</v>
+        <v>1472946</v>
       </c>
       <c r="P45" s="2">
-        <v>16476554</v>
+        <v>5447741</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -3481,47 +3476,47 @@
         <v>63</v>
       </c>
       <c r="B46" s="2">
-        <v>82291199</v>
+        <v>146589818</v>
       </c>
       <c r="C46" s="2">
-        <v>56813161</v>
+        <v>57038851</v>
       </c>
       <c r="D46" s="2">
-        <v>1046423185</v>
+        <v>231516397</v>
       </c>
       <c r="E46" s="2">
-        <v>19134962</v>
+        <v>6140063</v>
       </c>
       <c r="F46" s="2">
-        <v>8026968</v>
+        <v>11591707</v>
       </c>
       <c r="G46" s="2">
-        <v>1362502</v>
+        <v>785544</v>
       </c>
       <c r="H46" s="2">
-        <v>195262</v>
+        <v>1087962</v>
       </c>
       <c r="I46" s="2">
-        <v>28115790</v>
+        <v>7863546</v>
       </c>
       <c r="J46" s="2">
-        <v>38007692</v>
+        <v>7231983</v>
       </c>
       <c r="K46" s="2">
-        <v>28893128903</v>
+        <v>326802055</v>
       </c>
       <c r="L46" s="2">
-        <v>48775</v>
+        <v>30123</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2">
-        <v>4495920</v>
+        <v>10793410</v>
       </c>
       <c r="O46" s="2">
-        <v>1220826</v>
+        <v>1765801</v>
       </c>
       <c r="P46" s="2">
-        <v>7429445</v>
+        <v>16476554</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -3529,79 +3524,85 @@
         <v>64</v>
       </c>
       <c r="B47" s="2">
-        <v>45454322</v>
+        <v>82291199</v>
       </c>
       <c r="C47" s="2">
-        <v>56098786</v>
+        <v>56813161</v>
       </c>
       <c r="D47" s="2">
-        <v>705541139</v>
+        <v>1046423185</v>
       </c>
       <c r="E47" s="2">
-        <v>6181024</v>
+        <v>19134962</v>
       </c>
       <c r="F47" s="2">
-        <v>6173728</v>
+        <v>8026968</v>
       </c>
       <c r="G47" s="2">
-        <v>1928073</v>
+        <v>1362502</v>
       </c>
       <c r="H47" s="2">
-        <v>3503492</v>
+        <v>195262</v>
       </c>
       <c r="I47" s="2">
-        <v>21966394</v>
+        <v>28115790</v>
       </c>
       <c r="J47" s="2">
-        <v>23338617</v>
+        <v>38007692</v>
       </c>
       <c r="K47" s="2">
-        <v>6667197214</v>
+        <v>28893128903</v>
       </c>
       <c r="L47" s="2">
-        <v>74273</v>
+        <v>48775</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="N47" s="2">
+        <v>4495920</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1220826</v>
+      </c>
+      <c r="P47" s="2">
+        <v>7429445</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="2">
-        <v>43736244</v>
+        <v>45454322</v>
       </c>
       <c r="C48" s="2">
-        <v>55442593</v>
+        <v>56098786</v>
       </c>
       <c r="D48" s="2">
-        <v>599071616</v>
+        <v>705541139</v>
       </c>
       <c r="E48" s="2">
-        <v>18201920</v>
+        <v>6181024</v>
       </c>
       <c r="F48" s="2">
-        <v>16552552</v>
+        <v>6173728</v>
       </c>
       <c r="G48" s="2">
-        <v>553714</v>
+        <v>1928073</v>
       </c>
       <c r="H48" s="2">
-        <v>176147</v>
+        <v>3503492</v>
       </c>
       <c r="I48" s="2">
-        <v>15343923</v>
+        <v>21966394</v>
       </c>
       <c r="J48" s="2">
-        <v>22025493</v>
+        <v>23338617</v>
       </c>
       <c r="K48" s="2">
-        <v>3347162108</v>
+        <v>6667197214</v>
       </c>
       <c r="L48" s="2">
-        <v>80289</v>
+        <v>74273</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -3613,97 +3614,89 @@
         <v>66</v>
       </c>
       <c r="B49" s="2">
-        <v>41355236</v>
+        <v>43736244</v>
       </c>
       <c r="C49" s="2">
-        <v>54177695</v>
+        <v>55442593</v>
       </c>
       <c r="D49" s="2">
-        <v>596702879</v>
+        <v>599071616</v>
       </c>
       <c r="E49" s="2">
-        <v>9463597</v>
+        <v>18201920</v>
       </c>
       <c r="F49" s="2">
-        <v>13718426</v>
+        <v>16552552</v>
       </c>
       <c r="G49" s="2">
-        <v>4123738</v>
+        <v>553714</v>
       </c>
       <c r="H49" s="2">
-        <v>4047817</v>
+        <v>176147</v>
       </c>
       <c r="I49" s="2">
-        <v>35718099</v>
+        <v>15343923</v>
       </c>
       <c r="J49" s="2">
-        <v>10616973</v>
+        <v>22025493</v>
       </c>
       <c r="K49" s="2">
-        <v>3394785187</v>
+        <v>3347162108</v>
       </c>
       <c r="L49" s="2">
-        <v>12225</v>
+        <v>80289</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2">
-        <v>3337993</v>
-      </c>
-      <c r="O49" s="2">
-        <v>368258</v>
-      </c>
-      <c r="P49" s="2">
-        <v>4041773</v>
-      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="2">
-        <v>116006542</v>
+        <v>41355236</v>
       </c>
       <c r="C50" s="2">
-        <v>53929661</v>
+        <v>54177695</v>
       </c>
       <c r="D50" s="2">
-        <v>230903335</v>
+        <v>596702879</v>
       </c>
       <c r="E50" s="2">
-        <v>9270659</v>
+        <v>9463597</v>
       </c>
       <c r="F50" s="2">
-        <v>135516</v>
+        <v>13718426</v>
       </c>
       <c r="G50" s="2">
-        <v>156779</v>
+        <v>4123738</v>
       </c>
       <c r="H50" s="2">
-        <v>39951</v>
+        <v>4047817</v>
       </c>
       <c r="I50" s="2">
-        <v>7650883</v>
+        <v>35718099</v>
       </c>
       <c r="J50" s="2">
-        <v>7694702</v>
+        <v>10616973</v>
       </c>
       <c r="K50" s="2">
-        <v>119685088</v>
+        <v>3394785187</v>
       </c>
       <c r="L50" s="2">
-        <v>34196</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>12225</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2">
-        <v>2593809</v>
+        <v>3337993</v>
       </c>
       <c r="O50" s="2">
-        <v>1664987</v>
+        <v>368258</v>
       </c>
       <c r="P50" s="2">
-        <v>8422654</v>
+        <v>4041773</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -3714,7 +3707,7 @@
         <v>64773635</v>
       </c>
       <c r="C51" s="2">
-        <v>51895992</v>
+        <v>52062144</v>
       </c>
       <c r="D51" s="2">
         <v>141348913</v>
@@ -3738,10 +3731,10 @@
         <v>4885179</v>
       </c>
       <c r="K51" s="2">
-        <v>45714118316</v>
+        <v>46838887766</v>
       </c>
       <c r="L51" s="2">
-        <v>13156</v>
+        <v>13160</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>17</v>
@@ -3812,13 +3805,13 @@
         <v>67719250</v>
       </c>
       <c r="C53" s="2">
-        <v>46591346</v>
+        <v>46567210</v>
       </c>
       <c r="D53" s="2">
-        <v>85191416</v>
+        <v>86372296</v>
       </c>
       <c r="E53" s="2">
-        <v>7024294</v>
+        <v>7074164</v>
       </c>
       <c r="F53" s="2">
         <v>63459512</v>
@@ -3830,16 +3823,16 @@
         <v>122259</v>
       </c>
       <c r="I53" s="2">
-        <v>2060278</v>
+        <v>2088372</v>
       </c>
       <c r="J53" s="2">
-        <v>2569990</v>
+        <v>2614987</v>
       </c>
       <c r="K53" s="2">
-        <v>8489023221</v>
+        <v>8609023221</v>
       </c>
       <c r="L53" s="2">
-        <v>15301</v>
+        <v>15312</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>17</v>
@@ -3862,10 +3855,10 @@
         <v>71753312</v>
       </c>
       <c r="C54" s="2">
-        <v>42777809</v>
+        <v>42954611</v>
       </c>
       <c r="D54" s="2">
-        <v>388446786</v>
+        <v>388468366</v>
       </c>
       <c r="E54" s="2">
         <v>20215594</v>
@@ -3883,13 +3876,13 @@
         <v>10091003</v>
       </c>
       <c r="J54" s="2">
-        <v>14155383</v>
+        <v>14156462</v>
       </c>
       <c r="K54" s="2">
         <v>35590980642</v>
       </c>
       <c r="L54" s="2">
-        <v>69397</v>
+        <v>69526</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>17</v>
@@ -3912,13 +3905,13 @@
         <v>65057849</v>
       </c>
       <c r="C55" s="2">
-        <v>42616915</v>
+        <v>42394014</v>
       </c>
       <c r="D55" s="2">
-        <v>435568551</v>
+        <v>436082071</v>
       </c>
       <c r="E55" s="2">
-        <v>14279715</v>
+        <v>14311928</v>
       </c>
       <c r="F55" s="2">
         <v>3857297</v>
@@ -3930,16 +3923,16 @@
         <v>463504</v>
       </c>
       <c r="I55" s="2">
-        <v>17338854</v>
+        <v>17351650</v>
       </c>
       <c r="J55" s="2">
-        <v>12908135</v>
+        <v>12927413</v>
       </c>
       <c r="K55" s="2">
         <v>20974313782</v>
       </c>
       <c r="L55" s="2">
-        <v>198198</v>
+        <v>19830</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>17</v>
@@ -3962,10 +3955,10 @@
         <v>70307141</v>
       </c>
       <c r="C56" s="2">
-        <v>34662547</v>
+        <v>34540701</v>
       </c>
       <c r="D56" s="2">
-        <v>14213377</v>
+        <v>14219197</v>
       </c>
       <c r="E56" s="2">
         <v>5283739</v>
@@ -3983,13 +3976,13 @@
         <v>552308</v>
       </c>
       <c r="J56" s="2">
-        <v>434099</v>
+        <v>434390</v>
       </c>
       <c r="K56" s="2">
         <v>16602804852</v>
       </c>
       <c r="L56" s="2">
-        <v>6058</v>
+        <v>6061</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>17</v>
@@ -4054,16 +4047,16 @@
         <v>116370262</v>
       </c>
       <c r="C58" s="2">
-        <v>33706966</v>
+        <v>33486390</v>
       </c>
       <c r="D58" s="2">
-        <v>183222451</v>
+        <v>184240106</v>
       </c>
       <c r="E58" s="2">
-        <v>7605387</v>
+        <v>7667806</v>
       </c>
       <c r="F58" s="2">
-        <v>2143199</v>
+        <v>2143221</v>
       </c>
       <c r="G58" s="2">
         <v>1429622</v>
@@ -4072,16 +4065,16 @@
         <v>514642</v>
       </c>
       <c r="I58" s="2">
-        <v>5413192</v>
+        <v>5439191</v>
       </c>
       <c r="J58" s="2">
-        <v>6187204</v>
+        <v>6225087</v>
       </c>
       <c r="K58" s="2">
         <v>1576543254</v>
       </c>
       <c r="L58" s="2">
-        <v>16130</v>
+        <v>16164</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>17</v>
@@ -4198,7 +4191,7 @@
         <v>179979725</v>
       </c>
       <c r="C61" s="2">
-        <v>33066028</v>
+        <v>33109244</v>
       </c>
       <c r="D61" s="2">
         <v>46460</v>
@@ -4238,10 +4231,10 @@
         <v>76028022</v>
       </c>
       <c r="C62" s="2">
-        <v>32006352</v>
+        <v>32044608</v>
       </c>
       <c r="D62" s="2">
-        <v>268395969</v>
+        <v>268396049</v>
       </c>
       <c r="E62" s="2">
         <v>11927372</v>
@@ -4259,13 +4252,13 @@
         <v>10142417</v>
       </c>
       <c r="J62" s="2">
-        <v>8216956</v>
+        <v>8216960</v>
       </c>
       <c r="K62" s="2">
         <v>18987000975</v>
       </c>
       <c r="L62" s="2">
-        <v>12258</v>
+        <v>12262</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>17</v>
@@ -4288,13 +4281,13 @@
         <v>20349059</v>
       </c>
       <c r="C63" s="2">
-        <v>30693846</v>
+        <v>30580250</v>
       </c>
       <c r="D63" s="2">
-        <v>50877768</v>
+        <v>51303878</v>
       </c>
       <c r="E63" s="2">
-        <v>1683111</v>
+        <v>1704570</v>
       </c>
       <c r="F63" s="2">
         <v>95384</v>
@@ -4306,16 +4299,16 @@
         <v>3563</v>
       </c>
       <c r="I63" s="2">
-        <v>1476429</v>
+        <v>1487038</v>
       </c>
       <c r="J63" s="2">
-        <v>1799719</v>
+        <v>1815720</v>
       </c>
       <c r="K63" s="2">
-        <v>15776538128</v>
+        <v>15856538128</v>
       </c>
       <c r="L63" s="2">
-        <v>9893</v>
+        <v>9896</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>17</v>
@@ -4409,7 +4402,7 @@
         <v>8784031323</v>
       </c>
       <c r="L65" s="2">
-        <v>14909</v>
+        <v>14910</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>17</v>
@@ -4459,7 +4452,7 @@
         <v>36149578740</v>
       </c>
       <c r="L66" s="2">
-        <v>10833</v>
+        <v>10835</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>17</v>
@@ -4482,7 +4475,7 @@
         <v>58481229</v>
       </c>
       <c r="C67" s="2">
-        <v>28854682</v>
+        <v>28881586</v>
       </c>
       <c r="D67" s="2">
         <v>41409141</v>
@@ -4506,10 +4499,10 @@
         <v>1542356</v>
       </c>
       <c r="K67" s="2">
-        <v>17905094409</v>
+        <v>18630425320</v>
       </c>
       <c r="L67" s="2">
-        <v>5765</v>
+        <v>5777</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>17</v>
@@ -4532,7 +4525,7 @@
         <v>30958849</v>
       </c>
       <c r="C68" s="2">
-        <v>28460795</v>
+        <v>28467595</v>
       </c>
       <c r="D68" s="2">
         <v>109688419</v>
@@ -4559,7 +4552,7 @@
         <v>33290298814</v>
       </c>
       <c r="L68" s="2">
-        <v>14394</v>
+        <v>14396</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>17</v>
@@ -4579,49 +4572,49 @@
         <v>88</v>
       </c>
       <c r="B69" s="2">
-        <v>45155277</v>
+        <v>122958650</v>
       </c>
       <c r="C69" s="2">
-        <v>28393938</v>
+        <v>28336615</v>
       </c>
       <c r="D69" s="2">
-        <v>90643685</v>
+        <v>42008430</v>
       </c>
       <c r="E69" s="2">
-        <v>3617307</v>
+        <v>5398808</v>
       </c>
       <c r="F69" s="2">
-        <v>1842117</v>
+        <v>127280</v>
       </c>
       <c r="G69" s="2">
-        <v>4100705</v>
+        <v>134407</v>
       </c>
       <c r="H69" s="2">
-        <v>1909253</v>
+        <v>15960</v>
       </c>
       <c r="I69" s="2">
-        <v>3504096</v>
+        <v>1139362</v>
       </c>
       <c r="J69" s="2">
-        <v>1969794</v>
+        <v>1512835</v>
       </c>
       <c r="K69" s="2">
-        <v>7180860367</v>
+        <v>8135404855</v>
       </c>
       <c r="L69" s="2">
-        <v>8059</v>
+        <v>6691</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N69" s="2">
-        <v>478004</v>
+        <v>801216</v>
       </c>
       <c r="O69" s="2">
-        <v>345184</v>
+        <v>1389763</v>
       </c>
       <c r="P69" s="2">
-        <v>433218</v>
+        <v>4854957</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -4629,49 +4622,49 @@
         <v>89</v>
       </c>
       <c r="B70" s="2">
-        <v>122958650</v>
+        <v>45155277</v>
       </c>
       <c r="C70" s="2">
-        <v>28336615</v>
+        <v>28325146</v>
       </c>
       <c r="D70" s="2">
-        <v>42008430</v>
+        <v>90887875</v>
       </c>
       <c r="E70" s="2">
-        <v>5398808</v>
+        <v>3630320</v>
       </c>
       <c r="F70" s="2">
-        <v>127280</v>
+        <v>1842117</v>
       </c>
       <c r="G70" s="2">
-        <v>134407</v>
+        <v>4100705</v>
       </c>
       <c r="H70" s="2">
-        <v>15960</v>
+        <v>1909253</v>
       </c>
       <c r="I70" s="2">
-        <v>1139362</v>
+        <v>3510901</v>
       </c>
       <c r="J70" s="2">
-        <v>1512835</v>
+        <v>1978601</v>
       </c>
       <c r="K70" s="2">
-        <v>8135404855</v>
+        <v>7180860367</v>
       </c>
       <c r="L70" s="2">
-        <v>6691</v>
+        <v>8060</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N70" s="2">
-        <v>801216</v>
+        <v>478004</v>
       </c>
       <c r="O70" s="2">
-        <v>1389763</v>
+        <v>345184</v>
       </c>
       <c r="P70" s="2">
-        <v>4854957</v>
+        <v>433218</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -4682,7 +4675,7 @@
         <v>111292103</v>
       </c>
       <c r="C71" s="2">
-        <v>27716664</v>
+        <v>27749264</v>
       </c>
       <c r="D71" s="2">
         <v>20338158</v>
@@ -4706,10 +4699,10 @@
         <v>610415</v>
       </c>
       <c r="K71" s="2">
-        <v>3506677000</v>
+        <v>3606677000</v>
       </c>
       <c r="L71" s="2">
-        <v>9832</v>
+        <v>9945</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>17</v>
@@ -4968,13 +4961,13 @@
         <v>1482388</v>
       </c>
       <c r="C77" s="2">
-        <v>26111212</v>
+        <v>26287368</v>
       </c>
       <c r="D77" s="2">
-        <v>185594373</v>
+        <v>186429473</v>
       </c>
       <c r="E77" s="2">
-        <v>7927953</v>
+        <v>7963839</v>
       </c>
       <c r="F77" s="2">
         <v>139939</v>
@@ -4986,16 +4979,16 @@
         <v>180285</v>
       </c>
       <c r="I77" s="2">
-        <v>5088816</v>
+        <v>5117282</v>
       </c>
       <c r="J77" s="2">
-        <v>6693684</v>
+        <v>6721206</v>
       </c>
       <c r="K77" s="2">
         <v>32818491383</v>
       </c>
       <c r="L77" s="2">
-        <v>14890</v>
+        <v>14895</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>17</v>
@@ -5018,7 +5011,7 @@
         <v>29240760</v>
       </c>
       <c r="C78" s="2">
-        <v>25696048</v>
+        <v>25702848</v>
       </c>
       <c r="D78" s="2">
         <v>132913701</v>
@@ -5045,7 +5038,7 @@
         <v>26584222785</v>
       </c>
       <c r="L78" s="2">
-        <v>13758</v>
+        <v>13762</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>17</v>
@@ -5095,7 +5088,7 @@
         <v>13256058423</v>
       </c>
       <c r="L79" s="2">
-        <v>12466</v>
+        <v>12469</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>17</v>
@@ -5283,7 +5276,7 @@
         <v>12458110223</v>
       </c>
       <c r="L83" s="2">
-        <v>9345</v>
+        <v>9349</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>17</v>
@@ -5354,7 +5347,7 @@
         <v>102689344</v>
       </c>
       <c r="C85" s="2">
-        <v>24819118</v>
+        <v>24832718</v>
       </c>
       <c r="D85" s="2">
         <v>45560696</v>
@@ -5381,7 +5374,7 @@
         <v>22568497910</v>
       </c>
       <c r="L85" s="2">
-        <v>5938</v>
+        <v>5941</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>17</v>
@@ -5404,7 +5397,7 @@
         <v>135874891</v>
       </c>
       <c r="C86" s="2">
-        <v>24095590</v>
+        <v>24448782</v>
       </c>
       <c r="D86" s="2">
         <v>33010031</v>
@@ -5431,7 +5424,7 @@
         <v>13574025187</v>
       </c>
       <c r="L86" s="2">
-        <v>31529</v>
+        <v>31530</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>17</v>
@@ -5481,7 +5474,7 @@
         <v>21782747262</v>
       </c>
       <c r="L87" s="2">
-        <v>6263</v>
+        <v>6266</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>17</v>
@@ -5504,7 +5497,7 @@
         <v>145862727</v>
       </c>
       <c r="C88" s="2">
-        <v>24030790</v>
+        <v>24050390</v>
       </c>
       <c r="D88" s="2">
         <v>7250051</v>
@@ -5531,7 +5524,7 @@
         <v>16615486265</v>
       </c>
       <c r="L88" s="2">
-        <v>4561</v>
+        <v>4564</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>17</v>
@@ -5551,49 +5544,47 @@
         <v>110</v>
       </c>
       <c r="B89" s="2">
-        <v>102573628</v>
+        <v>7967421</v>
       </c>
       <c r="C89" s="2">
-        <v>23668336</v>
+        <v>23765314</v>
       </c>
       <c r="D89" s="2">
-        <v>41986712</v>
+        <v>1426388</v>
       </c>
       <c r="E89" s="2">
-        <v>4218435</v>
+        <v>95442</v>
       </c>
       <c r="F89" s="2">
-        <v>37171</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2">
-        <v>1733</v>
+        <v>6</v>
       </c>
       <c r="H89" s="2">
-        <v>938</v>
+        <v>1</v>
       </c>
       <c r="I89" s="2">
-        <v>931580</v>
+        <v>43167</v>
       </c>
       <c r="J89" s="2">
-        <v>1632813</v>
+        <v>49735</v>
       </c>
       <c r="K89" s="2">
-        <v>19134301110</v>
+        <v>1411488412</v>
       </c>
       <c r="L89" s="2">
-        <v>6124</v>
+        <v>4223</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N89" s="2">
-        <v>2135137</v>
-      </c>
-      <c r="O89" s="2">
-        <v>2210189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" s="2">
-        <v>2648693</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -5601,47 +5592,49 @@
         <v>111</v>
       </c>
       <c r="B90" s="2">
-        <v>7967421</v>
+        <v>102573628</v>
       </c>
       <c r="C90" s="2">
-        <v>23765314</v>
+        <v>23668336</v>
       </c>
       <c r="D90" s="2">
-        <v>1426388</v>
+        <v>41986712</v>
       </c>
       <c r="E90" s="2">
-        <v>95442</v>
+        <v>4218435</v>
       </c>
       <c r="F90" s="2">
-        <v>10</v>
+        <v>37171</v>
       </c>
       <c r="G90" s="2">
-        <v>6</v>
+        <v>1733</v>
       </c>
       <c r="H90" s="2">
-        <v>1</v>
+        <v>938</v>
       </c>
       <c r="I90" s="2">
-        <v>43167</v>
+        <v>931580</v>
       </c>
       <c r="J90" s="2">
-        <v>49735</v>
+        <v>1632813</v>
       </c>
       <c r="K90" s="2">
-        <v>1411488412</v>
+        <v>19134301110</v>
       </c>
       <c r="L90" s="2">
-        <v>4223</v>
+        <v>6126</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N90" s="2">
-        <v>0</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>2135137</v>
+      </c>
+      <c r="O90" s="2">
+        <v>2210189</v>
+      </c>
       <c r="P90" s="2">
-        <v>4306</v>
+        <v>2648693</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
@@ -5696,7 +5689,7 @@
         <v>45436797</v>
       </c>
       <c r="C92" s="2">
-        <v>23065818</v>
+        <v>23068640</v>
       </c>
       <c r="D92" s="2">
         <v>8566163</v>
@@ -5738,34 +5731,34 @@
         <v>156065332</v>
       </c>
       <c r="C93" s="2">
-        <v>23006782</v>
+        <v>22784814</v>
       </c>
       <c r="D93" s="2">
-        <v>29755644</v>
+        <v>30601645</v>
       </c>
       <c r="E93" s="2">
-        <v>1071795</v>
+        <v>1147396</v>
       </c>
       <c r="F93" s="2">
-        <v>461941</v>
+        <v>462208</v>
       </c>
       <c r="G93" s="2">
-        <v>1668762</v>
+        <v>1668766</v>
       </c>
       <c r="H93" s="2">
         <v>282043</v>
       </c>
       <c r="I93" s="2">
-        <v>1100612</v>
+        <v>1124090</v>
       </c>
       <c r="J93" s="2">
-        <v>709572</v>
+        <v>740130</v>
       </c>
       <c r="K93" s="2">
         <v>1058641952</v>
       </c>
       <c r="L93" s="2">
-        <v>4011</v>
+        <v>4069</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>17</v>
@@ -5788,10 +5781,10 @@
         <v>75597392</v>
       </c>
       <c r="C94" s="2">
-        <v>22607568</v>
+        <v>22431989</v>
       </c>
       <c r="D94" s="2">
-        <v>3157255</v>
+        <v>3160675</v>
       </c>
       <c r="E94" s="2">
         <v>109621</v>
@@ -5809,16 +5802,16 @@
         <v>59770</v>
       </c>
       <c r="J94" s="2">
-        <v>80580</v>
+        <v>80751</v>
       </c>
       <c r="K94" s="2">
         <v>1627282716</v>
       </c>
       <c r="L94" s="2">
-        <v>6846</v>
+        <v>6851</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -5826,7 +5819,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2">
         <v>88149205</v>
@@ -5862,7 +5855,7 @@
         <v>2492</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N95" s="2">
         <v>1084917</v>
@@ -5876,7 +5869,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2">
         <v>115316674</v>
@@ -5926,13 +5919,13 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2">
         <v>45422391</v>
       </c>
       <c r="C97" s="2">
-        <v>21189088</v>
+        <v>21215463</v>
       </c>
       <c r="D97" s="2">
         <v>7831044</v>
@@ -5962,7 +5955,7 @@
         <v>2817</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N97" s="2">
         <v>0</v>
@@ -5974,7 +5967,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2">
         <v>27032799</v>
@@ -6016,7 +6009,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2">
         <v>6186291</v>
@@ -6062,7 +6055,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2">
         <v>59510152</v>
@@ -6112,13 +6105,13 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2">
         <v>106774288</v>
       </c>
       <c r="C101" s="2">
-        <v>20793652</v>
+        <v>20808452</v>
       </c>
       <c r="D101" s="2">
         <v>34321188</v>
@@ -6148,7 +6141,7 @@
         <v>3735</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N101" s="2">
         <v>754022</v>
@@ -6162,19 +6155,19 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2">
         <v>174761986</v>
       </c>
       <c r="C102" s="2">
-        <v>20578157</v>
+        <v>20475088</v>
       </c>
       <c r="D102" s="2">
-        <v>3097323</v>
+        <v>3949743</v>
       </c>
       <c r="E102" s="2">
-        <v>596536</v>
+        <v>620702</v>
       </c>
       <c r="F102" s="2">
         <v>235036</v>
@@ -6186,16 +6179,16 @@
         <v>0</v>
       </c>
       <c r="I102" s="2">
-        <v>207821</v>
+        <v>234903</v>
       </c>
       <c r="J102" s="2">
-        <v>46946</v>
+        <v>76026</v>
       </c>
       <c r="K102" s="2">
         <v>522615105</v>
       </c>
       <c r="L102" s="2">
-        <v>32006</v>
+        <v>32010</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>17</v>
@@ -6206,7 +6199,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2">
         <v>80915456</v>
@@ -6256,19 +6249,19 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2">
         <v>138480479</v>
       </c>
       <c r="C104" s="2">
-        <v>20292954</v>
+        <v>20274550</v>
       </c>
       <c r="D104" s="2">
-        <v>6463913</v>
+        <v>6803113</v>
       </c>
       <c r="E104" s="2">
-        <v>571084</v>
+        <v>573402</v>
       </c>
       <c r="F104" s="2">
         <v>16</v>
@@ -6280,16 +6273,16 @@
         <v>1099</v>
       </c>
       <c r="I104" s="2">
-        <v>220223</v>
+        <v>233193</v>
       </c>
       <c r="J104" s="2">
-        <v>212738</v>
+        <v>223213</v>
       </c>
       <c r="K104" s="2">
         <v>7148110350</v>
       </c>
       <c r="L104" s="2">
-        <v>32706</v>
+        <v>2708</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>17</v>
@@ -6306,7 +6299,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2">
         <v>111380674</v>
@@ -6339,7 +6332,7 @@
         <v>7862409176</v>
       </c>
       <c r="L105" s="2">
-        <v>3970</v>
+        <v>3972</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>17</v>
@@ -6356,7 +6349,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2">
         <v>128158872</v>
@@ -6400,19 +6393,19 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2">
         <v>82063769</v>
       </c>
       <c r="C107" s="2">
-        <v>19763544</v>
+        <v>19896651</v>
       </c>
       <c r="D107" s="2">
-        <v>40515210</v>
+        <v>40698610</v>
       </c>
       <c r="E107" s="2">
-        <v>2034693</v>
+        <v>2044124</v>
       </c>
       <c r="F107" s="2">
         <v>11003</v>
@@ -6424,16 +6417,16 @@
         <v>1264</v>
       </c>
       <c r="I107" s="2">
-        <v>948405</v>
+        <v>952983</v>
       </c>
       <c r="J107" s="2">
-        <v>1550571</v>
+        <v>1557452</v>
       </c>
       <c r="K107" s="2">
-        <v>18415387389</v>
+        <v>18563532304</v>
       </c>
       <c r="L107" s="2">
-        <v>6971</v>
+        <v>6988</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>17</v>
@@ -6450,7 +6443,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2">
         <v>75908263</v>
@@ -6500,19 +6493,19 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2">
         <v>111381676</v>
       </c>
       <c r="C109" s="2">
-        <v>19293715</v>
+        <v>19273979</v>
       </c>
       <c r="D109" s="2">
-        <v>11152511</v>
+        <v>11516201</v>
       </c>
       <c r="E109" s="2">
-        <v>1996960</v>
+        <v>1999447</v>
       </c>
       <c r="F109" s="2">
         <v>21897</v>
@@ -6524,16 +6517,16 @@
         <v>2466</v>
       </c>
       <c r="I109" s="2">
-        <v>400711</v>
+        <v>414630</v>
       </c>
       <c r="J109" s="2">
-        <v>356495</v>
+        <v>367720</v>
       </c>
       <c r="K109" s="2">
         <v>14071995232</v>
       </c>
       <c r="L109" s="2">
-        <v>3850</v>
+        <v>3954</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>17</v>
@@ -6550,7 +6543,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2">
         <v>90737516</v>
@@ -6600,7 +6593,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2">
         <v>165660039</v>
@@ -6648,19 +6641,19 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B112" s="2">
         <v>62819682</v>
       </c>
       <c r="C112" s="2">
-        <v>19052165</v>
+        <v>19009033</v>
       </c>
       <c r="D112" s="2">
-        <v>16832518</v>
+        <v>17043788</v>
       </c>
       <c r="E112" s="2">
-        <v>725441</v>
+        <v>736224</v>
       </c>
       <c r="F112" s="2">
         <v>4301</v>
@@ -6672,16 +6665,16 @@
         <v>26</v>
       </c>
       <c r="I112" s="2">
-        <v>416850</v>
+        <v>422099</v>
       </c>
       <c r="J112" s="2">
-        <v>633049</v>
+        <v>640988</v>
       </c>
       <c r="K112" s="2">
         <v>27045479815</v>
       </c>
       <c r="L112" s="2">
-        <v>4397</v>
+        <v>4418</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>17</v>
@@ -6698,13 +6691,13 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2">
         <v>133757841</v>
       </c>
       <c r="C113" s="2">
-        <v>18650160</v>
+        <v>18653560</v>
       </c>
       <c r="D113" s="2">
         <v>8262945</v>
@@ -6731,7 +6724,7 @@
         <v>13897918476</v>
       </c>
       <c r="L113" s="2">
-        <v>4013</v>
+        <v>4017</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>17</v>
@@ -6748,13 +6741,13 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2">
         <v>89011324</v>
       </c>
       <c r="C114" s="2">
-        <v>18623737</v>
+        <v>18628537</v>
       </c>
       <c r="D114" s="2">
         <v>3746052</v>
@@ -6781,7 +6774,7 @@
         <v>81346858403</v>
       </c>
       <c r="L114" s="2">
-        <v>7676</v>
+        <v>7677</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>79</v>
@@ -6796,7 +6789,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B115" s="2">
         <v>106280664</v>
@@ -6840,7 +6833,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2">
         <v>138260227</v>
@@ -6886,13 +6879,13 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2">
         <v>89407722</v>
       </c>
       <c r="C117" s="2">
-        <v>18523095</v>
+        <v>18524695</v>
       </c>
       <c r="D117" s="2">
         <v>2854224</v>
@@ -6919,7 +6912,7 @@
         <v>21400920567</v>
       </c>
       <c r="L117" s="2">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>79</v>
@@ -6934,7 +6927,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2">
         <v>22650649</v>
@@ -6978,13 +6971,13 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2">
         <v>157599938</v>
       </c>
       <c r="C119" s="2">
-        <v>18326417</v>
+        <v>19015269</v>
       </c>
       <c r="D119" s="2">
         <v>1356031</v>
@@ -7009,7 +7002,7 @@
         <v>6212149626</v>
       </c>
       <c r="L119" s="2">
-        <v>327198</v>
+        <v>2722</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>17</v>
@@ -7026,19 +7019,19 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2">
         <v>83226771</v>
       </c>
       <c r="C120" s="2">
-        <v>18068203</v>
+        <v>18236682</v>
       </c>
       <c r="D120" s="2">
-        <v>9863422</v>
+        <v>10061932</v>
       </c>
       <c r="E120" s="2">
-        <v>812506</v>
+        <v>822658</v>
       </c>
       <c r="F120" s="2">
         <v>912</v>
@@ -7050,16 +7043,16 @@
         <v>257</v>
       </c>
       <c r="I120" s="2">
-        <v>316378</v>
+        <v>321323</v>
       </c>
       <c r="J120" s="2">
-        <v>334860</v>
+        <v>342313</v>
       </c>
       <c r="K120" s="2">
-        <v>15561557449</v>
+        <v>15657568456</v>
       </c>
       <c r="L120" s="2">
-        <v>2837</v>
+        <v>2861</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>17</v>
@@ -7076,7 +7069,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2">
         <v>152874510</v>
@@ -7126,13 +7119,13 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2">
         <v>88464477</v>
       </c>
       <c r="C122" s="2">
-        <v>18068605</v>
+        <v>18075005</v>
       </c>
       <c r="D122" s="2">
         <v>3396656</v>
@@ -7159,7 +7152,7 @@
         <v>19706844534</v>
       </c>
       <c r="L122" s="2">
-        <v>6865</v>
+        <v>6866</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>79</v>
@@ -7170,13 +7163,13 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2">
         <v>89355469</v>
       </c>
       <c r="C123" s="2">
-        <v>17963111</v>
+        <v>17964711</v>
       </c>
       <c r="D123" s="2">
         <v>2978751</v>
@@ -7203,7 +7196,7 @@
         <v>24957521265</v>
       </c>
       <c r="L123" s="2">
-        <v>6362</v>
+        <v>6363</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>79</v>
@@ -7218,13 +7211,13 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2">
         <v>88478722</v>
       </c>
       <c r="C124" s="2">
-        <v>17884859</v>
+        <v>17891259</v>
       </c>
       <c r="D124" s="2">
         <v>2071941</v>
@@ -7249,7 +7242,7 @@
         <v>19911653616</v>
       </c>
       <c r="L124" s="2">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>79</v>
@@ -7260,13 +7253,13 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2">
         <v>90769109</v>
       </c>
       <c r="C125" s="2">
-        <v>17867834</v>
+        <v>17869434</v>
       </c>
       <c r="D125" s="2">
         <v>2627066</v>
@@ -7293,7 +7286,7 @@
         <v>21735112732</v>
       </c>
       <c r="L125" s="2">
-        <v>8765</v>
+        <v>8766</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>79</v>
@@ -7308,13 +7301,13 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2">
         <v>86428939</v>
       </c>
       <c r="C126" s="2">
-        <v>17823788</v>
+        <v>17828588</v>
       </c>
       <c r="D126" s="2">
         <v>3195770</v>
@@ -7341,7 +7334,7 @@
         <v>43624470094</v>
       </c>
       <c r="L126" s="2">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>79</v>
@@ -7358,7 +7351,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2">
         <v>152870519</v>
@@ -7404,16 +7397,16 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2">
         <v>52156110</v>
       </c>
       <c r="C128" s="2">
-        <v>17306107</v>
+        <v>18274595</v>
       </c>
       <c r="D128" s="2">
-        <v>5224371</v>
+        <v>5294911</v>
       </c>
       <c r="E128" s="2">
         <v>2022556</v>
@@ -7431,13 +7424,13 @@
         <v>185626</v>
       </c>
       <c r="J128" s="2">
-        <v>160987</v>
+        <v>164514</v>
       </c>
       <c r="K128" s="2">
-        <v>16699170066</v>
+        <v>16727234226</v>
       </c>
       <c r="L128" s="2">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>17</v>
@@ -7454,13 +7447,13 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2">
         <v>91649416</v>
       </c>
       <c r="C129" s="2">
-        <v>17251622</v>
+        <v>17253222</v>
       </c>
       <c r="D129" s="2">
         <v>1922015</v>
@@ -7487,7 +7480,7 @@
         <v>20539244403</v>
       </c>
       <c r="L129" s="2">
-        <v>4685</v>
+        <v>46386</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>79</v>
@@ -7498,13 +7491,13 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2">
         <v>145876288</v>
       </c>
       <c r="C130" s="2">
-        <v>17165885</v>
+        <v>17191485</v>
       </c>
       <c r="D130" s="2">
         <v>4906994</v>
@@ -7534,7 +7527,7 @@
         <v>645</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -7542,13 +7535,13 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B131" s="2">
         <v>132853690</v>
       </c>
       <c r="C131" s="2">
-        <v>17137801</v>
+        <v>17163801</v>
       </c>
       <c r="D131" s="2">
         <v>1658723</v>
@@ -7575,10 +7568,10 @@
         <v>8129091544</v>
       </c>
       <c r="L131" s="2">
-        <v>21</v>
+        <v>823</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -7690,7 +7683,7 @@
         <v>91646823</v>
       </c>
       <c r="C134" s="2">
-        <v>16847293</v>
+        <v>16853693</v>
       </c>
       <c r="D134" s="2">
         <v>1637379</v>
@@ -7717,7 +7710,7 @@
         <v>19843105921</v>
       </c>
       <c r="L134" s="2">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>79</v>
@@ -7776,7 +7769,7 @@
         <v>88480351</v>
       </c>
       <c r="C136" s="2">
-        <v>16412462</v>
+        <v>16418862</v>
       </c>
       <c r="D136" s="2">
         <v>2874211</v>
@@ -7803,7 +7796,7 @@
         <v>19494548521</v>
       </c>
       <c r="L136" s="2">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="M136" s="2" t="s">
         <v>79</v>
@@ -8008,7 +8001,7 @@
         <v>84593145</v>
       </c>
       <c r="C141" s="2">
-        <v>15811087</v>
+        <v>15815887</v>
       </c>
       <c r="D141" s="2">
         <v>490449</v>
@@ -8035,7 +8028,7 @@
         <v>21603424099</v>
       </c>
       <c r="L141" s="2">
-        <v>3374</v>
+        <v>30375</v>
       </c>
       <c r="M141" s="2" t="s">
         <v>79</v>
@@ -8052,7 +8045,7 @@
         <v>83580202</v>
       </c>
       <c r="C142" s="2">
-        <v>15796184</v>
+        <v>15802584</v>
       </c>
       <c r="D142" s="2">
         <v>2172572</v>
@@ -8079,7 +8072,7 @@
         <v>23656171432</v>
       </c>
       <c r="L142" s="2">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="M142" s="2" t="s">
         <v>79</v>
@@ -8102,7 +8095,7 @@
         <v>129353741</v>
       </c>
       <c r="C143" s="2">
-        <v>15681845</v>
+        <v>15686645</v>
       </c>
       <c r="D143" s="2">
         <v>541742</v>
@@ -8600,10 +8593,10 @@
         <v>0</v>
       </c>
       <c r="K153" s="2">
-        <v>1908123707</v>
+        <v>2276123705</v>
       </c>
       <c r="L153" s="2">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="M153" s="2" t="s">
         <v>17</v>
@@ -8716,7 +8709,7 @@
         <v>184098057</v>
       </c>
       <c r="C156" s="2">
-        <v>13473014</v>
+        <v>13498614</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2">
@@ -8735,7 +8728,7 @@
         <v>725698258</v>
       </c>
       <c r="L156" s="2">
-        <v>2044</v>
+        <v>2063</v>
       </c>
       <c r="M156" s="2" t="s">
         <v>17</v>
@@ -8776,10 +8769,10 @@
         <v>14025</v>
       </c>
       <c r="K157" s="2">
-        <v>9716642334</v>
+        <v>10376943972</v>
       </c>
       <c r="L157" s="2">
-        <v>32901</v>
+        <v>2904</v>
       </c>
       <c r="M157" s="2" t="s">
         <v>17</v>
@@ -9081,7 +9074,7 @@
         <v>521791870</v>
       </c>
       <c r="L164" s="2">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>100</v>
@@ -9404,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="K172" s="2">
-        <v>1378773699</v>
+        <v>1664313478</v>
       </c>
       <c r="L172" s="2">
         <v>609</v>
@@ -9620,7 +9613,7 @@
         <v>140618805</v>
       </c>
       <c r="C178" s="2">
-        <v>10266408</v>
+        <v>10272808</v>
       </c>
       <c r="D178" s="2">
         <v>242170</v>
@@ -9643,7 +9636,7 @@
         <v>13666899589</v>
       </c>
       <c r="L178" s="2">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="M178" s="2" t="s">
         <v>79</v>
@@ -9660,7 +9653,7 @@
         <v>140697952</v>
       </c>
       <c r="C179" s="2">
-        <v>9991341</v>
+        <v>9996141</v>
       </c>
       <c r="D179" s="2">
         <v>22341</v>
@@ -9685,7 +9678,7 @@
         <v>12794438256</v>
       </c>
       <c r="L179" s="2">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="M179" s="2" t="s">
         <v>79</v>
@@ -9702,7 +9695,7 @@
         <v>161998715</v>
       </c>
       <c r="C180" s="2">
-        <v>9922183</v>
+        <v>9928583</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2">
@@ -9721,7 +9714,7 @@
         <v>8906646688</v>
       </c>
       <c r="L180" s="2">
-        <v>72</v>
+        <v>879</v>
       </c>
       <c r="M180" s="2" t="s">
         <v>79</v>
@@ -9738,7 +9731,7 @@
         <v>88450074</v>
       </c>
       <c r="C181" s="2">
-        <v>9886153</v>
+        <v>9892553</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2">
@@ -9757,7 +9750,7 @@
         <v>4160309366</v>
       </c>
       <c r="L181" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M181" s="2" t="s">
         <v>79</v>
@@ -9816,7 +9809,7 @@
         <v>157315131</v>
       </c>
       <c r="C183" s="2">
-        <v>9414257</v>
+        <v>9420657</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2">
@@ -9835,7 +9828,7 @@
         <v>10938158064</v>
       </c>
       <c r="L183" s="2">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="M183" s="2" t="s">
         <v>79</v>
@@ -9930,7 +9923,7 @@
         <v>171152106</v>
       </c>
       <c r="C186" s="2">
-        <v>8872205</v>
+        <v>8882705</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2">
@@ -9949,7 +9942,7 @@
         <v>535264641</v>
       </c>
       <c r="L186" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M186" s="2" t="s">
         <v>79</v>
@@ -9966,7 +9959,7 @@
         <v>171150709</v>
       </c>
       <c r="C187" s="2">
-        <v>8864101</v>
+        <v>8868901</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2">
@@ -9985,7 +9978,7 @@
         <v>480499677</v>
       </c>
       <c r="L187" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M187" s="2" t="s">
         <v>79</v>
@@ -10002,7 +9995,7 @@
         <v>88452327</v>
       </c>
       <c r="C188" s="2">
-        <v>8813451</v>
+        <v>8821451</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2">
@@ -10021,7 +10014,7 @@
         <v>3249553269</v>
       </c>
       <c r="L188" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M188" s="2" t="s">
         <v>79</v>
@@ -10061,7 +10054,7 @@
         <v>464585478</v>
       </c>
       <c r="L189" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M189" s="2" t="s">
         <v>79</v>
@@ -10078,7 +10071,7 @@
         <v>161998216</v>
       </c>
       <c r="C190" s="2">
-        <v>8804230</v>
+        <v>8807430</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2">
@@ -10097,7 +10090,7 @@
         <v>450392805</v>
       </c>
       <c r="L190" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M190" s="2" t="s">
         <v>79</v>
@@ -10218,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="K193" s="2">
-        <v>1345542004</v>
+        <v>1581211388</v>
       </c>
       <c r="L193" s="2">
         <v>542</v>
@@ -10320,7 +10313,7 @@
         <v>129794667</v>
       </c>
       <c r="C196" s="2">
-        <v>7630955</v>
+        <v>7630421</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2">
@@ -10336,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="K196" s="2">
-        <v>1436828512</v>
+        <v>1739966948</v>
       </c>
       <c r="L196" s="2">
         <v>525</v>
@@ -10430,7 +10423,7 @@
         <v>425</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -10444,7 +10437,7 @@
         <v>196805171</v>
       </c>
       <c r="C199" s="2">
-        <v>6376008</v>
+        <v>6392589</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2">
@@ -10463,7 +10456,7 @@
         <v>299006377</v>
       </c>
       <c r="L199" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M199" s="2" t="s">
         <v>100</v>
@@ -10593,7 +10586,7 @@
         <v>2866488229</v>
       </c>
       <c r="L202" s="2">
-        <v>13299</v>
+        <v>1301</v>
       </c>
       <c r="M202" s="2" t="s">
         <v>100</v>
@@ -10686,7 +10679,7 @@
         <v>563</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -10786,7 +10779,7 @@
         <v>118806541</v>
       </c>
       <c r="C207" s="2">
-        <v>3667583</v>
+        <v>3688158</v>
       </c>
       <c r="D207" s="2">
         <v>1446546</v>
@@ -10813,7 +10806,7 @@
         <v>152850189</v>
       </c>
       <c r="L207" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="M207" s="2" t="s">
         <v>17</v>
@@ -10908,7 +10901,7 @@
         <v>210</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="N209" s="2">
         <v>0</v>
@@ -11034,7 +11027,7 @@
         <v>183</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -11268,7 +11261,7 @@
         <v>162</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -11279,34 +11272,38 @@
         <v>247</v>
       </c>
       <c r="B219" s="2">
-        <v>134503682</v>
+        <v>45474165</v>
       </c>
       <c r="C219" s="2">
-        <v>2049981</v>
+        <v>2056281</v>
       </c>
       <c r="D219" s="2">
-        <v>44808</v>
+        <v>79665</v>
       </c>
       <c r="E219" s="2">
-        <v>28580</v>
-      </c>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
+        <v>5205</v>
+      </c>
+      <c r="F219" s="2">
+        <v>8277</v>
+      </c>
+      <c r="G219" s="2">
+        <v>51</v>
+      </c>
       <c r="H219" s="2">
-        <v>10617</v>
+        <v>19477</v>
       </c>
       <c r="I219" s="2"/>
       <c r="J219" s="2">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K219" s="2">
-        <v>147600000</v>
+        <v>69583</v>
       </c>
       <c r="L219" s="2">
-        <v>1728</v>
+        <v>322</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -11314,41 +11311,37 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B220" s="2">
-        <v>45474165</v>
+        <v>134503682</v>
       </c>
       <c r="C220" s="2">
-        <v>2027038</v>
+        <v>2050531</v>
       </c>
       <c r="D220" s="2">
-        <v>79665</v>
+        <v>44808</v>
       </c>
       <c r="E220" s="2">
-        <v>5205</v>
-      </c>
-      <c r="F220" s="2">
-        <v>8277</v>
-      </c>
-      <c r="G220" s="2">
-        <v>51</v>
-      </c>
+        <v>28580</v>
+      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
       <c r="H220" s="2">
-        <v>19477</v>
+        <v>10617</v>
       </c>
       <c r="I220" s="2"/>
       <c r="J220" s="2">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="K220" s="2">
-        <v>69583</v>
+        <v>147600000</v>
       </c>
       <c r="L220" s="2">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="M220" s="2" t="s">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -11646,7 +11639,7 @@
         <v>45473530</v>
       </c>
       <c r="C228" s="2">
-        <v>891470</v>
+        <v>941849</v>
       </c>
       <c r="D228" s="2">
         <v>1764</v>
@@ -11671,10 +11664,10 @@
         <v>0</v>
       </c>
       <c r="L228" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
@@ -11956,7 +11949,7 @@
         <v>34</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -11967,32 +11960,38 @@
         <v>267</v>
       </c>
       <c r="B236" s="2">
-        <v>164638687</v>
+        <v>100192170</v>
       </c>
       <c r="C236" s="2">
-        <v>409357</v>
-      </c>
-      <c r="D236" s="2"/>
+        <v>423698</v>
+      </c>
+      <c r="D236" s="2">
+        <v>4410</v>
+      </c>
       <c r="E236" s="2">
-        <v>0</v>
-      </c>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
+        <v>20316</v>
+      </c>
+      <c r="F236" s="2">
+        <v>2572</v>
+      </c>
+      <c r="G236" s="2">
+        <v>562</v>
+      </c>
       <c r="H236" s="2">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="I236" s="2"/>
       <c r="J236" s="2">
         <v>0</v>
       </c>
       <c r="K236" s="2">
-        <v>0</v>
+        <v>4345081</v>
       </c>
       <c r="L236" s="2">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
@@ -12003,10 +12002,10 @@
         <v>268</v>
       </c>
       <c r="B237" s="2">
-        <v>197982730</v>
+        <v>164638687</v>
       </c>
       <c r="C237" s="2">
-        <v>399706</v>
+        <v>409357</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2">
@@ -12025,10 +12024,10 @@
         <v>0</v>
       </c>
       <c r="L237" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
@@ -12039,38 +12038,32 @@
         <v>269</v>
       </c>
       <c r="B238" s="2">
-        <v>100192170</v>
+        <v>197982730</v>
       </c>
       <c r="C238" s="2">
-        <v>397910</v>
-      </c>
-      <c r="D238" s="2">
-        <v>4410</v>
-      </c>
+        <v>399706</v>
+      </c>
+      <c r="D238" s="2"/>
       <c r="E238" s="2">
-        <v>20316</v>
-      </c>
-      <c r="F238" s="2">
-        <v>2572</v>
-      </c>
-      <c r="G238" s="2">
-        <v>562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
       <c r="H238" s="2">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="I238" s="2"/>
       <c r="J238" s="2">
         <v>0</v>
       </c>
       <c r="K238" s="2">
-        <v>4345081</v>
+        <v>0</v>
       </c>
       <c r="L238" s="2">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>

--- a/kvk_after_metrics.xlsx
+++ b/kvk_after_metrics.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{916286C7-AC86-47F8-AF7A-E8063D731D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CE7F719-0C79-47B9-8DE3-BA91B68CC9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1C62CA9B-2C36-4068-8C8A-AFEEE438DBBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9B3A077C-18AE-427F-8763-5D1E5D5CA1E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-28" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-06-29" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="274">
   <si>
     <t>Governor Name</t>
   </si>
@@ -104,10 +104,6 @@
     <t>ᴾnoidᶜᵒʷ</t>
   </si>
   <si>
-    <t xml:space="preserve">(WINs]WINs-UNITED WE WIN
-</t>
-  </si>
-  <si>
     <t>ManhAnMy88</t>
   </si>
   <si>
@@ -127,24 +123,24 @@
   </si>
   <si>
     <t>十 ALUCARD 十</t>
-  </si>
-  <si>
-    <t>火Akaza乂</t>
-  </si>
-  <si>
-    <t>Ove HK</t>
-  </si>
-  <si>
-    <t>FreeByrd</t>
-  </si>
-  <si>
-    <t>乂TENNO乂</t>
   </si>
   <si>
     <t xml:space="preserve">[IL62]Ironclad Legion
 </t>
   </si>
   <si>
+    <t>火Akaza乂</t>
+  </si>
+  <si>
+    <t>Ove HK</t>
+  </si>
+  <si>
+    <t>FreeByrd</t>
+  </si>
+  <si>
+    <t>乂TENNO乂</t>
+  </si>
+  <si>
     <t>ᶜᵏKJM81</t>
   </si>
   <si>
@@ -242,6 +238,10 @@
     <t>Wileos</t>
   </si>
   <si>
+    <t xml:space="preserve">[GDC]los dragones negross
+</t>
+  </si>
+  <si>
     <t>ElKapponi</t>
   </si>
   <si>
@@ -273,49 +273,53 @@
     <t>Lord BRAZAL</t>
   </si>
   <si>
+    <t xml:space="preserve">[3441] BRAHMA
+</t>
+  </si>
+  <si>
+    <t>Wōđinaz ІІ</t>
+  </si>
+  <si>
+    <t>火Akaza乂gold</t>
+  </si>
+  <si>
+    <t>Duboish2</t>
+  </si>
+  <si>
+    <t>TsuFarm7</t>
+  </si>
+  <si>
+    <t>DreamzZy</t>
+  </si>
+  <si>
+    <t>ALSHEEHI BANK</t>
+  </si>
+  <si>
+    <t>Raz0rSh4rp</t>
+  </si>
+  <si>
+    <t>Money4joker2</t>
+  </si>
+  <si>
+    <t>Atlas mini2</t>
+  </si>
+  <si>
+    <t>ᴸᴺKJM81</t>
+  </si>
+  <si>
+    <t>Ove HK 2</t>
+  </si>
+  <si>
+    <t>TsuMini</t>
+  </si>
+  <si>
+    <t>aliLEBANON</t>
+  </si>
+  <si>
     <t xml:space="preserve">[3441]BRAHMA
 </t>
   </si>
   <si>
-    <t>Wōđinaz ІІ</t>
-  </si>
-  <si>
-    <t>火Akaza乂gold</t>
-  </si>
-  <si>
-    <t>Duboish2</t>
-  </si>
-  <si>
-    <t>TsuFarm7</t>
-  </si>
-  <si>
-    <t>DreamzZy</t>
-  </si>
-  <si>
-    <t>ALSHEEHI BANK</t>
-  </si>
-  <si>
-    <t>Raz0rSh4rp</t>
-  </si>
-  <si>
-    <t>Money4joker2</t>
-  </si>
-  <si>
-    <t>Atlas mini2</t>
-  </si>
-  <si>
-    <t>ᴸᴺKJM81</t>
-  </si>
-  <si>
-    <t>Ove HK 2</t>
-  </si>
-  <si>
-    <t>TsuMini</t>
-  </si>
-  <si>
-    <t>aliLEBANON</t>
-  </si>
-  <si>
     <t>TsuFarm8</t>
   </si>
   <si>
@@ -500,10 +504,6 @@
     <t>xxxsw22</t>
   </si>
   <si>
-    <t xml:space="preserve">[GDC]los dragones negross
-</t>
-  </si>
-  <si>
     <t>Viserys消除2</t>
   </si>
   <si>
@@ -817,9 +817,6 @@
     <t>执政官56840460</t>
   </si>
   <si>
-    <t>Kyeol 乂 39</t>
-  </si>
-  <si>
     <t>Gobernador45452488</t>
   </si>
   <si>
@@ -833,9 +830,6 @@
   </si>
   <si>
     <t>Gobernador197982730</t>
-  </si>
-  <si>
-    <t>ghostbr30</t>
   </si>
   <si>
     <t>Gobernador44553286</t>
@@ -1249,19 +1243,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6EDB07-3F1E-4BA5-B18F-3A2600F8D263}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CF283A-2DEE-4515-B8D6-D98567A5AFD6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1349,7 +1344,7 @@
         <v>3351638617</v>
       </c>
       <c r="L2" s="2">
-        <v>89525</v>
+        <v>89526</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>17</v>
@@ -1422,16 +1417,16 @@
         <v>38708637</v>
       </c>
       <c r="C4" s="2">
-        <v>88279759</v>
+        <v>91308195</v>
       </c>
       <c r="D4" s="2">
-        <v>7618305199</v>
+        <v>7669775576</v>
       </c>
       <c r="E4" s="2">
-        <v>25105069</v>
+        <v>25383661</v>
       </c>
       <c r="F4" s="2">
-        <v>93477329</v>
+        <v>93477762</v>
       </c>
       <c r="G4" s="2">
         <v>2134970</v>
@@ -1440,16 +1435,16 @@
         <v>1879536</v>
       </c>
       <c r="I4" s="2">
-        <v>156589997</v>
+        <v>157368224</v>
       </c>
       <c r="J4" s="2">
-        <v>301096084</v>
+        <v>303280485</v>
       </c>
       <c r="K4" s="2">
         <v>13909675341</v>
       </c>
       <c r="L4" s="2">
-        <v>127726</v>
+        <v>127767</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>17</v>
@@ -1472,7 +1467,7 @@
         <v>2036382</v>
       </c>
       <c r="C5" s="2">
-        <v>87077079</v>
+        <v>87037849</v>
       </c>
       <c r="D5" s="2">
         <v>10483398946</v>
@@ -1499,7 +1494,7 @@
         <v>27051348859</v>
       </c>
       <c r="L5" s="2">
-        <v>188184</v>
+        <v>188193</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>17</v>
@@ -1566,34 +1561,34 @@
         <v>70446861</v>
       </c>
       <c r="C7" s="2">
-        <v>84211966</v>
+        <v>78811920</v>
       </c>
       <c r="D7" s="2">
-        <v>2024937185</v>
+        <v>2047665450</v>
       </c>
       <c r="E7" s="2">
-        <v>20534866</v>
+        <v>20840291</v>
       </c>
       <c r="F7" s="2">
-        <v>94126019</v>
+        <v>94136612</v>
       </c>
       <c r="G7" s="2">
-        <v>492306</v>
+        <v>493344</v>
       </c>
       <c r="H7" s="2">
         <v>649020</v>
       </c>
       <c r="I7" s="2">
-        <v>56238481</v>
+        <v>56702088</v>
       </c>
       <c r="J7" s="2">
-        <v>72007324</v>
+        <v>72911724</v>
       </c>
       <c r="K7" s="2">
         <v>7881462478</v>
       </c>
       <c r="L7" s="2">
-        <v>129006</v>
+        <v>129050</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>17</v>
@@ -1616,34 +1611,34 @@
         <v>63832228</v>
       </c>
       <c r="C8" s="2">
-        <v>83016146</v>
+        <v>83248446</v>
       </c>
       <c r="D8" s="2">
-        <v>8913331757</v>
+        <v>8982268905</v>
       </c>
       <c r="E8" s="2">
-        <v>31093578</v>
+        <v>31208694</v>
       </c>
       <c r="F8" s="2">
-        <v>10741356</v>
+        <v>10761028</v>
       </c>
       <c r="G8" s="2">
-        <v>10043419</v>
+        <v>10043926</v>
       </c>
       <c r="H8" s="2">
         <v>5108657</v>
       </c>
       <c r="I8" s="2">
-        <v>176434722</v>
+        <v>176856840</v>
       </c>
       <c r="J8" s="2">
-        <v>355315740</v>
+        <v>358551291</v>
       </c>
       <c r="K8" s="2">
         <v>21697064921</v>
       </c>
       <c r="L8" s="2">
-        <v>950239</v>
+        <v>350309</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>17</v>
@@ -1666,34 +1661,34 @@
         <v>57823214</v>
       </c>
       <c r="C9" s="2">
-        <v>82544563</v>
+        <v>81377395</v>
       </c>
       <c r="D9" s="2">
-        <v>8384918736</v>
+        <v>8463069748</v>
       </c>
       <c r="E9" s="2">
-        <v>28834802</v>
+        <v>28970147</v>
       </c>
       <c r="F9" s="2">
-        <v>20032572</v>
+        <v>20075140</v>
       </c>
       <c r="G9" s="2">
-        <v>4105522</v>
+        <v>4105611</v>
       </c>
       <c r="H9" s="2">
         <v>3813912</v>
       </c>
       <c r="I9" s="2">
-        <v>199284757</v>
+        <v>200416105</v>
       </c>
       <c r="J9" s="2">
-        <v>318229898</v>
+        <v>321571340</v>
       </c>
       <c r="K9" s="2">
         <v>14220389111</v>
       </c>
       <c r="L9" s="2">
-        <v>306734</v>
+        <v>306817</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>17</v>
@@ -1716,16 +1711,16 @@
         <v>49041000</v>
       </c>
       <c r="C10" s="2">
-        <v>81772442</v>
+        <v>81480672</v>
       </c>
       <c r="D10" s="2">
-        <v>4106331548</v>
+        <v>4109536316</v>
       </c>
       <c r="E10" s="2">
-        <v>21592614</v>
+        <v>21747971</v>
       </c>
       <c r="F10" s="2">
-        <v>63790454</v>
+        <v>63791540</v>
       </c>
       <c r="G10" s="2">
         <v>1910410</v>
@@ -1734,16 +1729,16 @@
         <v>2334652</v>
       </c>
       <c r="I10" s="2">
-        <v>112544975</v>
+        <v>112705814</v>
       </c>
       <c r="J10" s="2">
-        <v>147748214</v>
+        <v>147828022</v>
       </c>
       <c r="K10" s="2">
         <v>40867505926</v>
       </c>
       <c r="L10" s="2">
-        <v>75604</v>
+        <v>75605</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>17</v>
@@ -1766,10 +1761,10 @@
         <v>93584462</v>
       </c>
       <c r="C11" s="2">
-        <v>81673824</v>
+        <v>79512354</v>
       </c>
       <c r="D11" s="2">
-        <v>5576881656</v>
+        <v>5579428486</v>
       </c>
       <c r="E11" s="2">
         <v>26643514</v>
@@ -1784,19 +1779,19 @@
         <v>4319884</v>
       </c>
       <c r="I11" s="2">
-        <v>122299038</v>
+        <v>122301825</v>
       </c>
       <c r="J11" s="2">
-        <v>216319763</v>
+        <v>216445711</v>
       </c>
       <c r="K11" s="2">
         <v>21512409630</v>
       </c>
       <c r="L11" s="2">
-        <v>139303</v>
+        <v>139310</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N11" s="2">
         <v>76454903</v>
@@ -1810,7 +1805,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>46268923</v>
@@ -1843,7 +1838,7 @@
         <v>87484800822</v>
       </c>
       <c r="L12" s="2">
-        <v>81964</v>
+        <v>81969</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>17</v>
@@ -1854,16 +1849,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>142978261</v>
       </c>
       <c r="C13" s="2">
-        <v>80684247</v>
+        <v>80719807</v>
       </c>
       <c r="D13" s="2">
-        <v>955138254</v>
+        <v>956732994</v>
       </c>
       <c r="E13" s="2">
         <v>5767900</v>
@@ -1878,16 +1873,16 @@
         <v>1011185</v>
       </c>
       <c r="I13" s="2">
-        <v>25363324</v>
+        <v>25374280</v>
       </c>
       <c r="J13" s="2">
-        <v>33695066</v>
+        <v>33769325</v>
       </c>
       <c r="K13" s="2">
         <v>9890545066</v>
       </c>
       <c r="L13" s="2">
-        <v>72816</v>
+        <v>72835</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>17</v>
@@ -1904,40 +1899,40 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>38767756</v>
       </c>
       <c r="C14" s="2">
-        <v>78346509</v>
+        <v>81089313</v>
       </c>
       <c r="D14" s="2">
-        <v>1958017931</v>
+        <v>1976080127</v>
       </c>
       <c r="E14" s="2">
-        <v>21299469</v>
+        <v>21416488</v>
       </c>
       <c r="F14" s="2">
-        <v>4222828</v>
+        <v>4228226</v>
       </c>
       <c r="G14" s="2">
-        <v>2127758</v>
+        <v>2127916</v>
       </c>
       <c r="H14" s="2">
         <v>1729580</v>
       </c>
       <c r="I14" s="2">
-        <v>58026053</v>
+        <v>58305285</v>
       </c>
       <c r="J14" s="2">
-        <v>68286950</v>
+        <v>69050374</v>
       </c>
       <c r="K14" s="2">
         <v>6790271507</v>
       </c>
       <c r="L14" s="2">
-        <v>82437</v>
+        <v>82444</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>17</v>
@@ -1954,13 +1949,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
         <v>89003413</v>
       </c>
       <c r="C15" s="2">
-        <v>78094661</v>
+        <v>78123221</v>
       </c>
       <c r="D15" s="2">
         <v>4577854828</v>
@@ -1987,7 +1982,7 @@
         <v>271875392735</v>
       </c>
       <c r="L15" s="2">
-        <v>126032</v>
+        <v>126036</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>17</v>
@@ -2004,7 +1999,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
         <v>9393436</v>
@@ -2054,19 +2049,19 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>136635217</v>
       </c>
       <c r="C17" s="2">
-        <v>77421342</v>
+        <v>74877156</v>
       </c>
       <c r="D17" s="2">
-        <v>2199035926</v>
+        <v>2240364256</v>
       </c>
       <c r="E17" s="2">
-        <v>14728618</v>
+        <v>14788483</v>
       </c>
       <c r="F17" s="2">
         <v>15948900</v>
@@ -2078,16 +2073,16 @@
         <v>2058410</v>
       </c>
       <c r="I17" s="2">
-        <v>78792647</v>
+        <v>78927106</v>
       </c>
       <c r="J17" s="2">
-        <v>69806213</v>
+        <v>71805400</v>
       </c>
       <c r="K17" s="2">
         <v>11495215342</v>
       </c>
       <c r="L17" s="2">
-        <v>54954</v>
+        <v>54963</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>17</v>
@@ -2104,22 +2099,22 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
         <v>111154401</v>
       </c>
       <c r="C18" s="2">
-        <v>77159290</v>
+        <v>76304556</v>
       </c>
       <c r="D18" s="2">
-        <v>1983707854</v>
+        <v>1986736729</v>
       </c>
       <c r="E18" s="2">
-        <v>13244985</v>
+        <v>13327905</v>
       </c>
       <c r="F18" s="2">
-        <v>75267524</v>
+        <v>75267846</v>
       </c>
       <c r="G18" s="2">
         <v>2970786</v>
@@ -2128,19 +2123,19 @@
         <v>2927172</v>
       </c>
       <c r="I18" s="2">
-        <v>43530067</v>
+        <v>43567496</v>
       </c>
       <c r="J18" s="2">
-        <v>75785171</v>
+        <v>75917897</v>
       </c>
       <c r="K18" s="2">
         <v>9793498330</v>
       </c>
       <c r="L18" s="2">
-        <v>103130</v>
+        <v>103164</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N18" s="2">
         <v>30617796</v>
@@ -2160,34 +2155,34 @@
         <v>59146982</v>
       </c>
       <c r="C19" s="2">
-        <v>77042367</v>
+        <v>72181245</v>
       </c>
       <c r="D19" s="2">
-        <v>3005649336</v>
+        <v>3066541424</v>
       </c>
       <c r="E19" s="2">
-        <v>27068662</v>
+        <v>27665130</v>
       </c>
       <c r="F19" s="2">
-        <v>2157323</v>
+        <v>2194361</v>
       </c>
       <c r="G19" s="2">
-        <v>2166667</v>
+        <v>2209940</v>
       </c>
       <c r="H19" s="2">
-        <v>1105802</v>
+        <v>1115618</v>
       </c>
       <c r="I19" s="2">
-        <v>83636621</v>
+        <v>84678518</v>
       </c>
       <c r="J19" s="2">
-        <v>108004756</v>
+        <v>110521751</v>
       </c>
       <c r="K19" s="2">
         <v>6189271378</v>
       </c>
       <c r="L19" s="2">
-        <v>164841</v>
+        <v>164925</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>17</v>
@@ -2260,34 +2255,34 @@
         <v>28063072</v>
       </c>
       <c r="C21" s="2">
-        <v>74856519</v>
+        <v>73636213</v>
       </c>
       <c r="D21" s="2">
-        <v>7742215452</v>
+        <v>7752129888</v>
       </c>
       <c r="E21" s="2">
-        <v>23578130</v>
+        <v>23674401</v>
       </c>
       <c r="F21" s="2">
-        <v>13179633</v>
+        <v>13193054</v>
       </c>
       <c r="G21" s="2">
-        <v>3615745</v>
+        <v>3616261</v>
       </c>
       <c r="H21" s="2">
         <v>5346644</v>
       </c>
       <c r="I21" s="2">
-        <v>239884270</v>
+        <v>239964820</v>
       </c>
       <c r="J21" s="2">
-        <v>265605938</v>
+        <v>266061199</v>
       </c>
       <c r="K21" s="2">
         <v>34370586864</v>
       </c>
       <c r="L21" s="2">
-        <v>179770</v>
+        <v>179777</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>17</v>
@@ -2310,10 +2305,10 @@
         <v>59061395</v>
       </c>
       <c r="C22" s="2">
-        <v>74031281</v>
+        <v>73490307</v>
       </c>
       <c r="D22" s="2">
-        <v>2690043388</v>
+        <v>2691525428</v>
       </c>
       <c r="E22" s="2">
         <v>32692018</v>
@@ -2328,19 +2323,19 @@
         <v>3632912</v>
       </c>
       <c r="I22" s="2">
-        <v>101473628</v>
+        <v>101474064</v>
       </c>
       <c r="J22" s="2">
-        <v>82312784</v>
+        <v>82386668</v>
       </c>
       <c r="K22" s="2">
         <v>5649861440</v>
       </c>
       <c r="L22" s="2">
-        <v>342076</v>
+        <v>3242085</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N22" s="2">
         <v>30641042</v>
@@ -2354,22 +2349,22 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2">
         <v>64570107</v>
       </c>
       <c r="C23" s="2">
-        <v>73854856</v>
+        <v>73471316</v>
       </c>
       <c r="D23" s="2">
-        <v>1877424901</v>
+        <v>1893624531</v>
       </c>
       <c r="E23" s="2">
-        <v>17779829</v>
+        <v>17876297</v>
       </c>
       <c r="F23" s="2">
-        <v>5422859</v>
+        <v>5423755</v>
       </c>
       <c r="G23" s="2">
         <v>1125493</v>
@@ -2378,16 +2373,16 @@
         <v>2399176</v>
       </c>
       <c r="I23" s="2">
-        <v>47691056</v>
+        <v>47773461</v>
       </c>
       <c r="J23" s="2">
-        <v>69379104</v>
+        <v>70147874</v>
       </c>
       <c r="K23" s="2">
         <v>822779549</v>
       </c>
       <c r="L23" s="2">
-        <v>67776</v>
+        <v>67784</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>17</v>
@@ -2404,7 +2399,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2">
         <v>134146479</v>
@@ -2454,19 +2449,19 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2">
         <v>74815491</v>
       </c>
       <c r="C25" s="2">
-        <v>72359937</v>
+        <v>74282007</v>
       </c>
       <c r="D25" s="2">
-        <v>1654355364</v>
+        <v>1658814264</v>
       </c>
       <c r="E25" s="2">
-        <v>22268091</v>
+        <v>22274126</v>
       </c>
       <c r="F25" s="2">
         <v>26318594</v>
@@ -2478,16 +2473,16 @@
         <v>747521</v>
       </c>
       <c r="I25" s="2">
-        <v>50792701</v>
+        <v>50837503</v>
       </c>
       <c r="J25" s="2">
-        <v>56819657</v>
+        <v>57020201</v>
       </c>
       <c r="K25" s="2">
         <v>1101235351</v>
       </c>
       <c r="L25" s="2">
-        <v>35186</v>
+        <v>35192</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>17</v>
@@ -2504,19 +2499,19 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2">
         <v>58744662</v>
       </c>
       <c r="C26" s="2">
-        <v>72125653</v>
+        <v>71515871</v>
       </c>
       <c r="D26" s="2">
-        <v>3954724817</v>
+        <v>3988864287</v>
       </c>
       <c r="E26" s="2">
-        <v>19560635</v>
+        <v>19642131</v>
       </c>
       <c r="F26" s="2">
         <v>1361407</v>
@@ -2528,19 +2523,19 @@
         <v>339076</v>
       </c>
       <c r="I26" s="2">
-        <v>53171978</v>
+        <v>53674009</v>
       </c>
       <c r="J26" s="2">
-        <v>170931779</v>
+        <v>172387737</v>
       </c>
       <c r="K26" s="2">
         <v>7062689203</v>
       </c>
       <c r="L26" s="2">
-        <v>110751</v>
+        <v>110874</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N26" s="2">
         <v>32158439</v>
@@ -2554,13 +2549,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
         <v>74359287</v>
       </c>
       <c r="C27" s="2">
-        <v>755122494</v>
+        <v>755124420</v>
       </c>
       <c r="D27" s="2">
         <v>1812189627</v>
@@ -2587,7 +2582,7 @@
         <v>14894886314</v>
       </c>
       <c r="L27" s="2">
-        <v>103366</v>
+        <v>103373</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>17</v>
@@ -2598,7 +2593,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
         <v>116198736</v>
@@ -2648,7 +2643,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2">
         <v>38161087</v>
@@ -2698,7 +2693,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2">
         <v>49499709</v>
@@ -2748,16 +2743,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2">
         <v>76274504</v>
       </c>
       <c r="C31" s="2">
-        <v>70374685</v>
+        <v>69331135</v>
       </c>
       <c r="D31" s="2">
-        <v>974469973</v>
+        <v>974995903</v>
       </c>
       <c r="E31" s="2">
         <v>22363209</v>
@@ -2772,16 +2767,16 @@
         <v>210559</v>
       </c>
       <c r="I31" s="2">
-        <v>23340341</v>
+        <v>23344012</v>
       </c>
       <c r="J31" s="2">
-        <v>36705995</v>
+        <v>36730456</v>
       </c>
       <c r="K31" s="2">
         <v>8754952590</v>
       </c>
       <c r="L31" s="2">
-        <v>30130</v>
+        <v>30133</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>17</v>
@@ -2798,19 +2793,19 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2">
         <v>18103697</v>
       </c>
       <c r="C32" s="2">
-        <v>70108022</v>
+        <v>70106956</v>
       </c>
       <c r="D32" s="2">
-        <v>882627689</v>
+        <v>883628369</v>
       </c>
       <c r="E32" s="2">
-        <v>20722520</v>
+        <v>20724237</v>
       </c>
       <c r="F32" s="2">
         <v>451467</v>
@@ -2825,13 +2820,13 @@
         <v>19345076</v>
       </c>
       <c r="J32" s="2">
-        <v>34408428</v>
+        <v>34458462</v>
       </c>
       <c r="K32" s="2">
         <v>3008483403</v>
       </c>
       <c r="L32" s="2">
-        <v>79796</v>
+        <v>79799</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>17</v>
@@ -2842,22 +2837,22 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2">
         <v>113277991</v>
       </c>
       <c r="C33" s="2">
-        <v>69665415</v>
+        <v>70728485</v>
       </c>
       <c r="D33" s="2">
-        <v>3652956969</v>
+        <v>3656305355</v>
       </c>
       <c r="E33" s="2">
-        <v>20954612</v>
+        <v>20957530</v>
       </c>
       <c r="F33" s="2">
-        <v>54507608</v>
+        <v>54507685</v>
       </c>
       <c r="G33" s="2">
         <v>8759007</v>
@@ -2866,16 +2861,16 @@
         <v>13262701</v>
       </c>
       <c r="I33" s="2">
-        <v>142150885</v>
+        <v>142195150</v>
       </c>
       <c r="J33" s="2">
-        <v>107498889</v>
+        <v>107644175</v>
       </c>
       <c r="K33" s="2">
         <v>27315644105</v>
       </c>
       <c r="L33" s="2">
-        <v>65660</v>
+        <v>65671</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>17</v>
@@ -2892,40 +2887,40 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2">
         <v>48975732</v>
       </c>
       <c r="C34" s="2">
-        <v>69368268</v>
+        <v>69108680</v>
       </c>
       <c r="D34" s="2">
-        <v>3858203415</v>
+        <v>3869704110</v>
       </c>
       <c r="E34" s="2">
-        <v>22272219</v>
+        <v>22294325</v>
       </c>
       <c r="F34" s="2">
-        <v>64966419</v>
+        <v>64975541</v>
       </c>
       <c r="G34" s="2">
-        <v>2903440</v>
+        <v>2906289</v>
       </c>
       <c r="H34" s="2">
-        <v>4763513</v>
+        <v>4764701</v>
       </c>
       <c r="I34" s="2">
-        <v>114985040</v>
+        <v>115217048</v>
       </c>
       <c r="J34" s="2">
-        <v>133524940</v>
+        <v>133983357</v>
       </c>
       <c r="K34" s="2">
         <v>2489405077</v>
       </c>
       <c r="L34" s="2">
-        <v>88225</v>
+        <v>88359</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>17</v>
@@ -2942,40 +2937,40 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2">
         <v>58349304</v>
       </c>
       <c r="C35" s="2">
-        <v>66720554</v>
+        <v>67624358</v>
       </c>
       <c r="D35" s="2">
-        <v>6003549258</v>
+        <v>6024874113</v>
       </c>
       <c r="E35" s="2">
-        <v>29545144</v>
+        <v>29586768</v>
       </c>
       <c r="F35" s="2">
-        <v>65266743</v>
+        <v>65272649</v>
       </c>
       <c r="G35" s="2">
-        <v>7383066</v>
+        <v>7383283</v>
       </c>
       <c r="H35" s="2">
         <v>11620182</v>
       </c>
       <c r="I35" s="2">
-        <v>211736825</v>
+        <v>211867313</v>
       </c>
       <c r="J35" s="2">
-        <v>190594040</v>
+        <v>191594958</v>
       </c>
       <c r="K35" s="2">
         <v>49818117419</v>
       </c>
       <c r="L35" s="2">
-        <v>122665</v>
+        <v>122691</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>17</v>
@@ -2986,40 +2981,40 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2">
         <v>16365096</v>
       </c>
       <c r="C36" s="2">
-        <v>66643474</v>
+        <v>65882614</v>
       </c>
       <c r="D36" s="2">
-        <v>1635810092</v>
+        <v>1647670787</v>
       </c>
       <c r="E36" s="2">
-        <v>16764289</v>
+        <v>16838997</v>
       </c>
       <c r="F36" s="2">
-        <v>13534663</v>
+        <v>13539256</v>
       </c>
       <c r="G36" s="2">
-        <v>2577159</v>
+        <v>2577607</v>
       </c>
       <c r="H36" s="2">
         <v>1188728</v>
       </c>
       <c r="I36" s="2">
-        <v>52115061</v>
+        <v>52224257</v>
       </c>
       <c r="J36" s="2">
-        <v>55102166</v>
+        <v>55640512</v>
       </c>
       <c r="K36" s="2">
         <v>8720657761</v>
       </c>
       <c r="L36" s="2">
-        <v>186937</v>
+        <v>186975</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>17</v>
@@ -3030,7 +3025,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2">
         <v>46393719</v>
@@ -3066,7 +3061,7 @@
         <v>37603</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3074,40 +3069,40 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2">
         <v>123185482</v>
       </c>
       <c r="C38" s="2">
-        <v>65611128</v>
+        <v>65255177</v>
       </c>
       <c r="D38" s="2">
-        <v>1210342421</v>
+        <v>1217623593</v>
       </c>
       <c r="E38" s="2">
-        <v>16155338</v>
+        <v>16332542</v>
       </c>
       <c r="F38" s="2">
-        <v>62324098</v>
+        <v>62329088</v>
       </c>
       <c r="G38" s="2">
         <v>9616364</v>
       </c>
       <c r="H38" s="2">
-        <v>21172006</v>
+        <v>21172007</v>
       </c>
       <c r="I38" s="2">
-        <v>56452555</v>
+        <v>56563554</v>
       </c>
       <c r="J38" s="2">
-        <v>26471565</v>
+        <v>26780074</v>
       </c>
       <c r="K38" s="2">
         <v>6901378937</v>
       </c>
       <c r="L38" s="2">
-        <v>92353</v>
+        <v>92460</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>17</v>
@@ -3124,16 +3119,16 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2">
         <v>49407662</v>
       </c>
       <c r="C39" s="2">
-        <v>63611752</v>
+        <v>63484383</v>
       </c>
       <c r="D39" s="2">
-        <v>2404165994</v>
+        <v>2405208364</v>
       </c>
       <c r="E39" s="2">
         <v>19773418</v>
@@ -3148,16 +3143,16 @@
         <v>2876751</v>
       </c>
       <c r="I39" s="2">
-        <v>70230565</v>
+        <v>70232478</v>
       </c>
       <c r="J39" s="2">
-        <v>83867058</v>
+        <v>83918220</v>
       </c>
       <c r="K39" s="2">
         <v>3846178662</v>
       </c>
       <c r="L39" s="2">
-        <v>104083</v>
+        <v>104099</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>17</v>
@@ -3168,40 +3163,40 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
         <v>3732705</v>
       </c>
       <c r="C40" s="2">
-        <v>62065834</v>
+        <v>62031242</v>
       </c>
       <c r="D40" s="2">
-        <v>1195908179</v>
+        <v>1203032875</v>
       </c>
       <c r="E40" s="2">
-        <v>15863142</v>
+        <v>15891547</v>
       </c>
       <c r="F40" s="2">
-        <v>15226395</v>
+        <v>15231688</v>
       </c>
       <c r="G40" s="2">
         <v>256513</v>
       </c>
       <c r="H40" s="2">
-        <v>1036231</v>
+        <v>1036243</v>
       </c>
       <c r="I40" s="2">
-        <v>25313119</v>
+        <v>25357302</v>
       </c>
       <c r="J40" s="2">
-        <v>46753688</v>
+        <v>47087776</v>
       </c>
       <c r="K40" s="2">
         <v>10896842826</v>
       </c>
       <c r="L40" s="2">
-        <v>69607</v>
+        <v>69646</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>17</v>
@@ -3218,19 +3213,19 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2">
         <v>9660755</v>
       </c>
       <c r="C41" s="2">
-        <v>62145543</v>
+        <v>62598433</v>
       </c>
       <c r="D41" s="2">
-        <v>1356479333</v>
+        <v>1357649533</v>
       </c>
       <c r="E41" s="2">
-        <v>23640413</v>
+        <v>23663079</v>
       </c>
       <c r="F41" s="2">
         <v>2869807</v>
@@ -3242,16 +3237,16 @@
         <v>343497</v>
       </c>
       <c r="I41" s="2">
-        <v>36308622</v>
+        <v>36342126</v>
       </c>
       <c r="J41" s="2">
-        <v>49481988</v>
+        <v>49523746</v>
       </c>
       <c r="K41" s="2">
-        <v>25506725027</v>
+        <v>25736725027</v>
       </c>
       <c r="L41" s="2">
-        <v>128689</v>
+        <v>128706</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>17</v>
@@ -3268,7 +3263,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2">
         <v>38173573</v>
@@ -3316,7 +3311,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2">
         <v>146589818</v>
@@ -3364,7 +3359,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2">
         <v>82291199</v>
@@ -3412,7 +3407,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2">
         <v>45454322</v>
@@ -3454,7 +3449,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2">
         <v>43736244</v>
@@ -3496,7 +3491,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2">
         <v>41355236</v>
@@ -3544,13 +3539,13 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2">
         <v>116006542</v>
       </c>
       <c r="C48" s="2">
-        <v>52463805</v>
+        <v>55566129</v>
       </c>
       <c r="D48" s="2">
         <v>234005385</v>
@@ -3577,7 +3572,7 @@
         <v>119685088</v>
       </c>
       <c r="L48" s="2">
-        <v>34325</v>
+        <v>34332</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>17</v>
@@ -3594,19 +3589,19 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2">
         <v>64773635</v>
       </c>
       <c r="C49" s="2">
-        <v>51050200</v>
+        <v>51976756</v>
       </c>
       <c r="D49" s="2">
-        <v>142763253</v>
+        <v>143011313</v>
       </c>
       <c r="E49" s="2">
-        <v>7892567</v>
+        <v>7917810</v>
       </c>
       <c r="F49" s="2">
         <v>232809</v>
@@ -3618,16 +3613,16 @@
         <v>336045</v>
       </c>
       <c r="I49" s="2">
-        <v>4222943</v>
+        <v>4231367</v>
       </c>
       <c r="J49" s="2">
-        <v>4955896</v>
+        <v>4964087</v>
       </c>
       <c r="K49" s="2">
         <v>46838887766</v>
       </c>
       <c r="L49" s="2">
-        <v>13165</v>
+        <v>131638</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>17</v>
@@ -3644,7 +3639,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2">
         <v>67719250</v>
@@ -3694,22 +3689,22 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2">
         <v>71753312</v>
       </c>
       <c r="C51" s="2">
-        <v>42979565</v>
+        <v>42093944</v>
       </c>
       <c r="D51" s="2">
-        <v>389589666</v>
+        <v>392873782</v>
       </c>
       <c r="E51" s="2">
-        <v>20223831</v>
+        <v>20446375</v>
       </c>
       <c r="F51" s="2">
-        <v>917394</v>
+        <v>917420</v>
       </c>
       <c r="G51" s="2">
         <v>1545957</v>
@@ -3718,16 +3713,16 @@
         <v>288426</v>
       </c>
       <c r="I51" s="2">
-        <v>10091003</v>
+        <v>10195784</v>
       </c>
       <c r="J51" s="2">
-        <v>14212527</v>
+        <v>14324342</v>
       </c>
       <c r="K51" s="2">
-        <v>35660980642</v>
+        <v>35720980642</v>
       </c>
       <c r="L51" s="2">
-        <v>69560</v>
+        <v>69601</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>17</v>
@@ -3744,19 +3739,19 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2">
         <v>65057849</v>
       </c>
       <c r="C52" s="2">
-        <v>42359638</v>
+        <v>42666502</v>
       </c>
       <c r="D52" s="2">
-        <v>436896951</v>
+        <v>438282301</v>
       </c>
       <c r="E52" s="2">
-        <v>14318541</v>
+        <v>14475317</v>
       </c>
       <c r="F52" s="2">
         <v>3857297</v>
@@ -3768,16 +3763,16 @@
         <v>463504</v>
       </c>
       <c r="I52" s="2">
-        <v>17351650</v>
+        <v>17374101</v>
       </c>
       <c r="J52" s="2">
-        <v>12968157</v>
+        <v>13026199</v>
       </c>
       <c r="K52" s="2">
         <v>20974313782</v>
       </c>
       <c r="L52" s="2">
-        <v>19833</v>
+        <v>19840</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>17</v>
@@ -3794,13 +3789,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2">
         <v>25545564</v>
       </c>
       <c r="C53" s="2">
-        <v>35397803</v>
+        <v>35395982</v>
       </c>
       <c r="D53" s="2">
         <v>121784264</v>
@@ -3827,9 +3822,11 @@
         <v>12833823609</v>
       </c>
       <c r="L53" s="2">
-        <v>12427</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>12422</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="N53" s="2">
         <v>18010</v>
       </c>
@@ -3846,16 +3843,16 @@
         <v>70307141</v>
       </c>
       <c r="C54" s="2">
-        <v>34572701</v>
+        <v>34476329</v>
       </c>
       <c r="D54" s="2">
-        <v>14219197</v>
+        <v>15522401</v>
       </c>
       <c r="E54" s="2">
-        <v>5283739</v>
+        <v>5306402</v>
       </c>
       <c r="F54" s="2">
-        <v>1469</v>
+        <v>1488</v>
       </c>
       <c r="G54" s="2">
         <v>12</v>
@@ -3864,16 +3861,16 @@
         <v>2000</v>
       </c>
       <c r="I54" s="2">
-        <v>552308</v>
+        <v>621476</v>
       </c>
       <c r="J54" s="2">
-        <v>434390</v>
+        <v>464966</v>
       </c>
       <c r="K54" s="2">
-        <v>17103085106</v>
+        <v>17308881048</v>
       </c>
       <c r="L54" s="2">
-        <v>6061</v>
+        <v>6063</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>17</v>
@@ -3988,7 +3985,7 @@
         <v>122312204</v>
       </c>
       <c r="C57" s="2">
-        <v>33439164</v>
+        <v>33453964</v>
       </c>
       <c r="D57" s="2">
         <v>69228294</v>
@@ -4038,10 +4035,10 @@
         <v>116370262</v>
       </c>
       <c r="C58" s="2">
-        <v>33149154</v>
+        <v>33245362</v>
       </c>
       <c r="D58" s="2">
-        <v>184754666</v>
+        <v>184828586</v>
       </c>
       <c r="E58" s="2">
         <v>7754488</v>
@@ -4059,13 +4056,13 @@
         <v>5451005</v>
       </c>
       <c r="J58" s="2">
-        <v>6244908</v>
+        <v>6248604</v>
       </c>
       <c r="K58" s="2">
         <v>1576543254</v>
       </c>
       <c r="L58" s="2">
-        <v>16195</v>
+        <v>16201</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>17</v>
@@ -4122,16 +4119,16 @@
         <v>76028022</v>
       </c>
       <c r="C60" s="2">
-        <v>31973396</v>
+        <v>31012160</v>
       </c>
       <c r="D60" s="2">
-        <v>269581289</v>
+        <v>271725491</v>
       </c>
       <c r="E60" s="2">
-        <v>11936435</v>
+        <v>12109206</v>
       </c>
       <c r="F60" s="2">
-        <v>4385075</v>
+        <v>4385089</v>
       </c>
       <c r="G60" s="2">
         <v>221138</v>
@@ -4140,16 +4137,16 @@
         <v>328347</v>
       </c>
       <c r="I60" s="2">
-        <v>10142417</v>
+        <v>10227505</v>
       </c>
       <c r="J60" s="2">
-        <v>8276222</v>
+        <v>8340888</v>
       </c>
       <c r="K60" s="2">
         <v>18987000975</v>
       </c>
       <c r="L60" s="2">
-        <v>12264</v>
+        <v>12263</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>17</v>
@@ -4172,13 +4169,13 @@
         <v>20349059</v>
       </c>
       <c r="C61" s="2">
-        <v>30804606</v>
+        <v>30508758</v>
       </c>
       <c r="D61" s="2">
-        <v>51636018</v>
+        <v>51776328</v>
       </c>
       <c r="E61" s="2">
-        <v>1707133</v>
+        <v>1744144</v>
       </c>
       <c r="F61" s="2">
         <v>95384</v>
@@ -4190,10 +4187,10 @@
         <v>3563</v>
       </c>
       <c r="I61" s="2">
-        <v>1487038</v>
+        <v>1493087</v>
       </c>
       <c r="J61" s="2">
-        <v>1832327</v>
+        <v>1836318</v>
       </c>
       <c r="K61" s="2">
         <v>16066538128</v>
@@ -4343,7 +4340,7 @@
         <v>36149578740</v>
       </c>
       <c r="L64" s="2">
-        <v>10835</v>
+        <v>10833</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>17</v>
@@ -4366,13 +4363,13 @@
         <v>58481229</v>
       </c>
       <c r="C65" s="2">
-        <v>28881586</v>
+        <v>28783226</v>
       </c>
       <c r="D65" s="2">
-        <v>41409141</v>
+        <v>41726341</v>
       </c>
       <c r="E65" s="2">
-        <v>3894034</v>
+        <v>3916757</v>
       </c>
       <c r="F65" s="2">
         <v>350447</v>
@@ -4387,13 +4384,13 @@
         <v>1010383</v>
       </c>
       <c r="J65" s="2">
-        <v>1542356</v>
+        <v>1558216</v>
       </c>
       <c r="K65" s="2">
         <v>18630425320</v>
       </c>
       <c r="L65" s="2">
-        <v>5777</v>
+        <v>5780</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>17</v>
@@ -4416,7 +4413,7 @@
         <v>30958849</v>
       </c>
       <c r="C66" s="2">
-        <v>28457711</v>
+        <v>28476911</v>
       </c>
       <c r="D66" s="2">
         <v>109792209</v>
@@ -4443,7 +4440,7 @@
         <v>33290298814</v>
       </c>
       <c r="L66" s="2">
-        <v>14403</v>
+        <v>14405</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>17</v>
@@ -4662,13 +4659,13 @@
         <v>122958650</v>
       </c>
       <c r="C71" s="2">
-        <v>27191889</v>
+        <v>27104302</v>
       </c>
       <c r="D71" s="2">
-        <v>43550800</v>
+        <v>43789980</v>
       </c>
       <c r="E71" s="2">
-        <v>5751639</v>
+        <v>5897596</v>
       </c>
       <c r="F71" s="2">
         <v>127280</v>
@@ -4680,16 +4677,16 @@
         <v>15960</v>
       </c>
       <c r="I71" s="2">
-        <v>1167145</v>
+        <v>1177401</v>
       </c>
       <c r="J71" s="2">
-        <v>1576062</v>
+        <v>1582893</v>
       </c>
       <c r="K71" s="2">
         <v>8235404855</v>
       </c>
       <c r="L71" s="2">
-        <v>6704</v>
+        <v>6708</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>17</v>
@@ -4831,7 +4828,7 @@
         <v>32818491383</v>
       </c>
       <c r="L74" s="2">
-        <v>14892</v>
+        <v>14900</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>17</v>
@@ -4884,7 +4881,7 @@
         <v>3735</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="N75" s="2">
         <v>0</v>
@@ -4896,7 +4893,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2">
         <v>29240760</v>
@@ -4929,7 +4926,7 @@
         <v>26584222785</v>
       </c>
       <c r="L76" s="2">
-        <v>13762</v>
+        <v>13763</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>17</v>
@@ -4946,7 +4943,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2">
         <v>105627215</v>
@@ -4979,7 +4976,7 @@
         <v>13256058423</v>
       </c>
       <c r="L77" s="2">
-        <v>12473</v>
+        <v>12476</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>17</v>
@@ -4996,7 +4993,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2">
         <v>130372935</v>
@@ -5042,7 +5039,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2">
         <v>105649485</v>
@@ -5092,7 +5089,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2">
         <v>90969567</v>
@@ -5128,7 +5125,7 @@
         <v>9547</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N80" s="2">
         <v>0</v>
@@ -5140,7 +5137,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2">
         <v>102689344</v>
@@ -5173,7 +5170,7 @@
         <v>22568497910</v>
       </c>
       <c r="L81" s="2">
-        <v>5943</v>
+        <v>5944</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>17</v>
@@ -5190,22 +5187,22 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2">
         <v>138750545</v>
       </c>
       <c r="C82" s="2">
-        <v>24766760</v>
+        <v>24536452</v>
       </c>
       <c r="D82" s="2">
-        <v>36226702</v>
+        <v>38150506</v>
       </c>
       <c r="E82" s="2">
-        <v>1636606</v>
+        <v>1682975</v>
       </c>
       <c r="F82" s="2">
-        <v>430382</v>
+        <v>430400</v>
       </c>
       <c r="G82" s="2">
         <v>180890</v>
@@ -5214,16 +5211,16 @@
         <v>83284</v>
       </c>
       <c r="I82" s="2">
-        <v>968507</v>
+        <v>1046305</v>
       </c>
       <c r="J82" s="2">
-        <v>1288032</v>
+        <v>1345323</v>
       </c>
       <c r="K82" s="2">
         <v>11519594599</v>
       </c>
       <c r="L82" s="2">
-        <v>5695</v>
+        <v>5696</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>17</v>
@@ -5240,13 +5237,13 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2">
         <v>135874891</v>
       </c>
       <c r="C83" s="2">
-        <v>24448782</v>
+        <v>24754238</v>
       </c>
       <c r="D83" s="2">
         <v>33010031</v>
@@ -5273,7 +5270,7 @@
         <v>13574025187</v>
       </c>
       <c r="L83" s="2">
-        <v>31530</v>
+        <v>31531</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>17</v>
@@ -5290,7 +5287,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2">
         <v>102614248</v>
@@ -5340,13 +5337,13 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2">
         <v>145862727</v>
       </c>
       <c r="C85" s="2">
-        <v>24050390</v>
+        <v>25759934</v>
       </c>
       <c r="D85" s="2">
         <v>7250051</v>
@@ -5390,7 +5387,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2">
         <v>7967421</v>
@@ -5438,7 +5435,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2">
         <v>102573628</v>
@@ -5471,7 +5468,7 @@
         <v>19134301110</v>
       </c>
       <c r="L87" s="2">
-        <v>6129</v>
+        <v>6130</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>17</v>
@@ -5488,7 +5485,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2">
         <v>45454082</v>
@@ -5524,7 +5521,7 @@
         <v>5347</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -5532,13 +5529,13 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2">
         <v>45436797</v>
       </c>
       <c r="C89" s="2">
-        <v>23068640</v>
+        <v>23099504</v>
       </c>
       <c r="D89" s="2">
         <v>8566163</v>
@@ -5574,19 +5571,19 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2">
         <v>156065332</v>
       </c>
       <c r="C90" s="2">
-        <v>22641958</v>
+        <v>22580702</v>
       </c>
       <c r="D90" s="2">
-        <v>31502559</v>
+        <v>31586779</v>
       </c>
       <c r="E90" s="2">
-        <v>1190720</v>
+        <v>1211149</v>
       </c>
       <c r="F90" s="2">
         <v>462208</v>
@@ -5598,16 +5595,16 @@
         <v>282043</v>
       </c>
       <c r="I90" s="2">
-        <v>1142970</v>
+        <v>1146576</v>
       </c>
       <c r="J90" s="2">
-        <v>775735</v>
+        <v>778143</v>
       </c>
       <c r="K90" s="2">
         <v>1058641952</v>
       </c>
       <c r="L90" s="2">
-        <v>4105</v>
+        <v>4107</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>17</v>
@@ -5624,13 +5621,13 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2">
         <v>75597392</v>
       </c>
       <c r="C91" s="2">
-        <v>22431989</v>
+        <v>22625068</v>
       </c>
       <c r="D91" s="2">
         <v>3160675</v>
@@ -5660,7 +5657,7 @@
         <v>6851</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -5668,13 +5665,13 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2">
         <v>88149205</v>
       </c>
       <c r="C92" s="2">
-        <v>22297319</v>
+        <v>22324119</v>
       </c>
       <c r="D92" s="2">
         <v>42662658</v>
@@ -5704,7 +5701,7 @@
         <v>2492</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N92" s="2">
         <v>1084917</v>
@@ -5718,7 +5715,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2">
         <v>115316674</v>
@@ -5754,7 +5751,7 @@
         <v>8423</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N93" s="2">
         <v>204273</v>
@@ -5768,13 +5765,13 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2">
         <v>45422391</v>
       </c>
       <c r="C94" s="2">
-        <v>21229063</v>
+        <v>21249813</v>
       </c>
       <c r="D94" s="2">
         <v>7831044</v>
@@ -5804,7 +5801,7 @@
         <v>2817</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N94" s="2">
         <v>0</v>
@@ -5816,7 +5813,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2">
         <v>27032799</v>
@@ -5858,7 +5855,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2">
         <v>6186291</v>
@@ -5904,7 +5901,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2">
         <v>59510152</v>
@@ -5940,7 +5937,7 @@
         <v>12778</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N97" s="2">
         <v>45793</v>
@@ -5954,13 +5951,13 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2">
         <v>106774288</v>
       </c>
       <c r="C98" s="2">
-        <v>20808452</v>
+        <v>20980348</v>
       </c>
       <c r="D98" s="2">
         <v>34321188</v>
@@ -5987,10 +5984,10 @@
         <v>8254107082</v>
       </c>
       <c r="L98" s="2">
-        <v>3735</v>
+        <v>2736</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N98" s="2">
         <v>754022</v>
@@ -6004,19 +6001,19 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2">
         <v>174761986</v>
       </c>
       <c r="C99" s="2">
-        <v>20487541</v>
+        <v>20311833</v>
       </c>
       <c r="D99" s="2">
-        <v>3949743</v>
+        <v>4514573</v>
       </c>
       <c r="E99" s="2">
-        <v>620702</v>
+        <v>647878</v>
       </c>
       <c r="F99" s="2">
         <v>235036</v>
@@ -6028,16 +6025,16 @@
         <v>0</v>
       </c>
       <c r="I99" s="2">
-        <v>234903</v>
+        <v>242744</v>
       </c>
       <c r="J99" s="2">
-        <v>76026</v>
+        <v>100347</v>
       </c>
       <c r="K99" s="2">
-        <v>5846428314</v>
+        <v>5861935829</v>
       </c>
       <c r="L99" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>17</v>
@@ -6048,13 +6045,13 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2">
         <v>80915456</v>
       </c>
       <c r="C100" s="2">
-        <v>20395146</v>
+        <v>20963308</v>
       </c>
       <c r="D100" s="2">
         <v>53244563</v>
@@ -6081,10 +6078,10 @@
         <v>9338102968</v>
       </c>
       <c r="L100" s="2">
-        <v>3995</v>
+        <v>3996</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N100" s="2">
         <v>1500957</v>
@@ -6098,7 +6095,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2">
         <v>138480479</v>
@@ -6148,7 +6145,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2">
         <v>111380674</v>
@@ -6198,7 +6195,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2">
         <v>128158872</v>
@@ -6242,7 +6239,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2">
         <v>82063769</v>
@@ -6292,7 +6289,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2">
         <v>75908263</v>
@@ -6342,7 +6339,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2">
         <v>90737516</v>
@@ -6378,7 +6375,7 @@
         <v>7597</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N106" s="2">
         <v>39066</v>
@@ -6392,7 +6389,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2">
         <v>111381676</v>
@@ -6425,7 +6422,7 @@
         <v>14071995232</v>
       </c>
       <c r="L107" s="2">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>17</v>
@@ -6442,7 +6439,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2">
         <v>165660039</v>
@@ -6490,7 +6487,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2">
         <v>157599938</v>
@@ -6538,7 +6535,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B110" s="2">
         <v>62819682</v>
@@ -6571,7 +6568,7 @@
         <v>27045479815</v>
       </c>
       <c r="L110" s="2">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>17</v>
@@ -6588,7 +6585,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2">
         <v>133757841</v>
@@ -6638,7 +6635,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2">
         <v>89011324</v>
@@ -6686,7 +6683,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2">
         <v>106280664</v>
@@ -6720,7 +6717,7 @@
         <v>3765</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N113" s="2">
         <v>0</v>
@@ -6730,7 +6727,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2">
         <v>138260227</v>
@@ -6766,7 +6763,7 @@
         <v>11510</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N114" s="2">
         <v>0</v>
@@ -6776,7 +6773,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2">
         <v>89407722</v>
@@ -6824,7 +6821,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2">
         <v>22650649</v>
@@ -6860,7 +6857,7 @@
         <v>1633</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -6868,7 +6865,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2">
         <v>83226771</v>
@@ -6918,7 +6915,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2">
         <v>52156110</v>
@@ -6968,7 +6965,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2">
         <v>152874510</v>
@@ -7004,7 +7001,7 @@
         <v>18538</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N119" s="2">
         <v>188291</v>
@@ -7018,7 +7015,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2">
         <v>88464477</v>
@@ -7062,7 +7059,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2">
         <v>89355469</v>
@@ -7110,7 +7107,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2">
         <v>88478722</v>
@@ -7152,7 +7149,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2">
         <v>90769109</v>
@@ -7200,7 +7197,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2">
         <v>86428939</v>
@@ -7250,21 +7247,23 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2">
         <v>152870519</v>
       </c>
       <c r="C125" s="2">
-        <v>17520364</v>
+        <v>17445192</v>
       </c>
       <c r="D125" s="2">
-        <v>8153412</v>
+        <v>9456305</v>
       </c>
       <c r="E125" s="2">
-        <v>508742</v>
-      </c>
-      <c r="F125" s="2"/>
+        <v>531405</v>
+      </c>
+      <c r="F125" s="2">
+        <v>19</v>
+      </c>
       <c r="G125" s="2">
         <v>420</v>
       </c>
@@ -7272,18 +7271,20 @@
         <v>3313</v>
       </c>
       <c r="I125" s="2">
-        <v>310376</v>
+        <v>379519</v>
       </c>
       <c r="J125" s="2">
-        <v>251778</v>
+        <v>282351</v>
       </c>
       <c r="K125" s="2">
         <v>7104659236</v>
       </c>
       <c r="L125" s="2">
-        <v>32119</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>2120</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N125" s="2">
         <v>535872</v>
       </c>
@@ -7296,7 +7297,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2">
         <v>91649416</v>
@@ -7340,13 +7341,13 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2">
         <v>145876288</v>
       </c>
       <c r="C127" s="2">
-        <v>17218685</v>
+        <v>17244285</v>
       </c>
       <c r="D127" s="2">
         <v>4906994</v>
@@ -7376,7 +7377,7 @@
         <v>645</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -7692,7 +7693,7 @@
         <v>9940</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -7736,7 +7737,7 @@
         <v>1851</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N135" s="2">
         <v>68991</v>
@@ -7786,7 +7787,7 @@
         <v>4846</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N136" s="2">
         <v>60900</v>
@@ -7833,7 +7834,7 @@
         <v>21603424099</v>
       </c>
       <c r="L137" s="2">
-        <v>30375</v>
+        <v>3376</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>78</v>
@@ -7877,7 +7878,7 @@
         <v>23656171432</v>
       </c>
       <c r="L138" s="2">
-        <v>4733</v>
+        <v>4734</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>78</v>
@@ -7948,16 +7949,16 @@
         <v>132853690</v>
       </c>
       <c r="C140" s="2">
-        <v>15654453</v>
+        <v>15319597</v>
       </c>
       <c r="D140" s="2">
-        <v>8823554</v>
+        <v>10708257</v>
       </c>
       <c r="E140" s="2">
-        <v>676382</v>
+        <v>758934</v>
       </c>
       <c r="F140" s="2">
-        <v>8490</v>
+        <v>8506</v>
       </c>
       <c r="G140" s="2">
         <v>106195</v>
@@ -7966,16 +7967,16 @@
         <v>196324</v>
       </c>
       <c r="I140" s="2">
-        <v>140731</v>
+        <v>221145</v>
       </c>
       <c r="J140" s="2">
-        <v>320843</v>
+        <v>374871</v>
       </c>
       <c r="K140" s="2">
         <v>8129091544</v>
       </c>
       <c r="L140" s="2">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>17</v>
@@ -8132,7 +8133,7 @@
         <v>31043187</v>
       </c>
       <c r="C144" s="2">
-        <v>14438876</v>
+        <v>14447048</v>
       </c>
       <c r="D144" s="2">
         <v>25485818</v>
@@ -8212,7 +8213,7 @@
         <v>4317</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -8302,7 +8303,7 @@
         <v>1606</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N147" s="2">
         <v>550</v>
@@ -8400,7 +8401,7 @@
         <v>9499</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N149" s="2">
         <v>58446</v>
@@ -8496,7 +8497,7 @@
         <v>1889</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N151" s="2">
         <v>0</v>
@@ -8540,7 +8541,7 @@
         <v>1962</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N152" s="2">
         <v>0</v>
@@ -8558,7 +8559,7 @@
         <v>184098057</v>
       </c>
       <c r="C153" s="2">
-        <v>13521014</v>
+        <v>13524214</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2">
@@ -8577,7 +8578,7 @@
         <v>725698258</v>
       </c>
       <c r="L153" s="2">
-        <v>3079</v>
+        <v>2094</v>
       </c>
       <c r="M153" s="2" t="s">
         <v>17</v>
@@ -8624,7 +8625,7 @@
         <v>706</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -8686,7 +8687,7 @@
         <v>171174731</v>
       </c>
       <c r="C156" s="2">
-        <v>12535688</v>
+        <v>12554888</v>
       </c>
       <c r="D156" s="2">
         <v>6086</v>
@@ -8716,7 +8717,7 @@
         <v>1554</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -8754,13 +8755,13 @@
         <v>91088</v>
       </c>
       <c r="K157" s="2">
-        <v>1469054091</v>
+        <v>1574048834</v>
       </c>
       <c r="L157" s="2">
-        <v>7174</v>
+        <v>7176</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -8774,7 +8775,7 @@
         <v>166029476</v>
       </c>
       <c r="C158" s="2">
-        <v>12083602</v>
+        <v>12099602</v>
       </c>
       <c r="D158" s="2">
         <v>33622</v>
@@ -8799,10 +8800,10 @@
         <v>3232742162</v>
       </c>
       <c r="L158" s="2">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N158" s="2">
         <v>0</v>
@@ -8881,10 +8882,10 @@
         <v>6663431907</v>
       </c>
       <c r="L160" s="2">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -8923,10 +8924,10 @@
         <v>521791870</v>
       </c>
       <c r="L161" s="2">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -8963,10 +8964,10 @@
         <v>4653087210</v>
       </c>
       <c r="L162" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -8999,10 +9000,10 @@
         <v>5173052342</v>
       </c>
       <c r="L163" s="2">
-        <v>1492</v>
+        <v>1500</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -9046,7 +9047,7 @@
         <v>576</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -9079,10 +9080,10 @@
         <v>4056095158</v>
       </c>
       <c r="L165" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -9121,10 +9122,10 @@
         <v>3977391176</v>
       </c>
       <c r="L166" s="2">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -9164,7 +9165,7 @@
         <v>609</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -9200,7 +9201,7 @@
         <v>526</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -9238,7 +9239,7 @@
         <v>399</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -9276,7 +9277,7 @@
         <v>392</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -9320,7 +9321,7 @@
         <v>3577</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -9360,7 +9361,7 @@
         <v>362</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -9667,10 +9668,10 @@
         <v>3189607154</v>
       </c>
       <c r="L180" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -9896,7 +9897,7 @@
         <v>11738</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -9936,7 +9937,7 @@
         <v>1123</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -9978,7 +9979,7 @@
         <v>542</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -10016,7 +10017,7 @@
         <v>2018</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -10060,7 +10061,7 @@
         <v>2521</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -10096,7 +10097,7 @@
         <v>525</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -10140,7 +10141,7 @@
         <v>303</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -10184,7 +10185,7 @@
         <v>425</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -10198,7 +10199,7 @@
         <v>196805171</v>
       </c>
       <c r="C194" s="2">
-        <v>6416233</v>
+        <v>6430690</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2">
@@ -10217,10 +10218,10 @@
         <v>299006377</v>
       </c>
       <c r="L194" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -10257,10 +10258,10 @@
         <v>7526006310</v>
       </c>
       <c r="L195" s="2">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N195" s="2">
         <v>0</v>
@@ -10306,7 +10307,7 @@
         <v>454</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -10350,7 +10351,7 @@
         <v>1301</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -10391,10 +10392,10 @@
         <v>4022829732</v>
       </c>
       <c r="L198" s="2">
-        <v>1397</v>
+        <v>1293</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N198" s="2">
         <v>0</v>
@@ -10440,7 +10441,7 @@
         <v>563</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -10524,7 +10525,7 @@
         <v>360</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N201" s="2">
         <v>0</v>
@@ -10662,7 +10663,7 @@
         <v>210</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N204" s="2">
         <v>0</v>
@@ -10704,7 +10705,7 @@
         <v>577</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -10748,7 +10749,7 @@
         <v>183</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -10826,7 +10827,7 @@
         <v>187</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -10870,7 +10871,7 @@
         <v>184</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -10884,7 +10885,7 @@
         <v>201173629</v>
       </c>
       <c r="C210" s="2">
-        <v>2447630</v>
+        <v>2478441</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2">
@@ -10903,9 +10904,11 @@
         <v>0</v>
       </c>
       <c r="L210" s="2">
-        <v>320</v>
-      </c>
-      <c r="M210" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
@@ -10918,7 +10921,7 @@
         <v>201174382</v>
       </c>
       <c r="C211" s="2">
-        <v>2364582</v>
+        <v>2404126</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2">
@@ -10939,7 +10942,9 @@
       <c r="L211" s="2">
         <v>321</v>
       </c>
-      <c r="M211" s="2"/>
+      <c r="M211" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
@@ -10982,7 +10987,7 @@
         <v>162</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -10996,7 +11001,7 @@
         <v>45474165</v>
       </c>
       <c r="C213" s="2">
-        <v>2090769</v>
+        <v>2101994</v>
       </c>
       <c r="D213" s="2">
         <v>79665</v>
@@ -11062,7 +11067,7 @@
         <v>179</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -11146,7 +11151,7 @@
         <v>495</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -11226,7 +11231,7 @@
         <v>245</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -11346,7 +11351,7 @@
         <v>7</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -11388,7 +11393,7 @@
         <v>31</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -11560,7 +11565,7 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B227" s="2">
         <v>47126495</v>
@@ -11600,7 +11605,7 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B228" s="2">
         <v>45452488</v>
@@ -11642,13 +11647,13 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B229" s="2">
         <v>100192170</v>
       </c>
       <c r="C229" s="2">
-        <v>442853</v>
+        <v>446453</v>
       </c>
       <c r="D229" s="2">
         <v>4410</v>
@@ -11684,7 +11689,7 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B230" s="2">
         <v>197983578</v>
@@ -11712,7 +11717,7 @@
         <v>34</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -11720,7 +11725,7 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B231" s="2">
         <v>164638687</v>
@@ -11748,7 +11753,7 @@
         <v>3</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -11756,7 +11761,7 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B232" s="2">
         <v>197982730</v>
@@ -11784,7 +11789,7 @@
         <v>30</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -11792,7 +11797,7 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B233" s="2">
         <v>45488526</v>
@@ -11828,7 +11833,7 @@
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B234" s="2">
         <v>44553286</v>
@@ -11862,7 +11867,7 @@
         <v>306</v>
       </c>
       <c r="M234" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -11870,7 +11875,7 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B235" s="2">
         <v>144733649</v>
@@ -11898,7 +11903,7 @@
         <v>12</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -11906,7 +11911,7 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B236" s="2">
         <v>200836946</v>
@@ -11940,7 +11945,7 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B237" s="2">
         <v>45468532</v>
@@ -11980,7 +11985,7 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B238" s="2">
         <v>67013550</v>
@@ -12018,7 +12023,7 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B239" s="2">
         <v>198784870</v>
@@ -12056,7 +12061,7 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B240" s="2">
         <v>190837568</v>
@@ -12090,7 +12095,7 @@
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B241" s="2">
         <v>157619354</v>
@@ -12124,7 +12129,7 @@
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B242" s="2">
         <v>201914393</v>
@@ -12154,7 +12159,7 @@
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B243" s="2">
         <v>203607774</v>
@@ -12188,7 +12193,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B244" s="2">
         <v>204469389</v>
@@ -12222,7 +12227,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B245" s="2">
         <v>204469389</v>
@@ -12256,7 +12261,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B246" s="2">
         <v>204469389</v>
@@ -12290,7 +12295,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B247" s="2">
         <v>204469389</v>
@@ -12324,7 +12329,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B248" s="2">
         <v>204469389</v>
@@ -12358,7 +12363,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B249" s="2">
         <v>204469389</v>
@@ -12392,7 +12397,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B250" s="2">
         <v>204469389</v>
@@ -12426,7 +12431,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B251" s="2">
         <v>204469389</v>

--- a/kvk_after_metrics.xlsx
+++ b/kvk_after_metrics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C868CD-C5A6-42B5-A128-2CD8046055A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C92346-F929-463B-B651-734D63C59C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="562">
   <si>
     <t>45440625</t>
   </si>
@@ -29,16 +29,88 @@
     <t>Aspect II</t>
   </si>
   <si>
+    <t>136635217</t>
+  </si>
+  <si>
+    <t>Onkel Donald</t>
+  </si>
+  <si>
+    <t>38708637</t>
+  </si>
+  <si>
+    <t>ﾒ l CoLiZeU</t>
+  </si>
+  <si>
     <t>53788465</t>
   </si>
   <si>
     <t>AspectOEternity</t>
   </si>
   <si>
-    <t>38708637</t>
-  </si>
-  <si>
-    <t>ﾒ l CoLiZeU</t>
+    <t>89003413</t>
+  </si>
+  <si>
+    <t>Tom Bin</t>
+  </si>
+  <si>
+    <t>49041000</t>
+  </si>
+  <si>
+    <t>亗HRHLoufisia</t>
+  </si>
+  <si>
+    <t>2036382</t>
+  </si>
+  <si>
+    <t>Tsú义CEKA</t>
+  </si>
+  <si>
+    <t>142978261</t>
+  </si>
+  <si>
+    <t>ᴮᴮメBoZkurTメ</t>
+  </si>
+  <si>
+    <t>57823214</t>
+  </si>
+  <si>
+    <t>K1ngk3v ﾐ</t>
+  </si>
+  <si>
+    <t>66527412</t>
+  </si>
+  <si>
+    <t>CPTŃĘMÒ</t>
+  </si>
+  <si>
+    <t>46268923</t>
+  </si>
+  <si>
+    <t>ᅟᅟ ᅟTop ㅡ Lộc</t>
+  </si>
+  <si>
+    <t>74815491</t>
+  </si>
+  <si>
+    <t>Money4joker</t>
+  </si>
+  <si>
+    <t>40614122</t>
+  </si>
+  <si>
+    <t>ᴊᴀᴇ</t>
+  </si>
+  <si>
+    <t>63832228</t>
+  </si>
+  <si>
+    <t>Pigge</t>
+  </si>
+  <si>
+    <t>58349304</t>
+  </si>
+  <si>
+    <t>CrazyBeauty ﾐ</t>
   </si>
   <si>
     <t>38767756</t>
@@ -47,64 +119,52 @@
     <t>ElKappa</t>
   </si>
   <si>
-    <t>63832228</t>
-  </si>
-  <si>
-    <t>Pigge</t>
-  </si>
-  <si>
-    <t>2036382</t>
-  </si>
-  <si>
-    <t>Tsú</t>
-  </si>
-  <si>
-    <t>57823214</t>
-  </si>
-  <si>
-    <t>K1ngk3v ﾐ</t>
-  </si>
-  <si>
-    <t>40614122</t>
-  </si>
-  <si>
-    <t>ᴊᴀᴇ</t>
-  </si>
-  <si>
-    <t>89003413</t>
-  </si>
-  <si>
-    <t>Tom Bin</t>
-  </si>
-  <si>
-    <t>49041000</t>
-  </si>
-  <si>
-    <t>亗HRHLoufisia</t>
-  </si>
-  <si>
-    <t>66527412</t>
-  </si>
-  <si>
-    <t>CPTŃĘMÒ</t>
-  </si>
-  <si>
-    <t>46268923</t>
-  </si>
-  <si>
-    <t>ᅟᅟ ᅟTop ㅡ Lộc</t>
-  </si>
-  <si>
-    <t>142978261</t>
-  </si>
-  <si>
-    <t>ᴮᴮメBoZkurTメ</t>
-  </si>
-  <si>
-    <t>136635217</t>
-  </si>
-  <si>
-    <t>Onkel Donald</t>
+    <t>64570107</t>
+  </si>
+  <si>
+    <t>ᶜᵏKJM81</t>
+  </si>
+  <si>
+    <t>134146479</t>
+  </si>
+  <si>
+    <t>ᴰᴹMightyACE</t>
+  </si>
+  <si>
+    <t>68249194</t>
+  </si>
+  <si>
+    <t>crazybeautyʚɞ</t>
+  </si>
+  <si>
+    <t>28063072</t>
+  </si>
+  <si>
+    <t>FreeByrd</t>
+  </si>
+  <si>
+    <t>74359287</t>
+  </si>
+  <si>
+    <t>Wōđinaz</t>
+  </si>
+  <si>
+    <t>59061395</t>
+  </si>
+  <si>
+    <t>乂TENNO乂</t>
+  </si>
+  <si>
+    <t>59146982</t>
+  </si>
+  <si>
+    <t>火Akaza乂</t>
+  </si>
+  <si>
+    <t>64039534</t>
+  </si>
+  <si>
+    <t>ʷᶜ Larocha</t>
   </si>
   <si>
     <t>72077550</t>
@@ -113,40 +173,40 @@
     <t>Aspect III</t>
   </si>
   <si>
-    <t>74815491</t>
-  </si>
-  <si>
-    <t>Money4joker</t>
-  </si>
-  <si>
-    <t>74359287</t>
-  </si>
-  <si>
-    <t>Wōđinaz</t>
-  </si>
-  <si>
-    <t>58349304</t>
-  </si>
-  <si>
-    <t>CrazyBeauty ﾐ</t>
-  </si>
-  <si>
-    <t>59061395</t>
-  </si>
-  <si>
-    <t>乂TENNO乂</t>
-  </si>
-  <si>
-    <t>64039534</t>
-  </si>
-  <si>
-    <t>ʷᶜ Larocha</t>
-  </si>
-  <si>
-    <t>68249194</t>
-  </si>
-  <si>
-    <t>crazybeautyʚɞ</t>
+    <t>38161087</t>
+  </si>
+  <si>
+    <t>Ɓo乄</t>
+  </si>
+  <si>
+    <t>49499709</t>
+  </si>
+  <si>
+    <t>ﾒ l Mike</t>
+  </si>
+  <si>
+    <t>48975732</t>
+  </si>
+  <si>
+    <t>Duboish</t>
+  </si>
+  <si>
+    <t>47520861</t>
+  </si>
+  <si>
+    <t>ᴸᴵᴷᴱMD</t>
+  </si>
+  <si>
+    <t>113277991</t>
+  </si>
+  <si>
+    <t>Johan Swe</t>
+  </si>
+  <si>
+    <t>123185482</t>
+  </si>
+  <si>
+    <t>Zeuspromax</t>
   </si>
   <si>
     <t>76274504</t>
@@ -155,40 +215,16 @@
     <t>FONZY</t>
   </si>
   <si>
-    <t>28063072</t>
-  </si>
-  <si>
-    <t>FreeByrd</t>
-  </si>
-  <si>
-    <t>49499709</t>
-  </si>
-  <si>
-    <t>ﾒ l Mike</t>
-  </si>
-  <si>
-    <t>48975732</t>
-  </si>
-  <si>
-    <t>Duboish</t>
-  </si>
-  <si>
-    <t>134146479</t>
-  </si>
-  <si>
-    <t>ᴰᴹMightyACE</t>
-  </si>
-  <si>
-    <t>38161087</t>
-  </si>
-  <si>
-    <t>Ɓo乄</t>
-  </si>
-  <si>
-    <t>59146982</t>
-  </si>
-  <si>
-    <t>火Akaza乂</t>
+    <t>16365096</t>
+  </si>
+  <si>
+    <t>Daìsy</t>
+  </si>
+  <si>
+    <t>116198736</t>
+  </si>
+  <si>
+    <t>Samuraii f2p</t>
   </si>
   <si>
     <t>76227631</t>
@@ -197,22 +233,10 @@
     <t>LY218</t>
   </si>
   <si>
-    <t>123185482</t>
-  </si>
-  <si>
-    <t>Zeuspromax</t>
-  </si>
-  <si>
-    <t>64570107</t>
-  </si>
-  <si>
-    <t>ᶜᵏKJM81</t>
-  </si>
-  <si>
-    <t>113277991</t>
-  </si>
-  <si>
-    <t>Johan Swe</t>
+    <t>76248061</t>
+  </si>
+  <si>
+    <t>K1ngk3v II</t>
   </si>
   <si>
     <t>35875859</t>
@@ -221,72 +245,48 @@
     <t>Kazou</t>
   </si>
   <si>
+    <t>49407662</t>
+  </si>
+  <si>
+    <t>Act One Sushi</t>
+  </si>
+  <si>
+    <t>9660755</t>
+  </si>
+  <si>
+    <t>FenjaOfSweden</t>
+  </si>
+  <si>
+    <t>36929030</t>
+  </si>
+  <si>
+    <t>MeosOne</t>
+  </si>
+  <si>
+    <t>100749347</t>
+  </si>
+  <si>
+    <t>TRAMBUKO</t>
+  </si>
+  <si>
+    <t>131302553</t>
+  </si>
+  <si>
+    <t>亗Queen4evah</t>
+  </si>
+  <si>
+    <t>116006542</t>
+  </si>
+  <si>
+    <t>ᶜᵏ Gannicus</t>
+  </si>
+  <si>
     <t>18103697</t>
   </si>
   <si>
     <t>YourFatHubby</t>
   </si>
   <si>
-    <t>116198736</t>
-  </si>
-  <si>
-    <t>ᶜᵏSamuraii</t>
-  </si>
-  <si>
-    <t>47520861</t>
-  </si>
-  <si>
-    <t>ᴸᴵᴷᴱMD</t>
-  </si>
-  <si>
-    <t>49407662</t>
-  </si>
-  <si>
-    <t>Act One Sushi</t>
-  </si>
-  <si>
-    <t>76248061</t>
-  </si>
-  <si>
-    <t>K1ngk3v II</t>
-  </si>
-  <si>
-    <t>9660755</t>
-  </si>
-  <si>
-    <t>FenjaOfSweden</t>
-  </si>
-  <si>
-    <t>16365096</t>
-  </si>
-  <si>
-    <t>Daìsy</t>
-  </si>
-  <si>
-    <t>116006542</t>
-  </si>
-  <si>
-    <t>ᶜᵏ Gannicus</t>
-  </si>
-  <si>
-    <t>36929030</t>
-  </si>
-  <si>
-    <t>MeosOne</t>
-  </si>
-  <si>
-    <t>131302553</t>
-  </si>
-  <si>
-    <t>亗Queen4evah</t>
-  </si>
-  <si>
-    <t>100749347</t>
-  </si>
-  <si>
-    <t>TRAMBUKO</t>
-  </si>
-  <si>
     <t>46393719</t>
   </si>
   <si>
@@ -317,24 +317,18 @@
     <t>ᶜᵏCoLi FaRm</t>
   </si>
   <si>
+    <t>83645255</t>
+  </si>
+  <si>
+    <t>Aspect V</t>
+  </si>
+  <si>
     <t>57685309</t>
   </si>
   <si>
     <t>NisiX</t>
   </si>
   <si>
-    <t>83645255</t>
-  </si>
-  <si>
-    <t>Aspect V</t>
-  </si>
-  <si>
-    <t>7474256</t>
-  </si>
-  <si>
-    <t>Sadman Tahmid</t>
-  </si>
-  <si>
     <t>83657319</t>
   </si>
   <si>
@@ -377,82 +371,88 @@
     <t>㍇㌕㌁㌇㌖㍇㌕㍇㌕㌁㌇㌖㌁㌖</t>
   </si>
   <si>
+    <t>62028275</t>
+  </si>
+  <si>
+    <t>crazybeautyﾐK</t>
+  </si>
+  <si>
+    <t>76028022</t>
+  </si>
+  <si>
+    <t>K乂M ﾐ Filler</t>
+  </si>
+  <si>
+    <t>122312204</t>
+  </si>
+  <si>
+    <t>Wōđinaz I</t>
+  </si>
+  <si>
+    <t>65897639</t>
+  </si>
+  <si>
+    <t>Larocha02</t>
+  </si>
+  <si>
+    <t>60655915</t>
+  </si>
+  <si>
+    <t>Wōđinaz ІІ</t>
+  </si>
+  <si>
+    <t>20349059</t>
+  </si>
+  <si>
+    <t>Fenjas Torp</t>
+  </si>
+  <si>
+    <t>179979725</t>
+  </si>
+  <si>
+    <t>El VI</t>
+  </si>
+  <si>
+    <t>87270293</t>
+  </si>
+  <si>
+    <t>LY218 002</t>
+  </si>
+  <si>
+    <t>1482388</t>
+  </si>
+  <si>
+    <t>Tsu Mini</t>
+  </si>
+  <si>
+    <t>47963295</t>
+  </si>
+  <si>
+    <t>Lord BRAZAL</t>
+  </si>
+  <si>
+    <t>30958849</t>
+  </si>
+  <si>
+    <t>Tsu WarF1</t>
+  </si>
+  <si>
     <t>88038915</t>
   </si>
   <si>
     <t>Piggelín</t>
   </si>
   <si>
-    <t>116370262</t>
-  </si>
-  <si>
-    <t>义IVAN义</t>
-  </si>
-  <si>
-    <t>76028022</t>
-  </si>
-  <si>
-    <t>K乂M ﾐ Filler</t>
-  </si>
-  <si>
-    <t>62028275</t>
-  </si>
-  <si>
-    <t>crazybeautyﾐK</t>
-  </si>
-  <si>
-    <t>122312204</t>
-  </si>
-  <si>
-    <t>Wōđinaz I</t>
-  </si>
-  <si>
-    <t>87270293</t>
-  </si>
-  <si>
-    <t>LY218 002</t>
-  </si>
-  <si>
-    <t>65897639</t>
-  </si>
-  <si>
-    <t>Larocha02</t>
-  </si>
-  <si>
-    <t>60655915</t>
-  </si>
-  <si>
-    <t>Wōđinaz ІІ</t>
-  </si>
-  <si>
-    <t>47963295</t>
-  </si>
-  <si>
-    <t>Lord BRAZAL</t>
-  </si>
-  <si>
-    <t>1482388</t>
-  </si>
-  <si>
-    <t>TsuMini</t>
-  </si>
-  <si>
-    <t>20349059</t>
-  </si>
-  <si>
-    <t>Fenjas Torp</t>
-  </si>
-  <si>
-    <t>30958849</t>
-  </si>
-  <si>
-    <t>TsuFarm7</t>
-  </si>
-  <si>
-    <t>179979725</t>
-  </si>
-  <si>
-    <t>El VI</t>
+    <t>61633210</t>
+  </si>
+  <si>
+    <t>火Akaza乂gold</t>
+  </si>
+  <si>
+    <t>45155277</t>
+  </si>
+  <si>
+    <t>Money4joker2</t>
   </si>
   <si>
     <t>135433898</t>
@@ -461,18 +461,6 @@
     <t>ᴸᴺKJM81</t>
   </si>
   <si>
-    <t>61633210</t>
-  </si>
-  <si>
-    <t>火Akaza乂gold</t>
-  </si>
-  <si>
-    <t>45155277</t>
-  </si>
-  <si>
-    <t>Money4joker2</t>
-  </si>
-  <si>
     <t>58481229</t>
   </si>
   <si>
@@ -485,76 +473,88 @@
     <t>Raz0rSh4rp</t>
   </si>
   <si>
+    <t>76628952</t>
+  </si>
+  <si>
+    <t>ALSHEEHI BANK</t>
+  </si>
+  <si>
+    <t>138750545</t>
+  </si>
+  <si>
+    <t>SinnerDivine</t>
+  </si>
+  <si>
+    <t>102689344</t>
+  </si>
+  <si>
+    <t>Tsu WarF5</t>
+  </si>
+  <si>
+    <t>84653952</t>
+  </si>
+  <si>
+    <t>Aspect X</t>
+  </si>
+  <si>
+    <t>52174637</t>
+  </si>
+  <si>
+    <t>MD FARM 1</t>
+  </si>
+  <si>
+    <t>102573628</t>
+  </si>
+  <si>
+    <t>Tsu WarF4</t>
+  </si>
+  <si>
+    <t>145862727</t>
+  </si>
+  <si>
+    <t>bozkurdfar</t>
+  </si>
+  <si>
+    <t>80915456</t>
+  </si>
+  <si>
+    <t>K乂M ﾐ Farm I</t>
+  </si>
+  <si>
     <t>29240760</t>
   </si>
   <si>
-    <t>TsuFarm8</t>
-  </si>
-  <si>
-    <t>76628952</t>
-  </si>
-  <si>
-    <t>ALSHEEHI BANK</t>
-  </si>
-  <si>
-    <t>138750545</t>
-  </si>
-  <si>
-    <t>SinnerDivine</t>
-  </si>
-  <si>
-    <t>102689344</t>
-  </si>
-  <si>
-    <t>TsuFarm10</t>
-  </si>
-  <si>
-    <t>52174637</t>
-  </si>
-  <si>
-    <t>MD FARM 1</t>
-  </si>
-  <si>
-    <t>145862727</t>
-  </si>
-  <si>
-    <t>bozkurdfar</t>
+    <t>Tsu WarF2</t>
+  </si>
+  <si>
+    <t>135874891</t>
+  </si>
+  <si>
+    <t>㋛乂BoZkurT乂</t>
   </si>
   <si>
     <t>102614248</t>
   </si>
   <si>
-    <t>TsuFarm11</t>
-  </si>
-  <si>
-    <t>84653952</t>
-  </si>
-  <si>
-    <t>Aspect X</t>
-  </si>
-  <si>
-    <t>102573628</t>
-  </si>
-  <si>
-    <t>TsuFarm9</t>
-  </si>
-  <si>
-    <t>122958650</t>
-  </si>
-  <si>
-    <t>Atlas mini2</t>
-  </si>
-  <si>
-    <t>135874891</t>
-  </si>
-  <si>
-    <t>㋛乂BoZkurT乂</t>
-  </si>
-  <si>
-    <t>80915456</t>
-  </si>
-  <si>
-    <t>K乂M ﾐ Farm I</t>
+    <t>Tsu WarF3</t>
+  </si>
+  <si>
+    <t>88149205</t>
+  </si>
+  <si>
+    <t>K乂M ﾐ Farm 3</t>
+  </si>
+  <si>
+    <t>106774288</t>
+  </si>
+  <si>
+    <t>K乂M ﾐ Farm 2</t>
+  </si>
+  <si>
+    <t>90969567</t>
+  </si>
+  <si>
+    <t>Nilla ツ</t>
   </si>
   <si>
     <t>45453590</t>
@@ -563,52 +563,28 @@
     <t>Правитель45453590</t>
   </si>
   <si>
-    <t>90969567</t>
-  </si>
-  <si>
-    <t>Nilla ツ</t>
-  </si>
-  <si>
-    <t>156065332</t>
-  </si>
-  <si>
-    <t>义IVAN义farm1</t>
-  </si>
-  <si>
-    <t>88149205</t>
-  </si>
-  <si>
-    <t>K乂M ﾐ Farm 3</t>
-  </si>
-  <si>
     <t>45436797</t>
   </si>
   <si>
     <t>이끄는힘</t>
   </si>
   <si>
+    <t>96195368</t>
+  </si>
+  <si>
+    <t>PiggE</t>
+  </si>
+  <si>
     <t>7967421</t>
   </si>
   <si>
     <t>Zeuspro</t>
   </si>
   <si>
-    <t>106774288</t>
-  </si>
-  <si>
-    <t>K乂M ﾐ Farm 2</t>
-  </si>
-  <si>
-    <t>45462074</t>
-  </si>
-  <si>
-    <t>Jonathan karel</t>
-  </si>
-  <si>
-    <t>96195368</t>
-  </si>
-  <si>
-    <t>PiggE</t>
+    <t>45422391</t>
+  </si>
+  <si>
+    <t>TOIC 1992</t>
   </si>
   <si>
     <t>51050608</t>
@@ -617,60 +593,48 @@
     <t>AreszelFarmVII</t>
   </si>
   <si>
+    <t>77052979</t>
+  </si>
+  <si>
+    <t>Ną SAŲÇĘ</t>
+  </si>
+  <si>
+    <t>5710909</t>
+  </si>
+  <si>
+    <t>AreszelFarmingV</t>
+  </si>
+  <si>
     <t>129319159</t>
   </si>
   <si>
     <t>LY218 003</t>
   </si>
   <si>
+    <t>88851984</t>
+  </si>
+  <si>
+    <t>MD FARM 2</t>
+  </si>
+  <si>
+    <t>22650649</t>
+  </si>
+  <si>
+    <t>Wōđinaz VIІ</t>
+  </si>
+  <si>
     <t>174761986</t>
   </si>
   <si>
     <t>crazybeauty ﾒ K</t>
   </si>
   <si>
-    <t>77052979</t>
-  </si>
-  <si>
-    <t>Ną SAŲÇĘ</t>
-  </si>
-  <si>
-    <t>5710909</t>
-  </si>
-  <si>
-    <t>AreszelFarmingV</t>
-  </si>
-  <si>
-    <t>45422391</t>
-  </si>
-  <si>
-    <t>TOIC 1992</t>
-  </si>
-  <si>
-    <t>88851984</t>
-  </si>
-  <si>
-    <t>MD FARM 2</t>
-  </si>
-  <si>
     <t>52156110</t>
   </si>
   <si>
     <t>PaoFarm</t>
   </si>
   <si>
-    <t>22650649</t>
-  </si>
-  <si>
-    <t>Wōđinaz VIІ</t>
-  </si>
-  <si>
-    <t>75908263</t>
-  </si>
-  <si>
-    <t>Tenno Farm3</t>
-  </si>
-  <si>
     <t>90737516</t>
   </si>
   <si>
@@ -683,154 +647,166 @@
     <t>Cav Sinner</t>
   </si>
   <si>
+    <t>89407722</t>
+  </si>
+  <si>
+    <t>TomBin fam 3</t>
+  </si>
+  <si>
     <t>106280664</t>
   </si>
   <si>
     <t>Veňom</t>
   </si>
   <si>
+    <t>152870519</t>
+  </si>
+  <si>
+    <t>Inf Sinner</t>
+  </si>
+  <si>
+    <t>89011324</t>
+  </si>
+  <si>
+    <t>TomBin fam 1</t>
+  </si>
+  <si>
+    <t>71472982</t>
+  </si>
+  <si>
+    <t>Ɓo乄 F1 GO</t>
+  </si>
+  <si>
+    <t>89355469</t>
+  </si>
+  <si>
+    <t>TomBin fam 2</t>
+  </si>
+  <si>
+    <t>88464477</t>
+  </si>
+  <si>
+    <t>TomBin fam 7</t>
+  </si>
+  <si>
+    <t>86428939</t>
+  </si>
+  <si>
+    <t>TomBin fam 11</t>
+  </si>
+  <si>
+    <t>90769109</t>
+  </si>
+  <si>
+    <t>TomBin fam 4</t>
+  </si>
+  <si>
+    <t>65281496</t>
+  </si>
+  <si>
+    <t>AreszelFarm</t>
+  </si>
+  <si>
+    <t>88478722</t>
+  </si>
+  <si>
+    <t>TomBin fam 9</t>
+  </si>
+  <si>
+    <t>91646823</t>
+  </si>
+  <si>
+    <t>TomBin fam 6</t>
+  </si>
+  <si>
+    <t>132853690</t>
+  </si>
+  <si>
+    <t>KD Bank62</t>
+  </si>
+  <si>
+    <t>91649416</t>
+  </si>
+  <si>
+    <t>TomBin fam 5</t>
+  </si>
+  <si>
+    <t>40708580</t>
+  </si>
+  <si>
+    <t>MeosOnefarm</t>
+  </si>
+  <si>
+    <t>88480351</t>
+  </si>
+  <si>
+    <t>TomBin fam 8</t>
+  </si>
+  <si>
+    <t>77388706</t>
+  </si>
+  <si>
+    <t>Wōđinaz IV</t>
+  </si>
+  <si>
+    <t>83580202</t>
+  </si>
+  <si>
+    <t>TomBin fam 12</t>
+  </si>
+  <si>
+    <t>45451093</t>
+  </si>
+  <si>
+    <t>fatm021</t>
+  </si>
+  <si>
+    <t>84593145</t>
+  </si>
+  <si>
+    <t>TomBin fam 13</t>
+  </si>
+  <si>
+    <t>129353741</t>
+  </si>
+  <si>
+    <t>Tombin fam 10</t>
+  </si>
+  <si>
+    <t>25815880</t>
+  </si>
+  <si>
+    <t>Wōđinaz IX</t>
+  </si>
+  <si>
+    <t>70072085</t>
+  </si>
+  <si>
+    <t>Wōđinaz V</t>
+  </si>
+  <si>
+    <t>184098057</t>
+  </si>
+  <si>
+    <t>MightyPigge</t>
+  </si>
+  <si>
+    <t>35597024</t>
+  </si>
+  <si>
+    <t>farmSushi</t>
+  </si>
+  <si>
     <t>77159249</t>
   </si>
   <si>
     <t>LofisyFanclub</t>
   </si>
   <si>
-    <t>132853690</t>
-  </si>
-  <si>
-    <t>KD Bank62</t>
-  </si>
-  <si>
-    <t>89011324</t>
-  </si>
-  <si>
-    <t>TomBin fam 1</t>
-  </si>
-  <si>
-    <t>152870519</t>
-  </si>
-  <si>
-    <t>Inf Sinner</t>
-  </si>
-  <si>
-    <t>89407722</t>
-  </si>
-  <si>
-    <t>TomBin fam 3</t>
-  </si>
-  <si>
-    <t>88464477</t>
-  </si>
-  <si>
-    <t>TomBin fam 7</t>
-  </si>
-  <si>
-    <t>71472982</t>
-  </si>
-  <si>
-    <t>Ɓo乄 F1 GO</t>
-  </si>
-  <si>
-    <t>65281496</t>
-  </si>
-  <si>
-    <t>AreszelFarm</t>
-  </si>
-  <si>
-    <t>89355469</t>
-  </si>
-  <si>
-    <t>TomBin fam 2</t>
-  </si>
-  <si>
-    <t>88478722</t>
-  </si>
-  <si>
-    <t>TomBin fam 9</t>
-  </si>
-  <si>
-    <t>90769109</t>
-  </si>
-  <si>
-    <t>TomBin fam 4</t>
-  </si>
-  <si>
-    <t>86428939</t>
-  </si>
-  <si>
-    <t>TomBin fam 11</t>
-  </si>
-  <si>
-    <t>91649416</t>
-  </si>
-  <si>
-    <t>TomBin fam 5</t>
-  </si>
-  <si>
-    <t>91646823</t>
-  </si>
-  <si>
-    <t>TomBin fam 6</t>
-  </si>
-  <si>
-    <t>77388706</t>
-  </si>
-  <si>
-    <t>Wōđinaz IV</t>
-  </si>
-  <si>
-    <t>88480351</t>
-  </si>
-  <si>
-    <t>TomBin fam 8</t>
-  </si>
-  <si>
-    <t>70072085</t>
-  </si>
-  <si>
-    <t>Wōđinaz V</t>
-  </si>
-  <si>
-    <t>40708580</t>
-  </si>
-  <si>
-    <t>MeosOnefarm</t>
-  </si>
-  <si>
-    <t>129353741</t>
-  </si>
-  <si>
-    <t>Tombin fam 10</t>
-  </si>
-  <si>
-    <t>84593145</t>
-  </si>
-  <si>
-    <t>TomBin fam 13</t>
-  </si>
-  <si>
-    <t>83580202</t>
-  </si>
-  <si>
-    <t>TomBin fam 12</t>
-  </si>
-  <si>
-    <t>35597024</t>
-  </si>
-  <si>
-    <t>farmSushi</t>
-  </si>
-  <si>
-    <t>25815880</t>
-  </si>
-  <si>
-    <t>Wōđinaz IX</t>
-  </si>
-  <si>
-    <t>184098057</t>
-  </si>
-  <si>
-    <t>MightyPigge</t>
+    <t>31043187</t>
+  </si>
+  <si>
+    <t>FreeBro4Ever</t>
   </si>
   <si>
     <t>125035500</t>
@@ -845,22 +821,40 @@
     <t>Farmsamurai</t>
   </si>
   <si>
+    <t>109498095</t>
+  </si>
+  <si>
+    <t>火 Johan Swe 2</t>
+  </si>
+  <si>
     <t>39721475</t>
   </si>
   <si>
     <t>DONT TOUCH NEMO</t>
   </si>
   <si>
-    <t>31043187</t>
-  </si>
-  <si>
-    <t>FreeBro4Ever</t>
-  </si>
-  <si>
-    <t>109498095</t>
-  </si>
-  <si>
-    <t>火 Johan Swe 2</t>
+    <t>129793955</t>
+  </si>
+  <si>
+    <t>Duboish3</t>
+  </si>
+  <si>
+    <t>51240734</t>
+  </si>
+  <si>
+    <t>Alshehhi 4</t>
+  </si>
+  <si>
+    <t>92778114</t>
+  </si>
+  <si>
+    <t>Wōđinaz VIII</t>
+  </si>
+  <si>
+    <t>19584568</t>
+  </si>
+  <si>
+    <t>Lil Daisy</t>
   </si>
   <si>
     <t>94084580</t>
@@ -869,22 +863,10 @@
     <t>Johan swe f</t>
   </si>
   <si>
-    <t>45451093</t>
-  </si>
-  <si>
-    <t>fatm021</t>
-  </si>
-  <si>
-    <t>129793955</t>
-  </si>
-  <si>
-    <t>Duboish3</t>
-  </si>
-  <si>
-    <t>19584568</t>
-  </si>
-  <si>
-    <t>Lil Daisy</t>
+    <t>171174731</t>
+  </si>
+  <si>
+    <t>FarmForMee</t>
   </si>
   <si>
     <t>121426462</t>
@@ -893,10 +875,10 @@
     <t>Alshehhi 3</t>
   </si>
   <si>
-    <t>51240734</t>
-  </si>
-  <si>
-    <t>Alshehhi 4</t>
+    <t>86932616</t>
+  </si>
+  <si>
+    <t>Governador86932616</t>
   </si>
   <si>
     <t>188479340</t>
@@ -905,40 +887,34 @@
     <t>ㅡᅟᅟF2P 8      ㅡ</t>
   </si>
   <si>
-    <t>171174731</t>
-  </si>
-  <si>
-    <t>FarmForMee</t>
-  </si>
-  <si>
-    <t>86932616</t>
-  </si>
-  <si>
-    <t>Governador86932616</t>
-  </si>
-  <si>
     <t>166029476</t>
   </si>
   <si>
     <t>Sinner Senior</t>
   </si>
   <si>
+    <t>174523518</t>
+  </si>
+  <si>
+    <t>ㅡᅟᅟF2P 5      ㅡ</t>
+  </si>
+  <si>
     <t>67874265</t>
   </si>
   <si>
     <t>AreszelFarmers1</t>
   </si>
   <si>
-    <t>92778114</t>
-  </si>
-  <si>
-    <t>Wōđinaz VIII</t>
-  </si>
-  <si>
-    <t>174523518</t>
-  </si>
-  <si>
-    <t>ㅡᅟᅟF2P 5      ㅡ</t>
+    <t>181063672</t>
+  </si>
+  <si>
+    <t>MD FARM 3</t>
+  </si>
+  <si>
+    <t>159370873</t>
+  </si>
+  <si>
+    <t>Hq fam 10 a</t>
   </si>
   <si>
     <t>119611282</t>
@@ -947,22 +923,28 @@
     <t>K乂M ﾐ Farm 4</t>
   </si>
   <si>
+    <t>106419367</t>
+  </si>
+  <si>
+    <t>MeosOne farm</t>
+  </si>
+  <si>
     <t>136778372</t>
   </si>
   <si>
     <t>ShiatAli f2</t>
   </si>
   <si>
-    <t>159370873</t>
-  </si>
-  <si>
-    <t>Hq fam 10 a</t>
-  </si>
-  <si>
-    <t>106419367</t>
-  </si>
-  <si>
-    <t>MeosOne farm</t>
+    <t>161997919</t>
+  </si>
+  <si>
+    <t>TB fam 10b</t>
+  </si>
+  <si>
+    <t>91647973</t>
+  </si>
+  <si>
+    <t>MeosOneFarm</t>
   </si>
   <si>
     <t>59397758</t>
@@ -971,10 +953,10 @@
     <t>亗RoyalFarm</t>
   </si>
   <si>
-    <t>161997919</t>
-  </si>
-  <si>
-    <t>TB fam 10b</t>
+    <t>93013026</t>
+  </si>
+  <si>
+    <t>TomBin fam 14</t>
   </si>
   <si>
     <t>188792602</t>
@@ -983,16 +965,16 @@
     <t>ㅡᅟᅟF2P 4      ㅡ</t>
   </si>
   <si>
-    <t>181063672</t>
-  </si>
-  <si>
-    <t>MD FARM 3</t>
-  </si>
-  <si>
-    <t>93013026</t>
-  </si>
-  <si>
-    <t>TomBin fam 14</t>
+    <t>180317373</t>
+  </si>
+  <si>
+    <t>Leth2</t>
+  </si>
+  <si>
+    <t>44779188</t>
+  </si>
+  <si>
+    <t>JAE 밥</t>
   </si>
   <si>
     <t>129794124</t>
@@ -1001,22 +983,22 @@
     <t>Duboish4</t>
   </si>
   <si>
-    <t>91647973</t>
-  </si>
-  <si>
-    <t>MeosOneFarm</t>
-  </si>
-  <si>
     <t>84225950</t>
   </si>
   <si>
     <t>M4Jokfarm1</t>
   </si>
   <si>
-    <t>180317373</t>
-  </si>
-  <si>
-    <t>Leth2</t>
+    <t>50444068</t>
+  </si>
+  <si>
+    <t>JAE밥</t>
+  </si>
+  <si>
+    <t>140618805</t>
+  </si>
+  <si>
+    <t>TomBin fam 8a</t>
   </si>
   <si>
     <t>78982665</t>
@@ -1025,58 +1007,100 @@
     <t>mini kjm81</t>
   </si>
   <si>
+    <t>102634767</t>
+  </si>
+  <si>
+    <t>Mini Kjm81</t>
+  </si>
+  <si>
+    <t>139478005</t>
+  </si>
+  <si>
+    <t>TomBin fam 7b</t>
+  </si>
+  <si>
+    <t>203348651</t>
+  </si>
+  <si>
+    <t>Tsu F3</t>
+  </si>
+  <si>
+    <t>139477648</t>
+  </si>
+  <si>
+    <t>Hq fam 7a</t>
+  </si>
+  <si>
+    <t>203397451</t>
+  </si>
+  <si>
+    <t>Tsu F6</t>
+  </si>
+  <si>
+    <t>140697952</t>
+  </si>
+  <si>
+    <t>TomBin fam 9a</t>
+  </si>
+  <si>
+    <t>203395098</t>
+  </si>
+  <si>
+    <t>Tsu F5</t>
+  </si>
+  <si>
+    <t>161998715</t>
+  </si>
+  <si>
+    <t>TomBin fam 9b</t>
+  </si>
+  <si>
+    <t>203345646</t>
+  </si>
+  <si>
+    <t>Tsu F2</t>
+  </si>
+  <si>
+    <t>203338641</t>
+  </si>
+  <si>
+    <t>Tsu F1</t>
+  </si>
+  <si>
+    <t>157764384</t>
+  </si>
+  <si>
+    <t>TomBin fam 14a</t>
+  </si>
+  <si>
+    <t>88450074</t>
+  </si>
+  <si>
+    <t>Tom bin fam9d</t>
+  </si>
+  <si>
     <t>178380631</t>
   </si>
   <si>
     <t>火Akaza乂wood</t>
   </si>
   <si>
-    <t>50444068</t>
-  </si>
-  <si>
-    <t>JAE밥</t>
-  </si>
-  <si>
     <t>178379849</t>
   </si>
   <si>
     <t>火Akaza乂St</t>
   </si>
   <si>
-    <t>102634767</t>
-  </si>
-  <si>
-    <t>Mini Kjm81</t>
-  </si>
-  <si>
-    <t>140618805</t>
-  </si>
-  <si>
-    <t>TomBin fam 8a</t>
-  </si>
-  <si>
-    <t>44779188</t>
-  </si>
-  <si>
-    <t>JAE 밥</t>
-  </si>
-  <si>
-    <t>157764384</t>
-  </si>
-  <si>
-    <t>TomBin fam 14a</t>
-  </si>
-  <si>
-    <t>139477648</t>
-  </si>
-  <si>
-    <t>Hq fam 7a</t>
-  </si>
-  <si>
-    <t>140697952</t>
-  </si>
-  <si>
-    <t>TomBin fam 9a</t>
+    <t>179391581</t>
+  </si>
+  <si>
+    <t>Tom Bin fam 14c</t>
+  </si>
+  <si>
+    <t>203392293</t>
+  </si>
+  <si>
+    <t>Tsu F4</t>
   </si>
   <si>
     <t>179611176</t>
@@ -1085,28 +1109,40 @@
     <t>Tom Bin fam 14d</t>
   </si>
   <si>
-    <t>161998715</t>
-  </si>
-  <si>
-    <t>TomBin fam 9b</t>
-  </si>
-  <si>
-    <t>179391581</t>
-  </si>
-  <si>
-    <t>Tom Bin fam 14c</t>
-  </si>
-  <si>
-    <t>88450074</t>
-  </si>
-  <si>
-    <t>Tom bin fam9d</t>
-  </si>
-  <si>
-    <t>139478005</t>
-  </si>
-  <si>
-    <t>TomBin fam 7b</t>
+    <t>157315131</t>
+  </si>
+  <si>
+    <t>TomBin fam 8b</t>
+  </si>
+  <si>
+    <t>203439895</t>
+  </si>
+  <si>
+    <t>Tsu F8</t>
+  </si>
+  <si>
+    <t>161998951</t>
+  </si>
+  <si>
+    <t>TomBin fam 14b</t>
+  </si>
+  <si>
+    <t>88452327</t>
+  </si>
+  <si>
+    <t>Tom bin fam8d</t>
+  </si>
+  <si>
+    <t>171183748</t>
+  </si>
+  <si>
+    <t>FarmForMee3</t>
+  </si>
+  <si>
+    <t>203439152</t>
+  </si>
+  <si>
+    <t>Tsu F7</t>
   </si>
   <si>
     <t>171183362</t>
@@ -1115,22 +1151,40 @@
     <t>FarmForMee2</t>
   </si>
   <si>
-    <t>171183748</t>
-  </si>
-  <si>
-    <t>FarmForMee3</t>
-  </si>
-  <si>
-    <t>157315131</t>
-  </si>
-  <si>
-    <t>TomBin fam 8b</t>
-  </si>
-  <si>
-    <t>161998951</t>
-  </si>
-  <si>
-    <t>TomBin fam 14b</t>
+    <t>205942359</t>
+  </si>
+  <si>
+    <t>Kazou Farm</t>
+  </si>
+  <si>
+    <t>161998216</t>
+  </si>
+  <si>
+    <t>TomBin fam 7c</t>
+  </si>
+  <si>
+    <t>161998483</t>
+  </si>
+  <si>
+    <t>TomBin fam 8c</t>
+  </si>
+  <si>
+    <t>171150709</t>
+  </si>
+  <si>
+    <t>TomBin fam 7d</t>
+  </si>
+  <si>
+    <t>88459600</t>
+  </si>
+  <si>
+    <t>Tombin 7e</t>
+  </si>
+  <si>
+    <t>171152106</t>
+  </si>
+  <si>
+    <t>TomBin fam 9c</t>
   </si>
   <si>
     <t>163728162</t>
@@ -1139,84 +1193,12 @@
     <t>Mr ㅡ 넘4</t>
   </si>
   <si>
-    <t>171152106</t>
-  </si>
-  <si>
-    <t>TomBin fam 9c</t>
-  </si>
-  <si>
-    <t>171150709</t>
-  </si>
-  <si>
-    <t>TomBin fam 7d</t>
-  </si>
-  <si>
-    <t>161998483</t>
-  </si>
-  <si>
-    <t>TomBin fam 8c</t>
-  </si>
-  <si>
-    <t>203345646</t>
-  </si>
-  <si>
-    <t>TsuFarm2</t>
-  </si>
-  <si>
-    <t>203348651</t>
-  </si>
-  <si>
-    <t>TsuFarm3</t>
-  </si>
-  <si>
-    <t>203338641</t>
-  </si>
-  <si>
-    <t>TsuFarm</t>
-  </si>
-  <si>
-    <t>161998216</t>
-  </si>
-  <si>
-    <t>TomBin fam 7c</t>
-  </si>
-  <si>
-    <t>203397451</t>
-  </si>
-  <si>
-    <t>TsuFarm6</t>
-  </si>
-  <si>
-    <t>203395098</t>
-  </si>
-  <si>
-    <t>TsuFarm5</t>
-  </si>
-  <si>
-    <t>203392293</t>
-  </si>
-  <si>
-    <t>TsuFarm4</t>
-  </si>
-  <si>
-    <t>88452327</t>
-  </si>
-  <si>
-    <t>Tom bin fam8d</t>
-  </si>
-  <si>
     <t>159267910</t>
   </si>
   <si>
     <t>Tom bin fam 14e</t>
   </si>
   <si>
-    <t>88459600</t>
-  </si>
-  <si>
-    <t>Tombin 7e</t>
-  </si>
-  <si>
     <t>134391802</t>
   </si>
   <si>
@@ -1235,18 +1217,6 @@
     <t>LY218 005</t>
   </si>
   <si>
-    <t>203439895</t>
-  </si>
-  <si>
-    <t>TsuFarm13</t>
-  </si>
-  <si>
-    <t>203439152</t>
-  </si>
-  <si>
-    <t>TsuFarm12</t>
-  </si>
-  <si>
     <t>65303058</t>
   </si>
   <si>
@@ -1271,6 +1241,18 @@
     <t>AreszelFarm4</t>
   </si>
   <si>
+    <t>201432367</t>
+  </si>
+  <si>
+    <t>Donald Farm New</t>
+  </si>
+  <si>
+    <t>103426488</t>
+  </si>
+  <si>
+    <t>LY218 006</t>
+  </si>
+  <si>
     <t>129794667</t>
   </si>
   <si>
@@ -1283,10 +1265,10 @@
     <t>AreszelFarmerII</t>
   </si>
   <si>
-    <t>103426488</t>
-  </si>
-  <si>
-    <t>LY218 006</t>
+    <t>164365451</t>
+  </si>
+  <si>
+    <t>Mr ㅡ 넘5</t>
   </si>
   <si>
     <t>2688762</t>
@@ -1313,22 +1295,10 @@
     <t>Gobernador45465850</t>
   </si>
   <si>
-    <t>205942359</t>
-  </si>
-  <si>
-    <t>Kazou Farm</t>
-  </si>
-  <si>
-    <t>201432367</t>
-  </si>
-  <si>
-    <t>Donald Farm New</t>
-  </si>
-  <si>
-    <t>164365451</t>
-  </si>
-  <si>
-    <t>Mr ㅡ 넘5</t>
+    <t>75742032</t>
+  </si>
+  <si>
+    <t>Ɓo乄 F3 LUA</t>
   </si>
   <si>
     <t>50812084</t>
@@ -1337,12 +1307,24 @@
     <t>AreszelFarms2</t>
   </si>
   <si>
+    <t>146461573</t>
+  </si>
+  <si>
+    <t>crazybeauty ﾒK</t>
+  </si>
+  <si>
     <t>146462020</t>
   </si>
   <si>
     <t>crazybeauty ﾐK</t>
   </si>
   <si>
+    <t>160942157</t>
+  </si>
+  <si>
+    <t>bozkurtfrm</t>
+  </si>
+  <si>
     <t>90127796</t>
   </si>
   <si>
@@ -1355,40 +1337,40 @@
     <t>Johan Swe IV</t>
   </si>
   <si>
-    <t>160942157</t>
-  </si>
-  <si>
-    <t>bozkurtfrm</t>
-  </si>
-  <si>
     <t>154597342</t>
   </si>
   <si>
     <t>LY218 004</t>
   </si>
   <si>
-    <t>146461573</t>
-  </si>
-  <si>
-    <t>crazybeauty ﾒK</t>
-  </si>
-  <si>
-    <t>75742032</t>
-  </si>
-  <si>
-    <t>Ɓo乄 F3 LUA</t>
-  </si>
-  <si>
     <t>139652333</t>
   </si>
   <si>
     <t>BoZkUrT</t>
   </si>
   <si>
-    <t>53120332</t>
-  </si>
-  <si>
-    <t>Gojis</t>
+    <t>45607665</t>
+  </si>
+  <si>
+    <t>Angies001</t>
+  </si>
+  <si>
+    <t>45419698</t>
+  </si>
+  <si>
+    <t>Gouverneur45419698</t>
+  </si>
+  <si>
+    <t>177128839</t>
+  </si>
+  <si>
+    <t>LY218 008</t>
+  </si>
+  <si>
+    <t>177128488</t>
+  </si>
+  <si>
+    <t>LY218 007</t>
   </si>
   <si>
     <t>32683922</t>
@@ -1397,36 +1379,36 @@
     <t>sushiG</t>
   </si>
   <si>
-    <t>177128839</t>
-  </si>
-  <si>
-    <t>LY218 008</t>
-  </si>
-  <si>
     <t>171641848</t>
   </si>
   <si>
     <t>LittleFatHubby</t>
   </si>
   <si>
-    <t>45495292</t>
-  </si>
-  <si>
-    <t>Правитель45495292</t>
-  </si>
-  <si>
-    <t>177128488</t>
-  </si>
-  <si>
-    <t>LY218 007</t>
-  </si>
-  <si>
     <t>86112162</t>
   </si>
   <si>
     <t>AreszelFarmersI</t>
   </si>
   <si>
+    <t>45433384</t>
+  </si>
+  <si>
+    <t>robertllop</t>
+  </si>
+  <si>
+    <t>140818884</t>
+  </si>
+  <si>
+    <t>Ɓo乄 F2 LUA</t>
+  </si>
+  <si>
+    <t>134503682</t>
+  </si>
+  <si>
+    <t>Ɓo乄 F4 GO</t>
+  </si>
+  <si>
     <t>87839724</t>
   </si>
   <si>
@@ -1439,22 +1421,16 @@
     <t>㍇㌕㌁㌇㌖㍇㌖㌕㍇㌕㌁㌇㌖㌁㌇</t>
   </si>
   <si>
-    <t>140818884</t>
-  </si>
-  <si>
-    <t>Ɓo乄 F2 LUA</t>
-  </si>
-  <si>
-    <t>37704077</t>
-  </si>
-  <si>
-    <t>Nemo Jr 2</t>
-  </si>
-  <si>
-    <t>2408834</t>
-  </si>
-  <si>
-    <t>AreszelFarmers9</t>
+    <t>45475947</t>
+  </si>
+  <si>
+    <t>Правитель45475947</t>
+  </si>
+  <si>
+    <t>45436607</t>
+  </si>
+  <si>
+    <t>Chipotas</t>
   </si>
   <si>
     <t>56136073</t>
@@ -1463,60 +1439,42 @@
     <t>Governor56136073</t>
   </si>
   <si>
+    <t>55095344</t>
+  </si>
+  <si>
+    <t>Areszelfarm</t>
+  </si>
+  <si>
+    <t>45476141</t>
+  </si>
+  <si>
+    <t>Governor45476141</t>
+  </si>
+  <si>
     <t>45427955</t>
   </si>
   <si>
     <t>Governador45427955</t>
   </si>
   <si>
-    <t>45436607</t>
-  </si>
-  <si>
-    <t>Chipotas</t>
-  </si>
-  <si>
-    <t>134503682</t>
-  </si>
-  <si>
-    <t>Ɓo乄 F4 GO</t>
-  </si>
-  <si>
-    <t>55095344</t>
-  </si>
-  <si>
-    <t>Areszelfarm</t>
-  </si>
-  <si>
     <t>55133977</t>
   </si>
   <si>
     <t>Tinybyrd</t>
   </si>
   <si>
-    <t>134401427</t>
-  </si>
-  <si>
-    <t>AreszelF1</t>
-  </si>
-  <si>
-    <t>45452743</t>
-  </si>
-  <si>
-    <t>الحاكم45452743</t>
-  </si>
-  <si>
-    <t>45476141</t>
-  </si>
-  <si>
-    <t>Governor45476141</t>
-  </si>
-  <si>
     <t>159671811</t>
   </si>
   <si>
     <t>AreszelF4</t>
   </si>
   <si>
+    <t>195940357</t>
+  </si>
+  <si>
+    <t>Lethofm2</t>
+  </si>
+  <si>
     <t>144022946</t>
   </si>
   <si>
@@ -1529,22 +1487,16 @@
     <t>JAE 밥3</t>
   </si>
   <si>
-    <t>45453096</t>
-  </si>
-  <si>
-    <t>Gouverneur45453096</t>
-  </si>
-  <si>
-    <t>195940357</t>
-  </si>
-  <si>
-    <t>Lethofm2</t>
-  </si>
-  <si>
-    <t>181165556</t>
-  </si>
-  <si>
-    <t>petere Jr sauce</t>
+    <t>44660102</t>
+  </si>
+  <si>
+    <t>Governor44660102</t>
+  </si>
+  <si>
+    <t>45209297</t>
+  </si>
+  <si>
+    <t>Vali45209297</t>
   </si>
   <si>
     <t>95097322</t>
@@ -1565,16 +1517,16 @@
     <t>gatsuko</t>
   </si>
   <si>
-    <t>45486709</t>
-  </si>
-  <si>
-    <t>Gubernur45486709</t>
-  </si>
-  <si>
-    <t>178521136</t>
-  </si>
-  <si>
-    <t>亗Maki 亗</t>
+    <t>45223115</t>
+  </si>
+  <si>
+    <t>Thống đốc45223115</t>
+  </si>
+  <si>
+    <t>45415673</t>
+  </si>
+  <si>
+    <t>Governor45415673</t>
   </si>
   <si>
     <t>170276865</t>
@@ -1583,6 +1535,18 @@
     <t>Arvix mine</t>
   </si>
   <si>
+    <t>182353982</t>
+  </si>
+  <si>
+    <t>亗HerHighness</t>
+  </si>
+  <si>
+    <t>178002519</t>
+  </si>
+  <si>
+    <t>LY218 009</t>
+  </si>
+  <si>
     <t>191622173</t>
   </si>
   <si>
@@ -1601,18 +1565,6 @@
     <t>JAE골드</t>
   </si>
   <si>
-    <t>45415673</t>
-  </si>
-  <si>
-    <t>Governor45415673</t>
-  </si>
-  <si>
-    <t>178002519</t>
-  </si>
-  <si>
-    <t>LY218 009</t>
-  </si>
-  <si>
     <t>204452233</t>
   </si>
   <si>
@@ -1625,28 +1577,10 @@
     <t>JAE 금음</t>
   </si>
   <si>
-    <t>45462320</t>
-  </si>
-  <si>
-    <t>Governor45462320</t>
-  </si>
-  <si>
-    <t>45446126</t>
-  </si>
-  <si>
-    <t>Clqness</t>
-  </si>
-  <si>
-    <t>63837105</t>
-  </si>
-  <si>
-    <t>Thống đốc63837105</t>
-  </si>
-  <si>
-    <t>45417004</t>
-  </si>
-  <si>
-    <t>지도자45417004</t>
+    <t>50152805</t>
+  </si>
+  <si>
+    <t>Governor50152805</t>
   </si>
   <si>
     <t>207172883</t>
@@ -1655,58 +1589,28 @@
     <t>JAE gold</t>
   </si>
   <si>
-    <t>197982730</t>
-  </si>
-  <si>
-    <t>Gobernador197982730</t>
-  </si>
-  <si>
     <t>81613744</t>
   </si>
   <si>
     <t>1662 is dead</t>
   </si>
   <si>
-    <t>197983578</t>
-  </si>
-  <si>
-    <t>Gobernador197983578</t>
-  </si>
-  <si>
-    <t>200836946</t>
-  </si>
-  <si>
-    <t>miniATLAS</t>
-  </si>
-  <si>
-    <t>200837345</t>
-  </si>
-  <si>
-    <t>miniATLAS6</t>
-  </si>
-  <si>
-    <t>203950977</t>
-  </si>
-  <si>
-    <t>megumixs</t>
-  </si>
-  <si>
     <t>207351539</t>
   </si>
   <si>
     <t>JAE Gold</t>
   </si>
   <si>
-    <t>45433649</t>
-  </si>
-  <si>
-    <t>Gouverneur45433649</t>
-  </si>
-  <si>
-    <t>141034131</t>
-  </si>
-  <si>
-    <t>Beyyayla 4</t>
+    <t>44848705</t>
+  </si>
+  <si>
+    <t>執政官44848705</t>
+  </si>
+  <si>
+    <t>206844302</t>
+  </si>
+  <si>
+    <t>LY218 0014</t>
   </si>
   <si>
     <t>186268387</t>
@@ -1715,12 +1619,6 @@
     <t>dead1662</t>
   </si>
   <si>
-    <t>206844302</t>
-  </si>
-  <si>
-    <t>LY218 0014</t>
-  </si>
-  <si>
     <t>202536926</t>
   </si>
   <si>
@@ -1733,6 +1631,18 @@
     <t>JAE gold 1</t>
   </si>
   <si>
+    <t>135527740</t>
+  </si>
+  <si>
+    <t>Gubernur135527740</t>
+  </si>
+  <si>
+    <t>52682374</t>
+  </si>
+  <si>
+    <t>Правитель52682374</t>
+  </si>
+  <si>
     <t>205305706</t>
   </si>
   <si>
@@ -1745,18 +1655,30 @@
     <t>Governor203012726</t>
   </si>
   <si>
+    <t>210250566</t>
+  </si>
+  <si>
+    <t>Governor210250566</t>
+  </si>
+  <si>
+    <t>210191293</t>
+  </si>
+  <si>
+    <t>Governor210191293</t>
+  </si>
+  <si>
     <t>205757058</t>
   </si>
   <si>
     <t>Governor205757058</t>
   </si>
   <si>
+    <t>Governor ID</t>
+  </si>
+  <si>
     <t>Governor Name</t>
   </si>
   <si>
-    <t>Governor ID</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
@@ -1766,19 +1688,19 @@
     <t>Kill Points</t>
   </si>
   <si>
+    <t>Tier 5 Kills</t>
+  </si>
+  <si>
+    <t>Tier 4 Kills</t>
+  </si>
+  <si>
+    <t>Tier 3 Kills</t>
+  </si>
+  <si>
+    <t>Tier 2 Kills</t>
+  </si>
+  <si>
     <t>Tier 1 Kills</t>
-  </si>
-  <si>
-    <t>Tier 2 Kills</t>
-  </si>
-  <si>
-    <t>Tier 3 Kills</t>
-  </si>
-  <si>
-    <t>Tier 4 Kills</t>
-  </si>
-  <si>
-    <t>Tier 5 Kills</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1744,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -2098,54 +2020,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J290"/>
+  <dimension ref="A1:J277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2156,19 +2068,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>115275044</v>
+        <v>108856744</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>845429</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>474412374</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22349239</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2742492</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2177,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13374</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2188,28 +2100,28 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>103544655</v>
+        <v>101084881</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>380572</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7550216</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>328500</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>97880</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2220,19 +2132,19 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>103318087</v>
+        <v>100232815</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>91305</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>95543816</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4683302</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>187775</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2241,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2252,28 +2164,28 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>102622987</v>
+        <v>97565463</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>555641</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>190567667</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>9109469</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>829199</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>37312</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>58006</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,28 +2196,28 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>93512229</v>
+        <v>97455059</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>741418</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>182429920</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>8253046</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1729006</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1429</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>66120</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2316,19 +2228,19 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>92093036</v>
+        <v>88884093</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>36109</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>182488351</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>8761472</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>725722</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2337,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2348,19 +2260,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>91435601</v>
+        <v>88269023</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>374157</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>24990711</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1093654</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>311763</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2369,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2380,28 +2292,28 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>90650338</v>
+        <v>88116361</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>262358</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>434006192</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>20458496</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2481619</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14410</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2412,28 +2324,28 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>89710537</v>
+        <v>87227415</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>49018</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>25742895</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1244984</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>84174</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2444,28 +2356,28 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>87599743</v>
+        <v>87084341</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>697356</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>172559801</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>8194565</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>864129</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1987</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1514</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>81177</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2476,28 +2388,28 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>86979571</v>
+        <v>86940516</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>163283</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>42444157</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1991018</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>262219</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2508,19 +2420,19 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>86629926</v>
+        <v>84860652</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>58150</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>17923874</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>766771</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>257229</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2529,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>80821</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2540,28 +2452,28 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>85842352</v>
+        <v>84689165</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>366777</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>73237675</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3428698</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>465308</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4720</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2572,28 +2484,28 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>85647585</v>
+        <v>84643178</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>408515</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>409910281</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>19411051</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2154574</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>39060</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>324985</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2604,28 +2516,28 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>85262567</v>
+        <v>83538886</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1156249</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>268363116</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>12362111</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2110880</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1901</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2006</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2636,28 +2548,28 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <v>84637709</v>
+        <v>81961922</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>422214</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>161238802</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>7784516</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>553440</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3202</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>23191</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2668,28 +2580,28 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <v>84405885</v>
+        <v>81922877</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1371724</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>89045915</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>4131347</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>641053</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1951</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2700,28 +2612,28 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>84364716</v>
+        <v>81774216</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>43702</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>17236796</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>833541</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>56250</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>15777</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2732,7 +2644,7 @@
         <v>37</v>
       </c>
       <c r="C20">
-        <v>82948520</v>
+        <v>80437065</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2764,28 +2676,28 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>81094945</v>
+        <v>80381487</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>88130</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>5007232</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>203444</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>93807</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2796,28 +2708,28 @@
         <v>41</v>
       </c>
       <c r="C22">
-        <v>80776734</v>
+        <v>80366592</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>278232</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>516045872</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>24497391</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2609703</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2828,28 +2740,28 @@
         <v>43</v>
       </c>
       <c r="C23">
-        <v>80342585</v>
+        <v>79748230</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>538488</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>67778277</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>3178156</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>420381</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>55016</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2860,28 +2772,28 @@
         <v>45</v>
       </c>
       <c r="C24">
-        <v>79990973</v>
+        <v>78164181</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1757138</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>49001393</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2320976</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>256978</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4103</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2892,28 +2804,28 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>79647196</v>
+        <v>77902359</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>126329</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>101350905</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>4820727</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>493315</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12236</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2924,28 +2836,28 @@
         <v>49</v>
       </c>
       <c r="C26">
-        <v>79179752</v>
+        <v>77501660</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>386791</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>47030772</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2044848</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>613283</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,28 +2868,28 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>79156423</v>
+        <v>77097305</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>657214</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>11875393</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>488065</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>211338</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2988,28 +2900,28 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>78780555</v>
+        <v>76781255</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>217006</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>110368381</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>5018430</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>954733</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>113078</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3020,28 +2932,28 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <v>76717231</v>
+        <v>76618060</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>554994</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>403955794</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>19354715</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1686022</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3052,19 +2964,19 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <v>76346699</v>
+        <v>75442975</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>27036</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>11838631</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>580706</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>22451</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3073,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3084,28 +2996,28 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <v>75854648</v>
+        <v>75093107</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>40583</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>248074494</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>11813747</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1176017</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2425</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>172670</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3116,28 +3028,28 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>75028548</v>
+        <v>74476908</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>331072</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>102612714</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>4828499</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>603480</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>3312</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3148,28 +3060,28 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>74970996</v>
+        <v>74434437</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>520921</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>23435813</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1037694</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>268172</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3180,28 +3092,28 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>74968692</v>
+        <v>74363295</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>442386</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>29412923</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1310388</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>320074</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>935</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3212,28 +3124,28 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>74852362</v>
+        <v>70682704</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>336139</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>38580819</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1754334</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>347819</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1221</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2792</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>27407</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3244,19 +3156,19 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>74767487</v>
+        <v>70642787</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>519376</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>65642120</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3000080</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>564034</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3265,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>904</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3276,28 +3188,28 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>73857051</v>
+        <v>70513538</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>813649</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>237042168</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>10199626</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3293269</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>55547</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>27282</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3308,22 +3220,22 @@
         <v>73</v>
       </c>
       <c r="C38">
-        <v>73472466</v>
+        <v>70111908</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>361387</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>5365842</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>207602</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>121291</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3340,28 +3252,28 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>72821992</v>
+        <v>69730926</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>472256</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>96775790</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>4624934</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>427296</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3372,28 +3284,28 @@
         <v>77</v>
       </c>
       <c r="C40">
-        <v>70989644</v>
+        <v>69575449</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>478521</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>86107346</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>4045931</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>518562</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3404,28 +3316,28 @@
         <v>79</v>
       </c>
       <c r="C41">
-        <v>69938899</v>
+        <v>67495311</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>342321</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>27100823</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1256251</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>196347</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>11051</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3436,19 +3348,19 @@
         <v>81</v>
       </c>
       <c r="C42">
-        <v>69662432</v>
+        <v>67402144</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>32417</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>48579908</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2313974</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>230035</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3457,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3468,28 +3380,28 @@
         <v>83</v>
       </c>
       <c r="C43">
-        <v>68403610</v>
+        <v>65576926</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>130125</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>42316788</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2018573</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>193980</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>21870</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3500,7 +3412,7 @@
         <v>85</v>
       </c>
       <c r="C44">
-        <v>65848800</v>
+        <v>64663358</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3532,19 +3444,19 @@
         <v>87</v>
       </c>
       <c r="C45">
-        <v>64663358</v>
+        <v>63699312</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>707787</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3361840</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>142535</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>51114</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3564,7 +3476,7 @@
         <v>89</v>
       </c>
       <c r="C46">
-        <v>63506901</v>
+        <v>63331904</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3596,7 +3508,7 @@
         <v>91</v>
       </c>
       <c r="C47">
-        <v>58619904</v>
+        <v>59001338</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3628,7 +3540,7 @@
         <v>93</v>
       </c>
       <c r="C48">
-        <v>58598790</v>
+        <v>58385020</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3660,7 +3572,7 @@
         <v>95</v>
       </c>
       <c r="C49">
-        <v>56724905</v>
+        <v>56974313</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3724,22 +3636,22 @@
         <v>99</v>
       </c>
       <c r="C51">
-        <v>54988224</v>
+        <v>53255319</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>431142</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>5707430</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>243971</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>82797</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3756,7 +3668,7 @@
         <v>101</v>
       </c>
       <c r="C52">
-        <v>52666531</v>
+        <v>51652878</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3788,7 +3700,7 @@
         <v>103</v>
       </c>
       <c r="C53">
-        <v>50856321</v>
+        <v>50784497</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3820,7 +3732,7 @@
         <v>105</v>
       </c>
       <c r="C54">
-        <v>50476944</v>
+        <v>50745538</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3852,22 +3764,22 @@
         <v>107</v>
       </c>
       <c r="C55">
-        <v>49895416</v>
+        <v>49483120</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>605046</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>8339384</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>353857</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>126078</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -3884,22 +3796,22 @@
         <v>109</v>
       </c>
       <c r="C56">
-        <v>49361427</v>
+        <v>47899081</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>506096</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>6671658</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>262595</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>141849</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3916,22 +3828,22 @@
         <v>111</v>
       </c>
       <c r="C57">
-        <v>49115601</v>
+        <v>42851659</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>315697</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>3170322</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>132071</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>51487</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3508</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3948,19 +3860,19 @@
         <v>113</v>
       </c>
       <c r="C58">
-        <v>43943751</v>
+        <v>40728140</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>73203</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1385000</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>63949</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>10602</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3980,19 +3892,19 @@
         <v>115</v>
       </c>
       <c r="C59">
-        <v>40671733</v>
+        <v>39060766</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>606470</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>30160</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4012,19 +3924,19 @@
         <v>117</v>
       </c>
       <c r="C60">
-        <v>40153420</v>
+        <v>37046765</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>517224</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>3919570</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>176758</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>38441</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -4044,7 +3956,7 @@
         <v>119</v>
       </c>
       <c r="C61">
-        <v>37961284</v>
+        <v>36899759</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -4076,19 +3988,19 @@
         <v>121</v>
       </c>
       <c r="C62">
-        <v>37525453</v>
+        <v>36653333</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>167835</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2380080</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>99913</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>38182</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4108,19 +4020,19 @@
         <v>123</v>
       </c>
       <c r="C63">
-        <v>37259056</v>
+        <v>35311058</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>164504</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1716040</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>66453</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>38698</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -4140,7 +4052,7 @@
         <v>125</v>
       </c>
       <c r="C64">
-        <v>36569273</v>
+        <v>34241293</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4172,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="C65">
-        <v>36153159</v>
+        <v>33215902</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -4204,7 +4116,7 @@
         <v>129</v>
       </c>
       <c r="C66">
-        <v>34117767</v>
+        <v>32202068</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4236,7 +4148,7 @@
         <v>131</v>
       </c>
       <c r="C67">
-        <v>33742894</v>
+        <v>31466860</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4268,19 +4180,19 @@
         <v>133</v>
       </c>
       <c r="C68">
-        <v>33092769</v>
+        <v>31336608</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>707539</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>6702069</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>249870</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>170466</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -4289,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -4300,19 +4212,19 @@
         <v>135</v>
       </c>
       <c r="C69">
-        <v>32251670</v>
+        <v>30570368</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>545636</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>6508900</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>267414</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>116062</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -4332,7 +4244,7 @@
         <v>137</v>
       </c>
       <c r="C70">
-        <v>32021416</v>
+        <v>30003934</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4364,22 +4276,22 @@
         <v>139</v>
       </c>
       <c r="C71">
-        <v>31926921</v>
+        <v>29887447</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>332976</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>6837650</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>315322</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>52295</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2065</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4396,22 +4308,22 @@
         <v>141</v>
       </c>
       <c r="C72">
-        <v>31345576</v>
+        <v>29722246</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>2400530</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>23792010</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1005587</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>367705</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4428,7 +4340,7 @@
         <v>143</v>
       </c>
       <c r="C73">
-        <v>30807931</v>
+        <v>29495883</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4460,19 +4372,19 @@
         <v>145</v>
       </c>
       <c r="C74">
-        <v>29909932</v>
+        <v>29376065</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>56220</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>128970</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>5993</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4492,7 +4404,7 @@
         <v>147</v>
       </c>
       <c r="C75">
-        <v>29147786</v>
+        <v>29316638</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4524,7 +4436,7 @@
         <v>149</v>
       </c>
       <c r="C76">
-        <v>29145883</v>
+        <v>29044100</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4556,7 +4468,7 @@
         <v>151</v>
       </c>
       <c r="C77">
-        <v>29139110</v>
+        <v>28366308</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4588,7 +4500,7 @@
         <v>153</v>
       </c>
       <c r="C78">
-        <v>29034840</v>
+        <v>28225861</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4620,7 +4532,7 @@
         <v>155</v>
       </c>
       <c r="C79">
-        <v>28203390</v>
+        <v>28159652</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4652,19 +4564,19 @@
         <v>157</v>
       </c>
       <c r="C80">
-        <v>28165202</v>
+        <v>28003063</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>74100</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>3553</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4684,7 +4596,7 @@
         <v>159</v>
       </c>
       <c r="C81">
-        <v>28030461</v>
+        <v>27278522</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4716,19 +4628,19 @@
         <v>161</v>
       </c>
       <c r="C82">
-        <v>27485562</v>
+        <v>27275600</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>196680</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>7047</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>5574</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4748,19 +4660,19 @@
         <v>163</v>
       </c>
       <c r="C83">
-        <v>27057363</v>
+        <v>27123239</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>13816</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>544930</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>20401</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>13691</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4780,7 +4692,7 @@
         <v>165</v>
       </c>
       <c r="C84">
-        <v>26757036</v>
+        <v>27113427</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -4812,7 +4724,7 @@
         <v>167</v>
       </c>
       <c r="C85">
-        <v>26755407</v>
+        <v>26624273</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4844,19 +4756,19 @@
         <v>169</v>
       </c>
       <c r="C86">
-        <v>26648322</v>
+        <v>26519505</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>515614</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>4981250</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>197159</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>103807</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4876,7 +4788,7 @@
         <v>171</v>
       </c>
       <c r="C87">
-        <v>26628681</v>
+        <v>26036638</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4908,19 +4820,19 @@
         <v>173</v>
       </c>
       <c r="C88">
-        <v>26016987</v>
+        <v>25741330</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>325044</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>4193150</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>182300</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>54715</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4940,19 +4852,19 @@
         <v>175</v>
       </c>
       <c r="C89">
-        <v>25929423</v>
+        <v>25317544</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>130657</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>2154420</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>89377</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>36688</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4972,16 +4884,16 @@
         <v>177</v>
       </c>
       <c r="C90">
-        <v>25724638</v>
+        <v>24997125</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -5004,28 +4916,28 @@
         <v>179</v>
       </c>
       <c r="C91">
-        <v>25267873</v>
+        <v>24877239</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>780516</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1155</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>18424</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>50904</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>40855</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1439254</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -5036,7 +4948,7 @@
         <v>181</v>
       </c>
       <c r="C92">
-        <v>25029977</v>
+        <v>24838800</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5068,7 +4980,7 @@
         <v>183</v>
       </c>
       <c r="C93">
-        <v>24941554</v>
+        <v>24498771</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5100,7 +5012,7 @@
         <v>185</v>
       </c>
       <c r="C94">
-        <v>24852494</v>
+        <v>23819318</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5132,7 +5044,7 @@
         <v>187</v>
       </c>
       <c r="C95">
-        <v>24362064</v>
+        <v>23669481</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5164,7 +5076,7 @@
         <v>189</v>
       </c>
       <c r="C96">
-        <v>24239695</v>
+        <v>22958463</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5196,7 +5108,7 @@
         <v>191</v>
       </c>
       <c r="C97">
-        <v>24006734</v>
+        <v>22920978</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5228,7 +5140,7 @@
         <v>193</v>
       </c>
       <c r="C98">
-        <v>23627213</v>
+        <v>22632087</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5260,7 +5172,7 @@
         <v>195</v>
       </c>
       <c r="C99">
-        <v>23258455</v>
+        <v>22220849</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5292,28 +5204,28 @@
         <v>197</v>
       </c>
       <c r="C100">
-        <v>23155161</v>
+        <v>20943924</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>725132</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>6566338</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>266595</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>123443</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -5324,28 +5236,28 @@
         <v>199</v>
       </c>
       <c r="C101">
-        <v>22906965</v>
+        <v>20363091</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>318515</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>5857519</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>246033</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>93684</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -5356,7 +5268,7 @@
         <v>201</v>
       </c>
       <c r="C102">
-        <v>22788373</v>
+        <v>20301076</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5388,7 +5300,7 @@
         <v>203</v>
       </c>
       <c r="C103">
-        <v>22457535</v>
+        <v>20288843</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5420,7 +5332,7 @@
         <v>205</v>
       </c>
       <c r="C104">
-        <v>22191687</v>
+        <v>19967471</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5452,7 +5364,7 @@
         <v>207</v>
       </c>
       <c r="C105">
-        <v>22172660</v>
+        <v>19950120</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5484,7 +5396,7 @@
         <v>209</v>
       </c>
       <c r="C106">
-        <v>21950235</v>
+        <v>19753795</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5516,7 +5428,7 @@
         <v>211</v>
       </c>
       <c r="C107">
-        <v>20851943</v>
+        <v>19051509</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5548,7 +5460,7 @@
         <v>213</v>
       </c>
       <c r="C108">
-        <v>19998785</v>
+        <v>19003799</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -5580,7 +5492,7 @@
         <v>215</v>
       </c>
       <c r="C109">
-        <v>19837207</v>
+        <v>18965996</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5612,7 +5524,7 @@
         <v>217</v>
       </c>
       <c r="C110">
-        <v>19836189</v>
+        <v>18916891</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5644,7 +5556,7 @@
         <v>219</v>
       </c>
       <c r="C111">
-        <v>19827958</v>
+        <v>18691279</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5676,7 +5588,7 @@
         <v>221</v>
       </c>
       <c r="C112">
-        <v>19163882</v>
+        <v>18617709</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5708,7 +5620,7 @@
         <v>223</v>
       </c>
       <c r="C113">
-        <v>19003799</v>
+        <v>18490392</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5740,7 +5652,7 @@
         <v>225</v>
       </c>
       <c r="C114">
-        <v>18969990</v>
+        <v>18344711</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5772,7 +5684,7 @@
         <v>227</v>
       </c>
       <c r="C115">
-        <v>18933854</v>
+        <v>18204616</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -5804,7 +5716,7 @@
         <v>229</v>
       </c>
       <c r="C116">
-        <v>18664437</v>
+        <v>18080891</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5836,7 +5748,7 @@
         <v>231</v>
       </c>
       <c r="C117">
-        <v>18662094</v>
+        <v>18068921</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5868,7 +5780,7 @@
         <v>233</v>
       </c>
       <c r="C118">
-        <v>18553534</v>
+        <v>17674065</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -5900,22 +5812,22 @@
         <v>235</v>
       </c>
       <c r="C119">
-        <v>18136452</v>
+        <v>17567857</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>604660</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>4538624</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>199126</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>55490</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5932,7 +5844,7 @@
         <v>237</v>
       </c>
       <c r="C120">
-        <v>18127340</v>
+        <v>17544347</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -5964,7 +5876,7 @@
         <v>239</v>
       </c>
       <c r="C121">
-        <v>18033673</v>
+        <v>17067520</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5996,7 +5908,7 @@
         <v>241</v>
       </c>
       <c r="C122">
-        <v>18005721</v>
+        <v>16919664</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -6028,7 +5940,7 @@
         <v>243</v>
       </c>
       <c r="C123">
-        <v>17941881</v>
+        <v>16690680</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -6060,7 +5972,7 @@
         <v>245</v>
       </c>
       <c r="C124">
-        <v>17900924</v>
+        <v>16632171</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -6092,7 +6004,7 @@
         <v>247</v>
       </c>
       <c r="C125">
-        <v>17863016</v>
+        <v>16463657</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -6124,7 +6036,7 @@
         <v>249</v>
       </c>
       <c r="C126">
-        <v>17278891</v>
+        <v>16422916</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -6156,7 +6068,7 @@
         <v>251</v>
       </c>
       <c r="C127">
-        <v>16904702</v>
+        <v>16349221</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -6188,7 +6100,7 @@
         <v>253</v>
       </c>
       <c r="C128">
-        <v>16553869</v>
+        <v>16334225</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -6220,7 +6132,7 @@
         <v>255</v>
       </c>
       <c r="C129">
-        <v>16458926</v>
+        <v>16270922</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -6252,7 +6164,7 @@
         <v>257</v>
       </c>
       <c r="C130">
-        <v>16240622</v>
+        <v>16027764</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -6284,19 +6196,19 @@
         <v>259</v>
       </c>
       <c r="C131">
-        <v>16106727</v>
+        <v>15950508</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>13405</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>250100</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>10336</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>4338</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -6316,22 +6228,22 @@
         <v>261</v>
       </c>
       <c r="C132">
-        <v>16041619</v>
+        <v>15850310</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>989568</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>6609306</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>279021</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>102843</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -6348,19 +6260,19 @@
         <v>263</v>
       </c>
       <c r="C133">
-        <v>15887563</v>
+        <v>15613782</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>99743</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>818170</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>32742</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>16333</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -6380,7 +6292,7 @@
         <v>265</v>
       </c>
       <c r="C134">
-        <v>15832730</v>
+        <v>15083025</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -6412,7 +6324,7 @@
         <v>267</v>
       </c>
       <c r="C135">
-        <v>15731836</v>
+        <v>14982507</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -6444,7 +6356,7 @@
         <v>269</v>
       </c>
       <c r="C136">
-        <v>15524169</v>
+        <v>14905880</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -6476,7 +6388,7 @@
         <v>271</v>
       </c>
       <c r="C137">
-        <v>15287114</v>
+        <v>14893487</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6508,7 +6420,7 @@
         <v>273</v>
       </c>
       <c r="C138">
-        <v>14989558</v>
+        <v>14491546</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -6540,7 +6452,7 @@
         <v>275</v>
       </c>
       <c r="C139">
-        <v>14971907</v>
+        <v>14272603</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -6572,7 +6484,7 @@
         <v>277</v>
       </c>
       <c r="C140">
-        <v>14893487</v>
+        <v>14222574</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6604,7 +6516,7 @@
         <v>279</v>
       </c>
       <c r="C141">
-        <v>14865561</v>
+        <v>14186461</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -6636,7 +6548,7 @@
         <v>281</v>
       </c>
       <c r="C142">
-        <v>14576880</v>
+        <v>14010079</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -6668,7 +6580,7 @@
         <v>283</v>
       </c>
       <c r="C143">
-        <v>14542539</v>
+        <v>13943528</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -6700,7 +6612,7 @@
         <v>285</v>
       </c>
       <c r="C144">
-        <v>14528122</v>
+        <v>13799310</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6732,7 +6644,7 @@
         <v>287</v>
       </c>
       <c r="C145">
-        <v>14456646</v>
+        <v>13581641</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6764,7 +6676,7 @@
         <v>289</v>
       </c>
       <c r="C146">
-        <v>14184161</v>
+        <v>13541765</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6796,7 +6708,7 @@
         <v>291</v>
       </c>
       <c r="C147">
-        <v>14086140</v>
+        <v>13480171</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -6828,7 +6740,7 @@
         <v>293</v>
       </c>
       <c r="C148">
-        <v>14080603</v>
+        <v>13416475</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -6860,7 +6772,7 @@
         <v>295</v>
       </c>
       <c r="C149">
-        <v>13817373</v>
+        <v>13166814</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6892,7 +6804,7 @@
         <v>297</v>
       </c>
       <c r="C150">
-        <v>13619561</v>
+        <v>12789246</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6924,7 +6836,7 @@
         <v>299</v>
       </c>
       <c r="C151">
-        <v>13581641</v>
+        <v>12711006</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -6956,7 +6868,7 @@
         <v>301</v>
       </c>
       <c r="C152">
-        <v>13196319</v>
+        <v>12596663</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6988,7 +6900,7 @@
         <v>303</v>
       </c>
       <c r="C153">
-        <v>13117470</v>
+        <v>12507042</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -7020,7 +6932,7 @@
         <v>305</v>
       </c>
       <c r="C154">
-        <v>12988772</v>
+        <v>12419605</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -7052,7 +6964,7 @@
         <v>307</v>
       </c>
       <c r="C155">
-        <v>12838363</v>
+        <v>12220783</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -7084,7 +6996,7 @@
         <v>309</v>
       </c>
       <c r="C156">
-        <v>12272935</v>
+        <v>12148108</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -7116,7 +7028,7 @@
         <v>311</v>
       </c>
       <c r="C157">
-        <v>12123005</v>
+        <v>12130575</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -7148,7 +7060,7 @@
         <v>313</v>
       </c>
       <c r="C158">
-        <v>12102443</v>
+        <v>12112254</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -7180,7 +7092,7 @@
         <v>315</v>
       </c>
       <c r="C159">
-        <v>12024188</v>
+        <v>12070066</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -7212,7 +7124,7 @@
         <v>317</v>
       </c>
       <c r="C160">
-        <v>12003341</v>
+        <v>11842264</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -7244,19 +7156,19 @@
         <v>319</v>
       </c>
       <c r="C161">
-        <v>11871418</v>
+        <v>11765045</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -7265,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -7276,7 +7188,7 @@
         <v>321</v>
       </c>
       <c r="C162">
-        <v>11845465</v>
+        <v>11601031</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -7308,7 +7220,7 @@
         <v>323</v>
       </c>
       <c r="C163">
-        <v>11845034</v>
+        <v>11381791</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -7340,7 +7252,7 @@
         <v>325</v>
       </c>
       <c r="C164">
-        <v>11745928</v>
+        <v>11057217</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -7372,7 +7284,7 @@
         <v>327</v>
       </c>
       <c r="C165">
-        <v>11601031</v>
+        <v>10944767</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -7404,7 +7316,7 @@
         <v>329</v>
       </c>
       <c r="C166">
-        <v>11370535</v>
+        <v>10855625</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -7436,7 +7348,7 @@
         <v>331</v>
       </c>
       <c r="C167">
-        <v>11363791</v>
+        <v>10842465</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -7468,7 +7380,7 @@
         <v>333</v>
       </c>
       <c r="C168">
-        <v>11304044</v>
+        <v>10798646</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -7500,7 +7412,7 @@
         <v>335</v>
       </c>
       <c r="C169">
-        <v>10673423</v>
+        <v>10693779</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -7532,7 +7444,7 @@
         <v>337</v>
       </c>
       <c r="C170">
-        <v>10512293</v>
+        <v>10684332</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -7564,7 +7476,7 @@
         <v>339</v>
       </c>
       <c r="C171">
-        <v>10492018</v>
+        <v>10681799</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -7596,7 +7508,7 @@
         <v>341</v>
       </c>
       <c r="C172">
-        <v>10474404</v>
+        <v>10632772</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -7628,7 +7540,7 @@
         <v>343</v>
       </c>
       <c r="C173">
-        <v>10462703</v>
+        <v>10623832</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -7660,7 +7572,7 @@
         <v>345</v>
       </c>
       <c r="C174">
-        <v>10334489</v>
+        <v>10621078</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -7692,7 +7604,7 @@
         <v>347</v>
       </c>
       <c r="C175">
-        <v>10156010</v>
+        <v>10600049</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -7724,7 +7636,7 @@
         <v>349</v>
       </c>
       <c r="C176">
-        <v>10130901</v>
+        <v>10561955</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -7756,7 +7668,7 @@
         <v>351</v>
       </c>
       <c r="C177">
-        <v>10092301</v>
+        <v>10535727</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -7788,7 +7700,7 @@
         <v>353</v>
       </c>
       <c r="C178">
-        <v>10046417</v>
+        <v>10524411</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7820,7 +7732,7 @@
         <v>355</v>
       </c>
       <c r="C179">
-        <v>10012426</v>
+        <v>10518693</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -7852,7 +7764,7 @@
         <v>357</v>
       </c>
       <c r="C180">
-        <v>9980783</v>
+        <v>10480804</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7884,7 +7796,7 @@
         <v>359</v>
       </c>
       <c r="C181">
-        <v>9979135</v>
+        <v>10468167</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7916,7 +7828,7 @@
         <v>361</v>
       </c>
       <c r="C182">
-        <v>9963967</v>
+        <v>10464537</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7948,7 +7860,7 @@
         <v>363</v>
       </c>
       <c r="C183">
-        <v>9911612</v>
+        <v>10431360</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -7980,7 +7892,7 @@
         <v>365</v>
       </c>
       <c r="C184">
-        <v>9714361</v>
+        <v>10369770</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -8012,7 +7924,7 @@
         <v>367</v>
       </c>
       <c r="C185">
-        <v>9506634</v>
+        <v>10142963</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -8044,7 +7956,7 @@
         <v>369</v>
       </c>
       <c r="C186">
-        <v>9475507</v>
+        <v>10108392</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -8076,7 +7988,7 @@
         <v>371</v>
       </c>
       <c r="C187">
-        <v>9204885</v>
+        <v>10062721</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -8108,7 +8020,7 @@
         <v>373</v>
       </c>
       <c r="C188">
-        <v>9161861</v>
+        <v>10042011</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -8140,7 +8052,7 @@
         <v>375</v>
       </c>
       <c r="C189">
-        <v>9107504</v>
+        <v>10020297</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -8172,7 +8084,7 @@
         <v>377</v>
       </c>
       <c r="C190">
-        <v>9102154</v>
+        <v>9976086</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -8204,7 +8116,7 @@
         <v>379</v>
       </c>
       <c r="C191">
-        <v>9080933</v>
+        <v>9971825</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -8236,7 +8148,7 @@
         <v>381</v>
       </c>
       <c r="C192">
-        <v>8999529</v>
+        <v>9937307</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -8268,7 +8180,7 @@
         <v>383</v>
       </c>
       <c r="C193">
-        <v>8992322</v>
+        <v>9934629</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -8300,7 +8212,7 @@
         <v>385</v>
       </c>
       <c r="C194">
-        <v>8988135</v>
+        <v>9879717</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -8332,7 +8244,7 @@
         <v>387</v>
       </c>
       <c r="C195">
-        <v>8984321</v>
+        <v>9710128</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -8364,7 +8276,7 @@
         <v>389</v>
       </c>
       <c r="C196">
-        <v>8966417</v>
+        <v>9661358</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -8396,7 +8308,7 @@
         <v>391</v>
       </c>
       <c r="C197">
-        <v>8947212</v>
+        <v>9514985</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -8428,7 +8340,7 @@
         <v>393</v>
       </c>
       <c r="C198">
-        <v>8914235</v>
+        <v>9331984</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -8460,7 +8372,7 @@
         <v>395</v>
       </c>
       <c r="C199">
-        <v>8888743</v>
+        <v>8856193</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -8492,7 +8404,7 @@
         <v>397</v>
       </c>
       <c r="C200">
-        <v>8848317</v>
+        <v>8766203</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -8524,7 +8436,7 @@
         <v>399</v>
       </c>
       <c r="C201">
-        <v>8775718</v>
+        <v>8732521</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -8556,7 +8468,7 @@
         <v>401</v>
       </c>
       <c r="C202">
-        <v>8710593</v>
+        <v>8389796</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -8588,7 +8500,7 @@
         <v>403</v>
       </c>
       <c r="C203">
-        <v>8684673</v>
+        <v>8278925</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -8620,7 +8532,7 @@
         <v>405</v>
       </c>
       <c r="C204">
-        <v>8675108</v>
+        <v>8173937</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -8652,7 +8564,7 @@
         <v>407</v>
       </c>
       <c r="C205">
-        <v>8645554</v>
+        <v>7905859</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -8684,7 +8596,7 @@
         <v>409</v>
       </c>
       <c r="C206">
-        <v>8631507</v>
+        <v>7773499</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -8716,7 +8628,7 @@
         <v>411</v>
       </c>
       <c r="C207">
-        <v>8310741</v>
+        <v>7764434</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -8748,7 +8660,7 @@
         <v>413</v>
       </c>
       <c r="C208">
-        <v>8213403</v>
+        <v>7730374</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -8780,7 +8692,7 @@
         <v>415</v>
       </c>
       <c r="C209">
-        <v>8173937</v>
+        <v>7712976</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -8812,7 +8724,7 @@
         <v>417</v>
       </c>
       <c r="C210">
-        <v>7894405</v>
+        <v>7555553</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -8844,7 +8756,7 @@
         <v>419</v>
       </c>
       <c r="C211">
-        <v>7730374</v>
+        <v>7522651</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -8876,7 +8788,7 @@
         <v>421</v>
       </c>
       <c r="C212">
-        <v>7674761</v>
+        <v>7521377</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -8908,7 +8820,7 @@
         <v>423</v>
       </c>
       <c r="C213">
-        <v>7618236</v>
+        <v>7446574</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -8940,7 +8852,7 @@
         <v>425</v>
       </c>
       <c r="C214">
-        <v>7499981</v>
+        <v>7366563</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -8972,7 +8884,7 @@
         <v>427</v>
       </c>
       <c r="C215">
-        <v>7498022</v>
+        <v>7147321</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -9004,7 +8916,7 @@
         <v>429</v>
       </c>
       <c r="C216">
-        <v>7436757</v>
+        <v>6795770</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -9036,7 +8948,7 @@
         <v>431</v>
       </c>
       <c r="C217">
-        <v>7366563</v>
+        <v>6750554</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -9068,7 +8980,7 @@
         <v>433</v>
       </c>
       <c r="C218">
-        <v>7099835</v>
+        <v>6698960</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -9100,7 +9012,7 @@
         <v>435</v>
       </c>
       <c r="C219">
-        <v>6941198</v>
+        <v>6577807</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -9132,7 +9044,7 @@
         <v>437</v>
       </c>
       <c r="C220">
-        <v>6803083</v>
+        <v>6444269</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -9164,7 +9076,7 @@
         <v>439</v>
       </c>
       <c r="C221">
-        <v>6515463</v>
+        <v>6385442</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -9196,7 +9108,7 @@
         <v>441</v>
       </c>
       <c r="C222">
-        <v>6502048</v>
+        <v>6326363</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -9228,7 +9140,7 @@
         <v>443</v>
       </c>
       <c r="C223">
-        <v>6341876</v>
+        <v>6286782</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -9260,7 +9172,7 @@
         <v>445</v>
       </c>
       <c r="C224">
-        <v>6270642</v>
+        <v>5602722</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -9292,7 +9204,7 @@
         <v>447</v>
       </c>
       <c r="C225">
-        <v>6232922</v>
+        <v>4965076</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -9324,7 +9236,7 @@
         <v>449</v>
       </c>
       <c r="C226">
-        <v>6034400</v>
+        <v>4911909</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -9356,7 +9268,7 @@
         <v>451</v>
       </c>
       <c r="C227">
-        <v>5970847</v>
+        <v>4902793</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -9388,7 +9300,7 @@
         <v>453</v>
       </c>
       <c r="C228">
-        <v>5679764</v>
+        <v>4800850</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -9420,7 +9332,7 @@
         <v>455</v>
       </c>
       <c r="C229">
-        <v>5288160</v>
+        <v>4733823</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -9452,7 +9364,7 @@
         <v>457</v>
       </c>
       <c r="C230">
-        <v>5080777</v>
+        <v>4395586</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -9484,7 +9396,7 @@
         <v>459</v>
       </c>
       <c r="C231">
-        <v>4723672</v>
+        <v>4279188</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -9516,7 +9428,7 @@
         <v>461</v>
       </c>
       <c r="C232">
-        <v>4703005</v>
+        <v>4182257</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -9548,7 +9460,7 @@
         <v>463</v>
       </c>
       <c r="C233">
-        <v>4698665</v>
+        <v>3713453</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -9580,7 +9492,7 @@
         <v>465</v>
       </c>
       <c r="C234">
-        <v>4693041</v>
+        <v>3685994</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -9612,7 +9524,7 @@
         <v>467</v>
       </c>
       <c r="C235">
-        <v>4530715</v>
+        <v>3648548</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -9644,7 +9556,7 @@
         <v>469</v>
       </c>
       <c r="C236">
-        <v>4396287</v>
+        <v>3045569</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -9676,7 +9588,7 @@
         <v>471</v>
       </c>
       <c r="C237">
-        <v>3685994</v>
+        <v>3023418</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -9708,7 +9620,7 @@
         <v>473</v>
       </c>
       <c r="C238">
-        <v>3575557</v>
+        <v>2977787</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -9740,7 +9652,7 @@
         <v>475</v>
       </c>
       <c r="C239">
-        <v>3158449</v>
+        <v>2721037</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -9772,7 +9684,7 @@
         <v>477</v>
       </c>
       <c r="C240">
-        <v>3089099</v>
+        <v>2478934</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -9804,7 +9716,7 @@
         <v>479</v>
       </c>
       <c r="C241">
-        <v>3025674</v>
+        <v>2325443</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -9836,7 +9748,7 @@
         <v>481</v>
       </c>
       <c r="C242">
-        <v>2977279</v>
+        <v>2274937</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -9868,7 +9780,7 @@
         <v>483</v>
       </c>
       <c r="C243">
-        <v>2969277</v>
+        <v>1796807</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -9900,7 +9812,7 @@
         <v>485</v>
       </c>
       <c r="C244">
-        <v>2926732</v>
+        <v>1762393</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -9932,19 +9844,19 @@
         <v>487</v>
       </c>
       <c r="C245">
-        <v>2859473</v>
+        <v>1656638</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>43671</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>11609</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -9953,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="J245">
-        <v>0</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -9964,16 +9876,16 @@
         <v>489</v>
       </c>
       <c r="C246">
-        <v>2697997</v>
+        <v>1646926</v>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>3280</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -9996,7 +9908,7 @@
         <v>491</v>
       </c>
       <c r="C247">
-        <v>2274237</v>
+        <v>1642110</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -10028,7 +9940,7 @@
         <v>493</v>
       </c>
       <c r="C248">
-        <v>2216433</v>
+        <v>1632216</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -10060,7 +9972,7 @@
         <v>495</v>
       </c>
       <c r="C249">
-        <v>2182725</v>
+        <v>1550834</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -10092,13 +10004,13 @@
         <v>497</v>
       </c>
       <c r="C250">
-        <v>1932396</v>
+        <v>1518175</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -10113,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -10124,7 +10036,7 @@
         <v>499</v>
       </c>
       <c r="C251">
-        <v>1762785</v>
+        <v>1441457</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -10156,7 +10068,7 @@
         <v>501</v>
       </c>
       <c r="C252">
-        <v>1690078</v>
+        <v>1432221</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -10188,7 +10100,7 @@
         <v>503</v>
       </c>
       <c r="C253">
-        <v>1638626</v>
+        <v>1427809</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -10220,7 +10132,7 @@
         <v>505</v>
       </c>
       <c r="C254">
-        <v>1580488</v>
+        <v>1346134</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -10252,7 +10164,7 @@
         <v>507</v>
       </c>
       <c r="C255">
-        <v>1568714</v>
+        <v>1175992</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -10284,7 +10196,7 @@
         <v>509</v>
       </c>
       <c r="C256">
-        <v>1567665</v>
+        <v>1142064</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -10316,7 +10228,7 @@
         <v>511</v>
       </c>
       <c r="C257">
-        <v>1540634</v>
+        <v>1088214</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -10348,7 +10260,7 @@
         <v>513</v>
       </c>
       <c r="C258">
-        <v>1510075</v>
+        <v>1076237</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -10380,16 +10292,16 @@
         <v>515</v>
       </c>
       <c r="C259">
-        <v>1433456</v>
+        <v>1066382</v>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>16900</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -10412,7 +10324,7 @@
         <v>517</v>
       </c>
       <c r="C260">
-        <v>1402860</v>
+        <v>1065270</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -10444,7 +10356,7 @@
         <v>519</v>
       </c>
       <c r="C261">
-        <v>1315091</v>
+        <v>899441</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -10476,7 +10388,7 @@
         <v>521</v>
       </c>
       <c r="C262">
-        <v>1115388</v>
+        <v>839683</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -10508,7 +10420,7 @@
         <v>523</v>
       </c>
       <c r="C263">
-        <v>1084014</v>
+        <v>767730</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -10540,7 +10452,7 @@
         <v>525</v>
       </c>
       <c r="C264">
-        <v>1072637</v>
+        <v>575579</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -10572,7 +10484,7 @@
         <v>527</v>
       </c>
       <c r="C265">
-        <v>1059182</v>
+        <v>381614</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -10604,7 +10516,7 @@
         <v>529</v>
       </c>
       <c r="C266">
-        <v>1035515</v>
+        <v>342002</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -10636,7 +10548,7 @@
         <v>531</v>
       </c>
       <c r="C267">
-        <v>980105</v>
+        <v>238830</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -10668,7 +10580,7 @@
         <v>533</v>
       </c>
       <c r="C268">
-        <v>882675</v>
+        <v>187837</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -10700,7 +10612,7 @@
         <v>535</v>
       </c>
       <c r="C269">
-        <v>836895</v>
+        <v>175007</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -10732,7 +10644,7 @@
         <v>537</v>
       </c>
       <c r="C270">
-        <v>731850</v>
+        <v>157354</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -10764,7 +10676,7 @@
         <v>539</v>
       </c>
       <c r="C271">
-        <v>721101</v>
+        <v>156843</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -10796,7 +10708,7 @@
         <v>541</v>
       </c>
       <c r="C272">
-        <v>710351</v>
+        <v>123451</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -10828,7 +10740,7 @@
         <v>543</v>
       </c>
       <c r="C273">
-        <v>626684</v>
+        <v>41901</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -10860,7 +10772,7 @@
         <v>545</v>
       </c>
       <c r="C274">
-        <v>594704</v>
+        <v>41441</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -10892,7 +10804,7 @@
         <v>547</v>
       </c>
       <c r="C275">
-        <v>591660</v>
+        <v>40756</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -10924,7 +10836,7 @@
         <v>549</v>
       </c>
       <c r="C276">
-        <v>575579</v>
+        <v>40636</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -10956,7 +10868,7 @@
         <v>551</v>
       </c>
       <c r="C277">
-        <v>572987</v>
+        <v>40151</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -10977,422 +10889,6 @@
         <v>0</v>
       </c>
       <c r="J277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>552</v>
-      </c>
-      <c r="B278" t="s">
-        <v>553</v>
-      </c>
-      <c r="C278">
-        <v>503070</v>
-      </c>
-      <c r="D278">
-        <v>0</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>0</v>
-      </c>
-      <c r="G278">
-        <v>0</v>
-      </c>
-      <c r="H278">
-        <v>0</v>
-      </c>
-      <c r="I278">
-        <v>0</v>
-      </c>
-      <c r="J278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>554</v>
-      </c>
-      <c r="B279" t="s">
-        <v>555</v>
-      </c>
-      <c r="C279">
-        <v>442899</v>
-      </c>
-      <c r="D279">
-        <v>0</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="H279">
-        <v>0</v>
-      </c>
-      <c r="I279">
-        <v>0</v>
-      </c>
-      <c r="J279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>556</v>
-      </c>
-      <c r="B280" t="s">
-        <v>557</v>
-      </c>
-      <c r="C280">
-        <v>355509</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="H280">
-        <v>0</v>
-      </c>
-      <c r="I280">
-        <v>0</v>
-      </c>
-      <c r="J280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>558</v>
-      </c>
-      <c r="B281" t="s">
-        <v>559</v>
-      </c>
-      <c r="C281">
-        <v>336427</v>
-      </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="H281">
-        <v>0</v>
-      </c>
-      <c r="I281">
-        <v>0</v>
-      </c>
-      <c r="J281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>560</v>
-      </c>
-      <c r="B282" t="s">
-        <v>561</v>
-      </c>
-      <c r="C282">
-        <v>287039</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="H282">
-        <v>0</v>
-      </c>
-      <c r="I282">
-        <v>0</v>
-      </c>
-      <c r="J282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>562</v>
-      </c>
-      <c r="B283" t="s">
-        <v>563</v>
-      </c>
-      <c r="C283">
-        <v>265836</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="H283">
-        <v>0</v>
-      </c>
-      <c r="I283">
-        <v>0</v>
-      </c>
-      <c r="J283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>564</v>
-      </c>
-      <c r="B284" t="s">
-        <v>565</v>
-      </c>
-      <c r="C284">
-        <v>186133</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>0</v>
-      </c>
-      <c r="G284">
-        <v>0</v>
-      </c>
-      <c r="H284">
-        <v>0</v>
-      </c>
-      <c r="I284">
-        <v>0</v>
-      </c>
-      <c r="J284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>566</v>
-      </c>
-      <c r="B285" t="s">
-        <v>567</v>
-      </c>
-      <c r="C285">
-        <v>180489</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="H285">
-        <v>0</v>
-      </c>
-      <c r="I285">
-        <v>0</v>
-      </c>
-      <c r="J285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>568</v>
-      </c>
-      <c r="B286" t="s">
-        <v>569</v>
-      </c>
-      <c r="C286">
-        <v>175007</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="H286">
-        <v>0</v>
-      </c>
-      <c r="I286">
-        <v>0</v>
-      </c>
-      <c r="J286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>570</v>
-      </c>
-      <c r="B287" t="s">
-        <v>571</v>
-      </c>
-      <c r="C287">
-        <v>108964</v>
-      </c>
-      <c r="D287">
-        <v>0</v>
-      </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-      <c r="F287">
-        <v>0</v>
-      </c>
-      <c r="G287">
-        <v>0</v>
-      </c>
-      <c r="H287">
-        <v>0</v>
-      </c>
-      <c r="I287">
-        <v>0</v>
-      </c>
-      <c r="J287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>572</v>
-      </c>
-      <c r="B288" t="s">
-        <v>573</v>
-      </c>
-      <c r="C288">
-        <v>41901</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288">
-        <v>0</v>
-      </c>
-      <c r="G288">
-        <v>0</v>
-      </c>
-      <c r="H288">
-        <v>0</v>
-      </c>
-      <c r="I288">
-        <v>0</v>
-      </c>
-      <c r="J288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>574</v>
-      </c>
-      <c r="B289" t="s">
-        <v>575</v>
-      </c>
-      <c r="C289">
-        <v>41441</v>
-      </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="H289">
-        <v>0</v>
-      </c>
-      <c r="I289">
-        <v>0</v>
-      </c>
-      <c r="J289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>576</v>
-      </c>
-      <c r="B290" t="s">
-        <v>577</v>
-      </c>
-      <c r="C290">
-        <v>40151</v>
-      </c>
-      <c r="D290">
-        <v>0</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="H290">
-        <v>0</v>
-      </c>
-      <c r="I290">
-        <v>0</v>
-      </c>
-      <c r="J290">
         <v>0</v>
       </c>
     </row>
